--- a/BackTest/2019-10-18 BackTest CON.xlsx
+++ b/BackTest/2019-10-18 BackTest CON.xlsx
@@ -5045,7 +5045,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L97" t="n">
         <v>5.578999999999999</v>
@@ -5095,9 +5095,7 @@
       <c r="J98" t="n">
         <v>0.01999999999999957</v>
       </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -5146,9 +5144,7 @@
       <c r="J99" t="n">
         <v>0.01999999999999957</v>
       </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -5197,9 +5193,7 @@
       <c r="J100" t="n">
         <v>0.01999999999999957</v>
       </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -5248,9 +5242,7 @@
       <c r="J101" t="n">
         <v>0.01999999999999957</v>
       </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -5299,9 +5291,7 @@
       <c r="J102" t="n">
         <v>0.01999999999999957</v>
       </c>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -5350,9 +5340,7 @@
       <c r="J103" t="n">
         <v>0.01999999999999957</v>
       </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -5401,9 +5389,7 @@
       <c r="J104" t="n">
         <v>0.01999999999999957</v>
       </c>
-      <c r="K104" t="n">
-        <v>0</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -5452,9 +5438,7 @@
       <c r="J105" t="n">
         <v>0.01999999999999957</v>
       </c>
-      <c r="K105" t="n">
-        <v>0</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -5503,9 +5487,7 @@
       <c r="J106" t="n">
         <v>0.01999999999999957</v>
       </c>
-      <c r="K106" t="n">
-        <v>0</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -5554,9 +5536,7 @@
       <c r="J107" t="n">
         <v>0.01999999999999957</v>
       </c>
-      <c r="K107" t="n">
-        <v>0</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -5605,9 +5585,7 @@
       <c r="J108" t="n">
         <v>0.01999999999999957</v>
       </c>
-      <c r="K108" t="n">
-        <v>100</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -12633,7 +12611,7 @@
         <v>0.03999999999999915</v>
       </c>
       <c r="K251" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L251" t="n">
         <v>5.578999999999999</v>
@@ -12683,9 +12661,7 @@
       <c r="J252" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="K252" t="n">
-        <v>0</v>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -12735,7 +12711,7 @@
         <v>0.04999999999999893</v>
       </c>
       <c r="K253" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L253" t="n">
         <v>5.578999999999999</v>
@@ -13194,7 +13170,7 @@
         <v>0.05999999999999872</v>
       </c>
       <c r="K262" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L262" t="n">
         <v>5.578999999999999</v>
@@ -13244,9 +13220,7 @@
       <c r="J263" t="n">
         <v>0.05999999999999872</v>
       </c>
-      <c r="K263" t="n">
-        <v>0</v>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -13295,9 +13269,7 @@
       <c r="J264" t="n">
         <v>0.05999999999999872</v>
       </c>
-      <c r="K264" t="n">
-        <v>0</v>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -13346,9 +13318,7 @@
       <c r="J265" t="n">
         <v>0.05999999999999872</v>
       </c>
-      <c r="K265" t="n">
-        <v>0</v>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -13397,9 +13367,7 @@
       <c r="J266" t="n">
         <v>0.05999999999999872</v>
       </c>
-      <c r="K266" t="n">
-        <v>0</v>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -13448,9 +13416,7 @@
       <c r="J267" t="n">
         <v>0.05999999999999872</v>
       </c>
-      <c r="K267" t="n">
-        <v>0</v>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -13499,9 +13465,7 @@
       <c r="J268" t="n">
         <v>0.05999999999999872</v>
       </c>
-      <c r="K268" t="n">
-        <v>0</v>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -13550,9 +13514,7 @@
       <c r="J269" t="n">
         <v>0.05999999999999872</v>
       </c>
-      <c r="K269" t="n">
-        <v>0</v>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -13601,9 +13563,7 @@
       <c r="J270" t="n">
         <v>0.05999999999999872</v>
       </c>
-      <c r="K270" t="n">
-        <v>0</v>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -13652,9 +13612,7 @@
       <c r="J271" t="n">
         <v>0.05999999999999872</v>
       </c>
-      <c r="K271" t="n">
-        <v>0</v>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -13703,9 +13661,7 @@
       <c r="J272" t="n">
         <v>0.05999999999999872</v>
       </c>
-      <c r="K272" t="n">
-        <v>0</v>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -13754,9 +13710,7 @@
       <c r="J273" t="n">
         <v>0.05999999999999872</v>
       </c>
-      <c r="K273" t="n">
-        <v>100</v>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -15343,7 +15297,7 @@
         <v>0.07999999999999829</v>
       </c>
       <c r="K305" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L305" t="n">
         <v>5.578999999999999</v>
@@ -15393,9 +15347,7 @@
       <c r="J306" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="K306" t="n">
-        <v>0</v>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -15444,9 +15396,7 @@
       <c r="J307" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="K307" t="n">
-        <v>0</v>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -15495,9 +15445,7 @@
       <c r="J308" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="K308" t="n">
-        <v>0</v>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -15546,9 +15494,7 @@
       <c r="J309" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="K309" t="n">
-        <v>0</v>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -15597,9 +15543,7 @@
       <c r="J310" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="K310" t="n">
-        <v>0</v>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -15648,9 +15592,7 @@
       <c r="J311" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="K311" t="n">
-        <v>0</v>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -15699,9 +15641,7 @@
       <c r="J312" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="K312" t="n">
-        <v>0</v>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -15750,9 +15690,7 @@
       <c r="J313" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="K313" t="n">
-        <v>0</v>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -15801,9 +15739,7 @@
       <c r="J314" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="K314" t="n">
-        <v>0</v>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -15852,9 +15788,7 @@
       <c r="J315" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="K315" t="n">
-        <v>0</v>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -15903,9 +15837,7 @@
       <c r="J316" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="K316" t="n">
-        <v>100</v>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>5.579999999999999</v>
       </c>
@@ -16855,7 +16787,7 @@
         <v>0.1199999999999974</v>
       </c>
       <c r="K335" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L335" t="n">
         <v>5.588000000000003</v>
@@ -16906,7 +16838,7 @@
         <v>0.1199999999999974</v>
       </c>
       <c r="K336" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L336" t="n">
         <v>5.587000000000002</v>
@@ -16957,7 +16889,7 @@
         <v>0.1199999999999974</v>
       </c>
       <c r="K337" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L337" t="n">
         <v>5.586000000000001</v>
@@ -17008,7 +16940,7 @@
         <v>0.1199999999999974</v>
       </c>
       <c r="K338" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L338" t="n">
         <v>5.585000000000001</v>
@@ -17059,7 +16991,7 @@
         <v>0.1199999999999974</v>
       </c>
       <c r="K339" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L339" t="n">
         <v>5.584000000000001</v>
@@ -17110,7 +17042,7 @@
         <v>0.1199999999999974</v>
       </c>
       <c r="K340" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L340" t="n">
         <v>5.583</v>
@@ -17212,7 +17144,7 @@
         <v>0.1199999999999974</v>
       </c>
       <c r="K342" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L342" t="n">
         <v>5.581999999999999</v>
@@ -17263,7 +17195,7 @@
         <v>0.1299999999999972</v>
       </c>
       <c r="K343" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L343" t="n">
         <v>5.581999999999999</v>
@@ -17314,7 +17246,7 @@
         <v>0.1299999999999972</v>
       </c>
       <c r="K344" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L344" t="n">
         <v>5.581999999999999</v>
@@ -17365,7 +17297,7 @@
         <v>0.1299999999999972</v>
       </c>
       <c r="K345" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L345" t="n">
         <v>5.583</v>
@@ -17416,7 +17348,7 @@
         <v>0.1299999999999972</v>
       </c>
       <c r="K346" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L346" t="n">
         <v>5.584000000000001</v>
@@ -17467,7 +17399,7 @@
         <v>0.1299999999999972</v>
       </c>
       <c r="K347" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L347" t="n">
         <v>5.585000000000001</v>
@@ -17518,7 +17450,7 @@
         <v>0.1299999999999972</v>
       </c>
       <c r="K348" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L348" t="n">
         <v>5.586000000000001</v>
@@ -17569,7 +17501,7 @@
         <v>0.1299999999999972</v>
       </c>
       <c r="K349" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L349" t="n">
         <v>5.587000000000002</v>
@@ -17620,7 +17552,7 @@
         <v>0.139999999999997</v>
       </c>
       <c r="K350" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L350" t="n">
         <v>5.589000000000002</v>
@@ -17671,7 +17603,7 @@
         <v>0.1499999999999977</v>
       </c>
       <c r="K351" t="n">
-        <v>33.33333333333432</v>
+        <v>100</v>
       </c>
       <c r="L351" t="n">
         <v>5.592000000000002</v>
@@ -17722,7 +17654,7 @@
         <v>0.1499999999999977</v>
       </c>
       <c r="K352" t="n">
-        <v>60.00000000000071</v>
+        <v>100</v>
       </c>
       <c r="L352" t="n">
         <v>5.595000000000002</v>
@@ -17773,7 +17705,7 @@
         <v>0.219999999999998</v>
       </c>
       <c r="K353" t="n">
-        <v>-45.45454545454516</v>
+        <v>-55.5555555555549</v>
       </c>
       <c r="L353" t="n">
         <v>5.590000000000002</v>
@@ -17824,7 +17756,7 @@
         <v>0.2499999999999982</v>
       </c>
       <c r="K354" t="n">
-        <v>-14.28571428571392</v>
+        <v>-16.66666666666617</v>
       </c>
       <c r="L354" t="n">
         <v>5.588000000000003</v>
@@ -17875,7 +17807,7 @@
         <v>0.2499999999999982</v>
       </c>
       <c r="K355" t="n">
-        <v>-7.692307692307482</v>
+        <v>-16.66666666666617</v>
       </c>
       <c r="L355" t="n">
         <v>5.586000000000003</v>
@@ -17926,7 +17858,7 @@
         <v>0.2499999999999982</v>
       </c>
       <c r="K356" t="n">
-        <v>-7.692307692307482</v>
+        <v>-16.66666666666617</v>
       </c>
       <c r="L356" t="n">
         <v>5.584000000000003</v>
@@ -17977,7 +17909,7 @@
         <v>0.2499999999999982</v>
       </c>
       <c r="K357" t="n">
-        <v>-7.692307692307482</v>
+        <v>-16.66666666666617</v>
       </c>
       <c r="L357" t="n">
         <v>5.582000000000003</v>
@@ -18028,7 +17960,7 @@
         <v>0.2499999999999982</v>
       </c>
       <c r="K358" t="n">
-        <v>-7.692307692307482</v>
+        <v>-16.66666666666617</v>
       </c>
       <c r="L358" t="n">
         <v>5.580000000000004</v>
@@ -18079,7 +18011,7 @@
         <v>0.2499999999999982</v>
       </c>
       <c r="K359" t="n">
-        <v>-7.692307692307482</v>
+        <v>-27.27272727272639</v>
       </c>
       <c r="L359" t="n">
         <v>5.578000000000005</v>
@@ -18130,7 +18062,7 @@
         <v>0.2499999999999982</v>
       </c>
       <c r="K360" t="n">
-        <v>-7.692307692307482</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L360" t="n">
         <v>5.575000000000005</v>
@@ -18181,7 +18113,7 @@
         <v>0.2499999999999982</v>
       </c>
       <c r="K361" t="n">
-        <v>-7.692307692307482</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L361" t="n">
         <v>5.571000000000004</v>
@@ -18232,7 +18164,7 @@
         <v>0.2499999999999982</v>
       </c>
       <c r="K362" t="n">
-        <v>-7.692307692307482</v>
+        <v>100</v>
       </c>
       <c r="L362" t="n">
         <v>5.567000000000005</v>
@@ -18282,9 +18214,7 @@
       <c r="J363" t="n">
         <v>0.2499999999999982</v>
       </c>
-      <c r="K363" t="n">
-        <v>-16.66666666666617</v>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>5.570000000000005</v>
       </c>
@@ -18333,9 +18263,7 @@
       <c r="J364" t="n">
         <v>0.2499999999999982</v>
       </c>
-      <c r="K364" t="n">
-        <v>-16.66666666666617</v>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>5.570000000000005</v>
       </c>
@@ -18385,7 +18313,7 @@
         <v>0.2599999999999989</v>
       </c>
       <c r="K365" t="n">
-        <v>-23.07692307692297</v>
+        <v>-100</v>
       </c>
       <c r="L365" t="n">
         <v>5.569000000000004</v>
@@ -18436,7 +18364,7 @@
         <v>0.2699999999999996</v>
       </c>
       <c r="K366" t="n">
-        <v>-14.28571428571374</v>
+        <v>0</v>
       </c>
       <c r="L366" t="n">
         <v>5.569000000000004</v>
@@ -18487,7 +18415,7 @@
         <v>0.2699999999999996</v>
       </c>
       <c r="K367" t="n">
-        <v>-14.28571428571374</v>
+        <v>0</v>
       </c>
       <c r="L367" t="n">
         <v>5.569000000000004</v>
@@ -18538,7 +18466,7 @@
         <v>0.2699999999999996</v>
       </c>
       <c r="K368" t="n">
-        <v>-14.28571428571374</v>
+        <v>0</v>
       </c>
       <c r="L368" t="n">
         <v>5.569000000000004</v>
@@ -18589,7 +18517,7 @@
         <v>0.2699999999999996</v>
       </c>
       <c r="K369" t="n">
-        <v>-14.28571428571374</v>
+        <v>0</v>
       </c>
       <c r="L369" t="n">
         <v>5.569000000000004</v>
@@ -18640,7 +18568,7 @@
         <v>0.2699999999999996</v>
       </c>
       <c r="K370" t="n">
-        <v>-23.07692307692213</v>
+        <v>0</v>
       </c>
       <c r="L370" t="n">
         <v>5.569000000000004</v>
@@ -18691,7 +18619,7 @@
         <v>0.2699999999999996</v>
       </c>
       <c r="K371" t="n">
-        <v>-33.33333333333284</v>
+        <v>0</v>
       </c>
       <c r="L371" t="n">
         <v>5.569000000000004</v>
@@ -18742,7 +18670,7 @@
         <v>0.2699999999999996</v>
       </c>
       <c r="K372" t="n">
-        <v>-33.33333333333284</v>
+        <v>0</v>
       </c>
       <c r="L372" t="n">
         <v>5.569000000000004</v>
@@ -18793,7 +18721,7 @@
         <v>0.2699999999999996</v>
       </c>
       <c r="K373" t="n">
-        <v>59.99999999999858</v>
+        <v>0</v>
       </c>
       <c r="L373" t="n">
         <v>5.569000000000004</v>
@@ -18844,7 +18772,7 @@
         <v>0.2699999999999996</v>
       </c>
       <c r="K374" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L374" t="n">
         <v>5.569000000000004</v>
@@ -18894,9 +18822,7 @@
       <c r="J375" t="n">
         <v>0.2699999999999996</v>
       </c>
-      <c r="K375" t="n">
-        <v>0</v>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>5.570000000000005</v>
       </c>
@@ -18945,9 +18871,7 @@
       <c r="J376" t="n">
         <v>0.2699999999999996</v>
       </c>
-      <c r="K376" t="n">
-        <v>0</v>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>5.570000000000005</v>
       </c>
@@ -18996,9 +18920,7 @@
       <c r="J377" t="n">
         <v>0.2699999999999996</v>
       </c>
-      <c r="K377" t="n">
-        <v>0</v>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>5.570000000000005</v>
       </c>
@@ -19047,9 +18969,7 @@
       <c r="J378" t="n">
         <v>0.2699999999999996</v>
       </c>
-      <c r="K378" t="n">
-        <v>0</v>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>5.570000000000005</v>
       </c>
@@ -19098,9 +19018,7 @@
       <c r="J379" t="n">
         <v>0.2699999999999996</v>
       </c>
-      <c r="K379" t="n">
-        <v>0</v>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>5.570000000000005</v>
       </c>
@@ -19149,9 +19067,7 @@
       <c r="J380" t="n">
         <v>0.2699999999999996</v>
       </c>
-      <c r="K380" t="n">
-        <v>0</v>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>5.570000000000005</v>
       </c>
@@ -19200,9 +19116,7 @@
       <c r="J381" t="n">
         <v>0.2699999999999996</v>
       </c>
-      <c r="K381" t="n">
-        <v>0</v>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>5.570000000000005</v>
       </c>
@@ -19251,9 +19165,7 @@
       <c r="J382" t="n">
         <v>0.2699999999999996</v>
       </c>
-      <c r="K382" t="n">
-        <v>0</v>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>5.570000000000005</v>
       </c>
@@ -19302,9 +19214,7 @@
       <c r="J383" t="n">
         <v>0.2699999999999996</v>
       </c>
-      <c r="K383" t="n">
-        <v>0</v>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>5.570000000000005</v>
       </c>
@@ -19353,9 +19263,7 @@
       <c r="J384" t="n">
         <v>0.2699999999999996</v>
       </c>
-      <c r="K384" t="n">
-        <v>0</v>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>5.570000000000005</v>
       </c>
@@ -19404,9 +19312,7 @@
       <c r="J385" t="n">
         <v>0.2699999999999996</v>
       </c>
-      <c r="K385" t="n">
-        <v>100</v>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>5.570000000000005</v>
       </c>
@@ -21139,9 +21045,7 @@
       <c r="J420" t="n">
         <v>0.2799999999999994</v>
       </c>
-      <c r="K420" t="n">
-        <v>100</v>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>5.580000000000003</v>
       </c>
@@ -21190,9 +21094,7 @@
       <c r="J421" t="n">
         <v>0.2799999999999994</v>
       </c>
-      <c r="K421" t="n">
-        <v>100</v>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>5.580000000000003</v>
       </c>
@@ -21241,9 +21143,7 @@
       <c r="J422" t="n">
         <v>0.2799999999999994</v>
       </c>
-      <c r="K422" t="n">
-        <v>100</v>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>5.580000000000003</v>
       </c>
@@ -21292,9 +21192,7 @@
       <c r="J423" t="n">
         <v>0.2799999999999994</v>
       </c>
-      <c r="K423" t="n">
-        <v>100</v>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>5.580000000000003</v>
       </c>
@@ -21343,9 +21241,7 @@
       <c r="J424" t="n">
         <v>0.2799999999999994</v>
       </c>
-      <c r="K424" t="n">
-        <v>100</v>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>5.580000000000003</v>
       </c>
@@ -21394,9 +21290,7 @@
       <c r="J425" t="n">
         <v>0.2799999999999994</v>
       </c>
-      <c r="K425" t="n">
-        <v>100</v>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>5.580000000000003</v>
       </c>
@@ -21445,9 +21339,7 @@
       <c r="J426" t="n">
         <v>0.2799999999999994</v>
       </c>
-      <c r="K426" t="n">
-        <v>100</v>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>5.580000000000003</v>
       </c>
@@ -21496,9 +21388,7 @@
       <c r="J427" t="n">
         <v>0.2799999999999994</v>
       </c>
-      <c r="K427" t="n">
-        <v>100</v>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>5.580000000000003</v>
       </c>
@@ -21547,9 +21437,7 @@
       <c r="J428" t="n">
         <v>0.2799999999999994</v>
       </c>
-      <c r="K428" t="n">
-        <v>100</v>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>5.580000000000003</v>
       </c>
@@ -21598,9 +21486,7 @@
       <c r="J429" t="n">
         <v>0.2799999999999994</v>
       </c>
-      <c r="K429" t="n">
-        <v>100</v>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>5.580000000000003</v>
       </c>
@@ -21649,9 +21535,7 @@
       <c r="J430" t="n">
         <v>0.2799999999999994</v>
       </c>
-      <c r="K430" t="n">
-        <v>100</v>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>5.580000000000003</v>
       </c>
@@ -22453,9 +22337,7 @@
       <c r="J446" t="n">
         <v>0.2899999999999991</v>
       </c>
-      <c r="K446" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>5.570000000000005</v>
       </c>
@@ -22504,9 +22386,7 @@
       <c r="J447" t="n">
         <v>0.2899999999999991</v>
       </c>
-      <c r="K447" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>5.570000000000005</v>
       </c>
@@ -22555,9 +22435,7 @@
       <c r="J448" t="n">
         <v>0.2899999999999991</v>
       </c>
-      <c r="K448" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>5.570000000000005</v>
       </c>
@@ -22606,9 +22484,7 @@
       <c r="J449" t="n">
         <v>0.2899999999999991</v>
       </c>
-      <c r="K449" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>5.570000000000005</v>
       </c>
@@ -22657,9 +22533,7 @@
       <c r="J450" t="n">
         <v>0.2899999999999991</v>
       </c>
-      <c r="K450" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>5.570000000000005</v>
       </c>
@@ -22709,7 +22583,7 @@
         <v>0.2999999999999989</v>
       </c>
       <c r="K451" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L451" t="n">
         <v>5.571000000000004</v>
@@ -22760,7 +22634,7 @@
         <v>0.2999999999999989</v>
       </c>
       <c r="K452" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L452" t="n">
         <v>5.572000000000005</v>
@@ -22811,7 +22685,7 @@
         <v>0.2999999999999989</v>
       </c>
       <c r="K453" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L453" t="n">
         <v>5.573000000000004</v>
@@ -22862,7 +22736,7 @@
         <v>0.2999999999999989</v>
       </c>
       <c r="K454" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L454" t="n">
         <v>5.574000000000003</v>
@@ -22913,7 +22787,7 @@
         <v>0.2999999999999989</v>
       </c>
       <c r="K455" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L455" t="n">
         <v>5.575000000000004</v>
@@ -22964,7 +22838,7 @@
         <v>0.2999999999999989</v>
       </c>
       <c r="K456" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L456" t="n">
         <v>5.576000000000003</v>
@@ -23167,9 +23041,7 @@
       <c r="J460" t="n">
         <v>0.2999999999999989</v>
       </c>
-      <c r="K460" t="n">
-        <v>100</v>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>5.580000000000003</v>
       </c>
@@ -23218,9 +23090,7 @@
       <c r="J461" t="n">
         <v>0.2999999999999989</v>
       </c>
-      <c r="K461" t="n">
-        <v>100</v>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>5.580000000000003</v>
       </c>
@@ -23269,9 +23139,7 @@
       <c r="J462" t="n">
         <v>0.2999999999999989</v>
       </c>
-      <c r="K462" t="n">
-        <v>100</v>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>5.580000000000003</v>
       </c>
@@ -23320,9 +23188,7 @@
       <c r="J463" t="n">
         <v>0.2999999999999989</v>
       </c>
-      <c r="K463" t="n">
-        <v>100</v>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>5.580000000000003</v>
       </c>
@@ -23371,9 +23237,7 @@
       <c r="J464" t="n">
         <v>0.2999999999999989</v>
       </c>
-      <c r="K464" t="n">
-        <v>100</v>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>5.580000000000003</v>
       </c>
@@ -23422,9 +23286,7 @@
       <c r="J465" t="n">
         <v>0.2999999999999989</v>
       </c>
-      <c r="K465" t="n">
-        <v>100</v>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>5.580000000000003</v>
       </c>
@@ -23473,9 +23335,7 @@
       <c r="J466" t="n">
         <v>0.2999999999999989</v>
       </c>
-      <c r="K466" t="n">
-        <v>100</v>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>5.580000000000003</v>
       </c>
@@ -23524,9 +23384,7 @@
       <c r="J467" t="n">
         <v>0.2999999999999989</v>
       </c>
-      <c r="K467" t="n">
-        <v>100</v>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>5.580000000000003</v>
       </c>
@@ -23575,9 +23433,7 @@
       <c r="J468" t="n">
         <v>0.2999999999999989</v>
       </c>
-      <c r="K468" t="n">
-        <v>100</v>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>5.580000000000003</v>
       </c>
@@ -23626,9 +23482,7 @@
       <c r="J469" t="n">
         <v>0.2999999999999989</v>
       </c>
-      <c r="K469" t="n">
-        <v>100</v>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>5.580000000000003</v>
       </c>
@@ -23677,9 +23531,7 @@
       <c r="J470" t="n">
         <v>0.2999999999999989</v>
       </c>
-      <c r="K470" t="n">
-        <v>100</v>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>5.580000000000003</v>
       </c>
@@ -24637,7 +24489,7 @@
         <v>0.3799999999999999</v>
       </c>
       <c r="K489" t="n">
-        <v>74.99999999999861</v>
+        <v>49.99999999999778</v>
       </c>
       <c r="L489" t="n">
         <v>5.640000000000005</v>
@@ -24688,7 +24540,7 @@
         <v>0.3799999999999999</v>
       </c>
       <c r="K490" t="n">
-        <v>74.99999999999861</v>
+        <v>33.33333333333136</v>
       </c>
       <c r="L490" t="n">
         <v>5.642000000000005</v>
@@ -24739,7 +24591,7 @@
         <v>0.3799999999999999</v>
       </c>
       <c r="K491" t="n">
-        <v>74.99999999999861</v>
+        <v>33.33333333333136</v>
       </c>
       <c r="L491" t="n">
         <v>5.643000000000005</v>
@@ -24790,7 +24642,7 @@
         <v>0.3799999999999999</v>
       </c>
       <c r="K492" t="n">
-        <v>74.99999999999861</v>
+        <v>33.33333333333136</v>
       </c>
       <c r="L492" t="n">
         <v>5.644000000000005</v>
@@ -24841,7 +24693,7 @@
         <v>0.3799999999999999</v>
       </c>
       <c r="K493" t="n">
-        <v>74.99999999999861</v>
+        <v>-100</v>
       </c>
       <c r="L493" t="n">
         <v>5.645000000000005</v>
@@ -24892,7 +24744,7 @@
         <v>0.3799999999999999</v>
       </c>
       <c r="K494" t="n">
-        <v>74.99999999999861</v>
+        <v>-100</v>
       </c>
       <c r="L494" t="n">
         <v>5.644000000000005</v>
@@ -24943,7 +24795,7 @@
         <v>0.3899999999999997</v>
       </c>
       <c r="K495" t="n">
-        <v>55.5555555555549</v>
+        <v>-100</v>
       </c>
       <c r="L495" t="n">
         <v>5.642000000000005</v>
@@ -24994,7 +24846,7 @@
         <v>0.3899999999999997</v>
       </c>
       <c r="K496" t="n">
-        <v>49.99999999999945</v>
+        <v>-100</v>
       </c>
       <c r="L496" t="n">
         <v>5.640000000000006</v>
@@ -25045,7 +24897,7 @@
         <v>0.3899999999999997</v>
       </c>
       <c r="K497" t="n">
-        <v>49.99999999999945</v>
+        <v>-100</v>
       </c>
       <c r="L497" t="n">
         <v>5.638000000000006</v>
@@ -25096,7 +24948,7 @@
         <v>0.3899999999999997</v>
       </c>
       <c r="K498" t="n">
-        <v>33.33333333333235</v>
+        <v>-100</v>
       </c>
       <c r="L498" t="n">
         <v>5.636000000000006</v>
@@ -25147,7 +24999,7 @@
         <v>0.3899999999999997</v>
       </c>
       <c r="K499" t="n">
-        <v>19.99999999999929</v>
+        <v>-100</v>
       </c>
       <c r="L499" t="n">
         <v>5.635000000000007</v>
@@ -25198,7 +25050,7 @@
         <v>0.3899999999999997</v>
       </c>
       <c r="K500" t="n">
-        <v>19.99999999999929</v>
+        <v>-100</v>
       </c>
       <c r="L500" t="n">
         <v>5.634000000000007</v>
@@ -25249,7 +25101,7 @@
         <v>0.3899999999999997</v>
       </c>
       <c r="K501" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L501" t="n">
         <v>5.633000000000007</v>
@@ -25300,7 +25152,7 @@
         <v>0.3899999999999997</v>
       </c>
       <c r="K502" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L502" t="n">
         <v>5.632000000000007</v>
@@ -25351,7 +25203,7 @@
         <v>0.3899999999999997</v>
       </c>
       <c r="K503" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L503" t="n">
         <v>5.631000000000007</v>
@@ -25401,9 +25253,7 @@
       <c r="J504" t="n">
         <v>0.3899999999999997</v>
       </c>
-      <c r="K504" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>5.630000000000008</v>
       </c>
@@ -25452,9 +25302,7 @@
       <c r="J505" t="n">
         <v>0.3899999999999997</v>
       </c>
-      <c r="K505" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>5.630000000000008</v>
       </c>
@@ -25503,9 +25351,7 @@
       <c r="J506" t="n">
         <v>0.3899999999999997</v>
       </c>
-      <c r="K506" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>5.630000000000008</v>
       </c>
@@ -25554,9 +25400,7 @@
       <c r="J507" t="n">
         <v>0.3899999999999997</v>
       </c>
-      <c r="K507" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>5.630000000000008</v>
       </c>
@@ -25606,7 +25450,7 @@
         <v>0.3999999999999995</v>
       </c>
       <c r="K508" t="n">
-        <v>-33.33333333333531</v>
+        <v>100</v>
       </c>
       <c r="L508" t="n">
         <v>5.631000000000007</v>
@@ -25657,7 +25501,7 @@
         <v>0.3999999999999995</v>
       </c>
       <c r="K509" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L509" t="n">
         <v>5.632000000000007</v>
@@ -25708,7 +25552,7 @@
         <v>0.419999999999999</v>
       </c>
       <c r="K510" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L510" t="n">
         <v>5.631000000000006</v>
@@ -25759,7 +25603,7 @@
         <v>0.4299999999999988</v>
       </c>
       <c r="K511" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L511" t="n">
         <v>5.631000000000006</v>
@@ -25810,7 +25654,7 @@
         <v>0.4399999999999986</v>
       </c>
       <c r="K512" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L512" t="n">
         <v>5.632000000000007</v>
@@ -25861,7 +25705,7 @@
         <v>0.4399999999999986</v>
       </c>
       <c r="K513" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L513" t="n">
         <v>5.633000000000006</v>
@@ -25912,7 +25756,7 @@
         <v>0.4499999999999984</v>
       </c>
       <c r="K514" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L514" t="n">
         <v>5.633000000000006</v>
@@ -26065,7 +25909,7 @@
         <v>0.4499999999999984</v>
       </c>
       <c r="K517" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L517" t="n">
         <v>5.633000000000006</v>
@@ -26116,7 +25960,7 @@
         <v>0.4499999999999984</v>
       </c>
       <c r="K518" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L518" t="n">
         <v>5.632000000000007</v>
@@ -26167,7 +26011,7 @@
         <v>0.4499999999999984</v>
       </c>
       <c r="K519" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L519" t="n">
         <v>5.631000000000006</v>
@@ -26269,7 +26113,7 @@
         <v>0.4499999999999984</v>
       </c>
       <c r="K521" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L521" t="n">
         <v>5.632000000000007</v>
@@ -26320,7 +26164,7 @@
         <v>0.4499999999999984</v>
       </c>
       <c r="K522" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L522" t="n">
         <v>5.631000000000007</v>
@@ -26370,9 +26214,7 @@
       <c r="J523" t="n">
         <v>0.4499999999999984</v>
       </c>
-      <c r="K523" t="n">
-        <v>0</v>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>5.630000000000008</v>
       </c>
@@ -26421,9 +26263,7 @@
       <c r="J524" t="n">
         <v>0.4499999999999984</v>
       </c>
-      <c r="K524" t="n">
-        <v>0</v>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>5.630000000000008</v>
       </c>
@@ -26472,9 +26312,7 @@
       <c r="J525" t="n">
         <v>0.4499999999999984</v>
       </c>
-      <c r="K525" t="n">
-        <v>0</v>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>5.630000000000008</v>
       </c>
@@ -26523,9 +26361,7 @@
       <c r="J526" t="n">
         <v>0.4499999999999984</v>
       </c>
-      <c r="K526" t="n">
-        <v>0</v>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>5.630000000000008</v>
       </c>
@@ -26574,9 +26410,7 @@
       <c r="J527" t="n">
         <v>0.4499999999999984</v>
       </c>
-      <c r="K527" t="n">
-        <v>0</v>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>5.630000000000008</v>
       </c>
@@ -26625,9 +26459,7 @@
       <c r="J528" t="n">
         <v>0.4499999999999984</v>
       </c>
-      <c r="K528" t="n">
-        <v>-20</v>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>5.630000000000008</v>
       </c>
@@ -26680,9 +26512,7 @@
       <c r="J529" t="n">
         <v>0.4499999999999984</v>
       </c>
-      <c r="K529" t="n">
-        <v>-20</v>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>5.630000000000008</v>
       </c>
@@ -26739,9 +26569,7 @@
       <c r="J530" t="n">
         <v>0.4499999999999984</v>
       </c>
-      <c r="K530" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>5.630000000000008</v>
       </c>
@@ -26799,7 +26627,7 @@
         <v>0.4599999999999982</v>
       </c>
       <c r="K531" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L531" t="n">
         <v>5.629000000000007</v>
@@ -26856,7 +26684,7 @@
         <v>0.469999999999998</v>
       </c>
       <c r="K532" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L532" t="n">
         <v>5.629000000000007</v>
@@ -26913,7 +26741,7 @@
         <v>0.4799999999999978</v>
       </c>
       <c r="K533" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L533" t="n">
         <v>5.630000000000007</v>
@@ -27312,7 +27140,7 @@
         <v>0.5199999999999987</v>
       </c>
       <c r="K540" t="n">
-        <v>14.28571428571392</v>
+        <v>33.33333333333235</v>
       </c>
       <c r="L540" t="n">
         <v>5.645000000000005</v>
@@ -27369,7 +27197,7 @@
         <v>0.5199999999999987</v>
       </c>
       <c r="K541" t="n">
-        <v>14.28571428571392</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L541" t="n">
         <v>5.647000000000006</v>
@@ -27426,7 +27254,7 @@
         <v>0.5199999999999987</v>
       </c>
       <c r="K542" t="n">
-        <v>14.28571428571392</v>
+        <v>0</v>
       </c>
       <c r="L542" t="n">
         <v>5.648000000000005</v>
@@ -27483,7 +27311,7 @@
         <v>0.5199999999999987</v>
       </c>
       <c r="K543" t="n">
-        <v>14.28571428571392</v>
+        <v>-33.33333333333531</v>
       </c>
       <c r="L543" t="n">
         <v>5.648000000000005</v>
@@ -27540,7 +27368,7 @@
         <v>0.5199999999999987</v>
       </c>
       <c r="K544" t="n">
-        <v>14.28571428571392</v>
+        <v>-33.33333333333531</v>
       </c>
       <c r="L544" t="n">
         <v>5.647000000000006</v>
@@ -27597,7 +27425,7 @@
         <v>0.5499999999999989</v>
       </c>
       <c r="K545" t="n">
-        <v>39.99999999999982</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L545" t="n">
         <v>5.649000000000006</v>
@@ -27654,7 +27482,7 @@
         <v>0.5599999999999987</v>
       </c>
       <c r="K546" t="n">
-        <v>27.27272727272742</v>
+        <v>0</v>
       </c>
       <c r="L546" t="n">
         <v>5.649000000000006</v>
@@ -27711,7 +27539,7 @@
         <v>0.5599999999999987</v>
       </c>
       <c r="K547" t="n">
-        <v>27.27272727272742</v>
+        <v>0</v>
       </c>
       <c r="L547" t="n">
         <v>5.649000000000006</v>
@@ -27768,7 +27596,7 @@
         <v>0.5599999999999987</v>
       </c>
       <c r="K548" t="n">
-        <v>27.27272727272742</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L548" t="n">
         <v>5.649000000000006</v>
@@ -27825,7 +27653,7 @@
         <v>0.5599999999999987</v>
       </c>
       <c r="K549" t="n">
-        <v>27.27272727272742</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L549" t="n">
         <v>5.651000000000006</v>
@@ -27882,7 +27710,7 @@
         <v>0.5599999999999987</v>
       </c>
       <c r="K550" t="n">
-        <v>27.27272727272742</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L550" t="n">
         <v>5.653000000000006</v>
@@ -27933,7 +27761,7 @@
         <v>0.5599999999999987</v>
       </c>
       <c r="K551" t="n">
-        <v>39.99999999999982</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L551" t="n">
         <v>5.655000000000006</v>
@@ -27984,7 +27812,7 @@
         <v>0.5599999999999987</v>
       </c>
       <c r="K552" t="n">
-        <v>33.33333333333333</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L552" t="n">
         <v>5.657000000000005</v>
@@ -28035,7 +27863,7 @@
         <v>0.5599999999999987</v>
       </c>
       <c r="K553" t="n">
-        <v>25.00000000000028</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L553" t="n">
         <v>5.659000000000004</v>
@@ -28086,7 +27914,7 @@
         <v>0.5599999999999987</v>
       </c>
       <c r="K554" t="n">
-        <v>14.28571428571392</v>
+        <v>-100</v>
       </c>
       <c r="L554" t="n">
         <v>5.661000000000004</v>
@@ -28136,9 +27964,7 @@
       <c r="J555" t="n">
         <v>0.5599999999999987</v>
       </c>
-      <c r="K555" t="n">
-        <v>14.28571428571392</v>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>5.660000000000004</v>
       </c>
@@ -28188,7 +28014,7 @@
         <v>0.5699999999999985</v>
       </c>
       <c r="K556" t="n">
-        <v>-14.28571428571392</v>
+        <v>-100</v>
       </c>
       <c r="L556" t="n">
         <v>5.659000000000003</v>
@@ -28341,7 +28167,7 @@
         <v>0.5799999999999983</v>
       </c>
       <c r="K559" t="n">
-        <v>33.33333333333432</v>
+        <v>0</v>
       </c>
       <c r="L559" t="n">
         <v>5.659000000000003</v>
@@ -28392,7 +28218,7 @@
         <v>0.5899999999999981</v>
       </c>
       <c r="K560" t="n">
-        <v>42.85714285714358</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L560" t="n">
         <v>5.660000000000004</v>
@@ -28443,7 +28269,7 @@
         <v>0.5899999999999981</v>
       </c>
       <c r="K561" t="n">
-        <v>42.85714285714358</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L561" t="n">
         <v>5.661000000000004</v>
@@ -28494,7 +28320,7 @@
         <v>0.5899999999999981</v>
       </c>
       <c r="K562" t="n">
-        <v>42.85714285714358</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L562" t="n">
         <v>5.662000000000004</v>
@@ -28545,7 +28371,7 @@
         <v>0.5899999999999981</v>
       </c>
       <c r="K563" t="n">
-        <v>42.85714285714358</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L563" t="n">
         <v>5.663000000000006</v>
@@ -28596,7 +28422,7 @@
         <v>0.5899999999999981</v>
       </c>
       <c r="K564" t="n">
-        <v>42.85714285714358</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L564" t="n">
         <v>5.664000000000006</v>
@@ -28647,7 +28473,7 @@
         <v>0.5899999999999981</v>
       </c>
       <c r="K565" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L565" t="n">
         <v>5.665000000000006</v>
@@ -28851,7 +28677,7 @@
         <v>0.5999999999999979</v>
       </c>
       <c r="K569" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L569" t="n">
         <v>5.666000000000007</v>
@@ -28902,7 +28728,7 @@
         <v>0.5999999999999979</v>
       </c>
       <c r="K570" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L570" t="n">
         <v>5.665000000000006</v>
@@ -28953,7 +28779,7 @@
         <v>0.5999999999999979</v>
       </c>
       <c r="K571" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L571" t="n">
         <v>5.664000000000006</v>
@@ -29004,7 +28830,7 @@
         <v>0.6099999999999977</v>
       </c>
       <c r="K572" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L572" t="n">
         <v>5.662000000000005</v>
@@ -29055,7 +28881,7 @@
         <v>0.6299999999999981</v>
       </c>
       <c r="K573" t="n">
-        <v>-42.85714285714358</v>
+        <v>-100</v>
       </c>
       <c r="L573" t="n">
         <v>5.658000000000006</v>
@@ -29106,7 +28932,7 @@
         <v>0.6299999999999981</v>
       </c>
       <c r="K574" t="n">
-        <v>-42.85714285714358</v>
+        <v>-100</v>
       </c>
       <c r="L574" t="n">
         <v>5.654000000000005</v>
@@ -29157,7 +28983,7 @@
         <v>0.6399999999999979</v>
       </c>
       <c r="K575" t="n">
-        <v>-50.00000000000055</v>
+        <v>-100</v>
       </c>
       <c r="L575" t="n">
         <v>5.649000000000005</v>
@@ -29208,7 +29034,7 @@
         <v>0.6399999999999979</v>
       </c>
       <c r="K576" t="n">
-        <v>-42.85714285714358</v>
+        <v>-100</v>
       </c>
       <c r="L576" t="n">
         <v>5.645000000000005</v>
@@ -29259,7 +29085,7 @@
         <v>0.6399999999999979</v>
       </c>
       <c r="K577" t="n">
-        <v>-66.66666666666717</v>
+        <v>-100</v>
       </c>
       <c r="L577" t="n">
         <v>5.641000000000004</v>
@@ -29310,7 +29136,7 @@
         <v>0.6399999999999979</v>
       </c>
       <c r="K578" t="n">
-        <v>-66.66666666666717</v>
+        <v>-100</v>
       </c>
       <c r="L578" t="n">
         <v>5.637000000000003</v>
@@ -29361,7 +29187,7 @@
         <v>0.6399999999999979</v>
       </c>
       <c r="K579" t="n">
-        <v>-66.66666666666717</v>
+        <v>-100</v>
       </c>
       <c r="L579" t="n">
         <v>5.633000000000003</v>
@@ -29412,7 +29238,7 @@
         <v>0.6899999999999977</v>
       </c>
       <c r="K580" t="n">
-        <v>0</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L580" t="n">
         <v>5.634000000000003</v>
@@ -29463,7 +29289,7 @@
         <v>0.6999999999999975</v>
       </c>
       <c r="K581" t="n">
-        <v>-9.090909090908944</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L581" t="n">
         <v>5.634000000000003</v>
@@ -29514,7 +29340,7 @@
         <v>0.6999999999999975</v>
       </c>
       <c r="K582" t="n">
-        <v>-9.090909090908944</v>
+        <v>42.85714285714358</v>
       </c>
       <c r="L582" t="n">
         <v>5.635000000000003</v>
@@ -29565,7 +29391,7 @@
         <v>0.6999999999999975</v>
       </c>
       <c r="K583" t="n">
-        <v>-9.090909090908944</v>
+        <v>42.85714285714358</v>
       </c>
       <c r="L583" t="n">
         <v>5.638000000000003</v>
@@ -29616,7 +29442,7 @@
         <v>0.6999999999999975</v>
       </c>
       <c r="K584" t="n">
-        <v>-9.090909090908944</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L584" t="n">
         <v>5.641000000000004</v>
@@ -29667,7 +29493,7 @@
         <v>0.6999999999999975</v>
       </c>
       <c r="K585" t="n">
-        <v>-9.090909090908944</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L585" t="n">
         <v>5.645000000000004</v>
@@ -29718,7 +29544,7 @@
         <v>0.6999999999999975</v>
       </c>
       <c r="K586" t="n">
-        <v>0</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L586" t="n">
         <v>5.649000000000004</v>
@@ -29769,7 +29595,7 @@
         <v>0.6999999999999975</v>
       </c>
       <c r="K587" t="n">
-        <v>0</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L587" t="n">
         <v>5.653000000000005</v>
@@ -29820,7 +29646,7 @@
         <v>0.6999999999999975</v>
       </c>
       <c r="K588" t="n">
-        <v>0</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L588" t="n">
         <v>5.657000000000005</v>
@@ -29871,7 +29697,7 @@
         <v>0.7099999999999973</v>
       </c>
       <c r="K589" t="n">
-        <v>9.090909090908944</v>
+        <v>0</v>
       </c>
       <c r="L589" t="n">
         <v>5.662000000000006</v>
@@ -29973,7 +29799,7 @@
         <v>0.7299999999999969</v>
       </c>
       <c r="K591" t="n">
-        <v>7.692307692307587</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L591" t="n">
         <v>5.662000000000006</v>
@@ -30024,7 +29850,7 @@
         <v>0.7299999999999969</v>
       </c>
       <c r="K592" t="n">
-        <v>16.66666666666642</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L592" t="n">
         <v>5.663000000000006</v>
@@ -30075,7 +29901,7 @@
         <v>0.7499999999999973</v>
       </c>
       <c r="K593" t="n">
-        <v>50.00000000000075</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L593" t="n">
         <v>5.666000000000007</v>
@@ -30126,7 +29952,7 @@
         <v>0.759999999999998</v>
       </c>
       <c r="K594" t="n">
-        <v>38.46153846153836</v>
+        <v>33.33333333333235</v>
       </c>
       <c r="L594" t="n">
         <v>5.668000000000006</v>
@@ -30177,7 +30003,7 @@
         <v>0.7699999999999987</v>
       </c>
       <c r="K595" t="n">
-        <v>53.84615384615374</v>
+        <v>42.85714285714249</v>
       </c>
       <c r="L595" t="n">
         <v>5.671000000000006</v>
@@ -30228,7 +30054,7 @@
         <v>0.7699999999999987</v>
       </c>
       <c r="K596" t="n">
-        <v>53.84615384615374</v>
+        <v>42.85714285714249</v>
       </c>
       <c r="L596" t="n">
         <v>5.674000000000007</v>
@@ -30279,7 +30105,7 @@
         <v>0.7699999999999987</v>
       </c>
       <c r="K597" t="n">
-        <v>53.84615384615374</v>
+        <v>42.85714285714249</v>
       </c>
       <c r="L597" t="n">
         <v>5.677000000000007</v>
@@ -30330,7 +30156,7 @@
         <v>0.7799999999999985</v>
       </c>
       <c r="K598" t="n">
-        <v>57.14285714285696</v>
+        <v>42.85714285714249</v>
       </c>
       <c r="L598" t="n">
         <v>5.681000000000007</v>
@@ -30381,7 +30207,7 @@
         <v>0.7899999999999983</v>
       </c>
       <c r="K599" t="n">
-        <v>59.99999999999977</v>
+        <v>71.42857142856998</v>
       </c>
       <c r="L599" t="n">
         <v>5.685000000000008</v>
@@ -30432,7 +30258,7 @@
         <v>0.7899999999999983</v>
       </c>
       <c r="K600" t="n">
-        <v>39.99999999999982</v>
+        <v>66.66666666666518</v>
       </c>
       <c r="L600" t="n">
         <v>5.690000000000007</v>
@@ -30483,7 +30309,7 @@
         <v>0.799999999999998</v>
       </c>
       <c r="K601" t="n">
-        <v>59.99999999999929</v>
+        <v>71.42857142856998</v>
       </c>
       <c r="L601" t="n">
         <v>5.695000000000007</v>
@@ -30534,7 +30360,7 @@
         <v>0.799999999999998</v>
       </c>
       <c r="K602" t="n">
-        <v>59.99999999999929</v>
+        <v>59.99999999999787</v>
       </c>
       <c r="L602" t="n">
         <v>5.700000000000007</v>
@@ -30585,7 +30411,7 @@
         <v>0.8099999999999987</v>
       </c>
       <c r="K603" t="n">
-        <v>63.63636363636319</v>
+        <v>100</v>
       </c>
       <c r="L603" t="n">
         <v>5.704000000000008</v>
@@ -30636,7 +30462,7 @@
         <v>0.8699999999999983</v>
       </c>
       <c r="K604" t="n">
-        <v>76.47058823529369</v>
+        <v>100</v>
       </c>
       <c r="L604" t="n">
         <v>5.715000000000008</v>
@@ -30687,7 +30513,7 @@
         <v>0.8699999999999983</v>
       </c>
       <c r="K605" t="n">
-        <v>76.47058823529369</v>
+        <v>100</v>
       </c>
       <c r="L605" t="n">
         <v>5.725000000000008</v>
@@ -30738,7 +30564,7 @@
         <v>0.8699999999999983</v>
       </c>
       <c r="K606" t="n">
-        <v>76.47058823529369</v>
+        <v>100</v>
       </c>
       <c r="L606" t="n">
         <v>5.735000000000008</v>
@@ -30789,7 +30615,7 @@
         <v>0.8799999999999981</v>
       </c>
       <c r="K607" t="n">
-        <v>77.77777777777733</v>
+        <v>100</v>
       </c>
       <c r="L607" t="n">
         <v>5.746000000000008</v>
@@ -30840,7 +30666,7 @@
         <v>0.8799999999999981</v>
       </c>
       <c r="K608" t="n">
-        <v>77.77777777777733</v>
+        <v>100</v>
       </c>
       <c r="L608" t="n">
         <v>5.756000000000007</v>
@@ -30891,7 +30717,7 @@
         <v>0.9099999999999984</v>
       </c>
       <c r="K609" t="n">
-        <v>79.99999999999964</v>
+        <v>100</v>
       </c>
       <c r="L609" t="n">
         <v>5.768000000000007</v>
@@ -30942,7 +30768,7 @@
         <v>0.9099999999999984</v>
       </c>
       <c r="K610" t="n">
-        <v>89.47368421052568</v>
+        <v>100</v>
       </c>
       <c r="L610" t="n">
         <v>5.780000000000006</v>
@@ -30993,7 +30819,7 @@
         <v>0.9199999999999982</v>
       </c>
       <c r="K611" t="n">
-        <v>89.47368421052568</v>
+        <v>100</v>
       </c>
       <c r="L611" t="n">
         <v>5.792000000000007</v>
@@ -31044,7 +30870,7 @@
         <v>0.9599999999999982</v>
       </c>
       <c r="K612" t="n">
-        <v>91.30434782608641</v>
+        <v>100</v>
       </c>
       <c r="L612" t="n">
         <v>5.808000000000008</v>
@@ -31095,7 +30921,7 @@
         <v>0.9599999999999982</v>
       </c>
       <c r="K613" t="n">
-        <v>90.47619047618987</v>
+        <v>100</v>
       </c>
       <c r="L613" t="n">
         <v>5.823000000000008</v>
@@ -31146,7 +30972,7 @@
         <v>0.9799999999999978</v>
       </c>
       <c r="K614" t="n">
-        <v>81.81818181818218</v>
+        <v>63.63636363636422</v>
       </c>
       <c r="L614" t="n">
         <v>5.830000000000007</v>
@@ -31197,7 +31023,7 @@
         <v>0.9899999999999984</v>
       </c>
       <c r="K615" t="n">
-        <v>72.72727272727248</v>
+        <v>49.99999999999963</v>
       </c>
       <c r="L615" t="n">
         <v>5.836000000000007</v>
@@ -31248,7 +31074,7 @@
         <v>0.9899999999999984</v>
       </c>
       <c r="K616" t="n">
-        <v>72.72727272727248</v>
+        <v>45.45454545454516</v>
       </c>
       <c r="L616" t="n">
         <v>5.842000000000008</v>
@@ -31299,7 +31125,7 @@
         <v>0.9999999999999991</v>
       </c>
       <c r="K617" t="n">
-        <v>73.9130434782607</v>
+        <v>50</v>
       </c>
       <c r="L617" t="n">
         <v>5.848000000000009</v>
@@ -31350,7 +31176,7 @@
         <v>0.9999999999999991</v>
       </c>
       <c r="K618" t="n">
-        <v>72.72727272727259</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L618" t="n">
         <v>5.854000000000009</v>
@@ -31401,7 +31227,7 @@
         <v>0.9999999999999991</v>
       </c>
       <c r="K619" t="n">
-        <v>71.4285714285713</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L619" t="n">
         <v>5.857000000000009</v>
@@ -31452,7 +31278,7 @@
         <v>1.01</v>
       </c>
       <c r="K620" t="n">
-        <v>63.63636363636304</v>
+        <v>11.11111111111067</v>
       </c>
       <c r="L620" t="n">
         <v>5.859000000000009</v>
@@ -31503,7 +31329,7 @@
         <v>1.01</v>
       </c>
       <c r="K621" t="n">
-        <v>61.90476190476134</v>
+        <v>-59.99999999999858</v>
       </c>
       <c r="L621" t="n">
         <v>5.860000000000008</v>
@@ -31554,7 +31380,7 @@
         <v>1.01</v>
       </c>
       <c r="K622" t="n">
-        <v>61.90476190476134</v>
+        <v>-59.99999999999858</v>
       </c>
       <c r="L622" t="n">
         <v>5.857000000000007</v>
@@ -31605,7 +31431,7 @@
         <v>1.02</v>
       </c>
       <c r="K623" t="n">
-        <v>61.90476190476134</v>
+        <v>0</v>
       </c>
       <c r="L623" t="n">
         <v>5.855000000000008</v>
@@ -31656,7 +31482,7 @@
         <v>1.02</v>
       </c>
       <c r="K624" t="n">
-        <v>46.6666666666662</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L624" t="n">
         <v>5.855000000000008</v>
@@ -31707,7 +31533,7 @@
         <v>1.030000000000001</v>
       </c>
       <c r="K625" t="n">
-        <v>37.4999999999991</v>
+        <v>0</v>
       </c>
       <c r="L625" t="n">
         <v>5.855000000000008</v>
@@ -31758,7 +31584,7 @@
         <v>1.030000000000001</v>
       </c>
       <c r="K626" t="n">
-        <v>37.4999999999991</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L626" t="n">
         <v>5.855000000000008</v>
@@ -31809,7 +31635,7 @@
         <v>1.030000000000001</v>
       </c>
       <c r="K627" t="n">
-        <v>33.33333333333254</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L627" t="n">
         <v>5.854000000000008</v>
@@ -31860,7 +31686,7 @@
         <v>1.030000000000001</v>
       </c>
       <c r="K628" t="n">
-        <v>33.33333333333254</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L628" t="n">
         <v>5.853000000000007</v>
@@ -31911,7 +31737,7 @@
         <v>1.040000000000001</v>
       </c>
       <c r="K629" t="n">
-        <v>7.692307692307376</v>
+        <v>-33.33333333333136</v>
       </c>
       <c r="L629" t="n">
         <v>5.851000000000008</v>
@@ -31962,7 +31788,7 @@
         <v>1.06</v>
       </c>
       <c r="K630" t="n">
-        <v>-6.666666666666429</v>
+        <v>-59.99999999999787</v>
       </c>
       <c r="L630" t="n">
         <v>5.848000000000007</v>
@@ -32013,7 +31839,7 @@
         <v>1.070000000000001</v>
       </c>
       <c r="K631" t="n">
-        <v>-19.99999999999976</v>
+        <v>-66.66666666666518</v>
       </c>
       <c r="L631" t="n">
         <v>5.844000000000007</v>
@@ -32064,7 +31890,7 @@
         <v>1.080000000000001</v>
       </c>
       <c r="K632" t="n">
-        <v>-66.66666666666518</v>
+        <v>-100</v>
       </c>
       <c r="L632" t="n">
         <v>5.839000000000007</v>
@@ -32115,7 +31941,7 @@
         <v>1.080000000000001</v>
       </c>
       <c r="K633" t="n">
-        <v>-66.66666666666518</v>
+        <v>-100</v>
       </c>
       <c r="L633" t="n">
         <v>5.833000000000007</v>
@@ -32166,7 +31992,7 @@
         <v>1.100000000000001</v>
       </c>
       <c r="K634" t="n">
-        <v>-66.66666666666518</v>
+        <v>-100</v>
       </c>
       <c r="L634" t="n">
         <v>5.825000000000007</v>
@@ -32217,7 +32043,7 @@
         <v>1.12</v>
       </c>
       <c r="K635" t="n">
-        <v>-38.46153846153783</v>
+        <v>-55.55555555555599</v>
       </c>
       <c r="L635" t="n">
         <v>5.820000000000007</v>
@@ -32268,7 +32094,7 @@
         <v>1.13</v>
       </c>
       <c r="K636" t="n">
-        <v>-28.5714285714283</v>
+        <v>-40.00000000000053</v>
       </c>
       <c r="L636" t="n">
         <v>5.816000000000006</v>
@@ -32319,7 +32145,7 @@
         <v>1.140000000000001</v>
       </c>
       <c r="K637" t="n">
-        <v>-28.5714285714283</v>
+        <v>-27.27272727272683</v>
       </c>
       <c r="L637" t="n">
         <v>5.813000000000006</v>
@@ -32370,7 +32196,7 @@
         <v>1.16</v>
       </c>
       <c r="K638" t="n">
-        <v>-12.50000000000021</v>
+        <v>0</v>
       </c>
       <c r="L638" t="n">
         <v>5.812000000000006</v>
@@ -32421,7 +32247,7 @@
         <v>1.18</v>
       </c>
       <c r="K639" t="n">
-        <v>-22.22222222222217</v>
+        <v>0</v>
       </c>
       <c r="L639" t="n">
         <v>5.810000000000005</v>
@@ -32472,7 +32298,7 @@
         <v>1.19</v>
       </c>
       <c r="K640" t="n">
-        <v>-11.11111111111089</v>
+        <v>16.66666666666729</v>
       </c>
       <c r="L640" t="n">
         <v>5.811000000000005</v>
@@ -32523,7 +32349,7 @@
         <v>1.19</v>
       </c>
       <c r="K641" t="n">
-        <v>-11.11111111111089</v>
+        <v>27.27272727272786</v>
       </c>
       <c r="L641" t="n">
         <v>5.813000000000004</v>
@@ -32574,7 +32400,7 @@
         <v>1.19</v>
       </c>
       <c r="K642" t="n">
-        <v>-11.11111111111089</v>
+        <v>27.27272727272786</v>
       </c>
       <c r="L642" t="n">
         <v>5.816000000000004</v>
@@ -32625,7 +32451,7 @@
         <v>1.279999999999999</v>
       </c>
       <c r="K643" t="n">
-        <v>-46.15384615384639</v>
+        <v>-22.22222222222239</v>
       </c>
       <c r="L643" t="n">
         <v>5.810000000000005</v>
@@ -32676,7 +32502,7 @@
         <v>1.279999999999999</v>
       </c>
       <c r="K644" t="n">
-        <v>-46.15384615384639</v>
+        <v>-37.49999999999993</v>
       </c>
       <c r="L644" t="n">
         <v>5.806000000000005</v>
@@ -32727,7 +32553,7 @@
         <v>1.319999999999999</v>
       </c>
       <c r="K645" t="n">
-        <v>-51.7241379310346</v>
+        <v>-57.89473684210511</v>
       </c>
       <c r="L645" t="n">
         <v>5.796000000000006</v>
@@ -32778,7 +32604,7 @@
         <v>1.329999999999999</v>
       </c>
       <c r="K646" t="n">
-        <v>-53.33333333333344</v>
+        <v>-68.4210526315794</v>
       </c>
       <c r="L646" t="n">
         <v>5.784000000000005</v>
@@ -32829,7 +32655,7 @@
         <v>1.329999999999999</v>
       </c>
       <c r="K647" t="n">
-        <v>-53.33333333333344</v>
+        <v>-88.23529411764724</v>
       </c>
       <c r="L647" t="n">
         <v>5.771000000000005</v>
@@ -32880,7 +32706,7 @@
         <v>1.339999999999999</v>
       </c>
       <c r="K648" t="n">
-        <v>-48.38709677419372</v>
+        <v>-75.00000000000043</v>
       </c>
       <c r="L648" t="n">
         <v>5.757000000000005</v>
@@ -32931,7 +32757,7 @@
         <v>1.349999999999999</v>
       </c>
       <c r="K649" t="n">
-        <v>-48.38709677419372</v>
+        <v>-87.50000000000021</v>
       </c>
       <c r="L649" t="n">
         <v>5.744000000000005</v>
@@ -32982,7 +32808,7 @@
         <v>1.379999999999999</v>
       </c>
       <c r="K650" t="n">
-        <v>-50.00000000000028</v>
+        <v>-89.47368421052651</v>
       </c>
       <c r="L650" t="n">
         <v>5.727000000000006</v>
@@ -33033,7 +32859,7 @@
         <v>1.379999999999999</v>
       </c>
       <c r="K651" t="n">
-        <v>-48.38709677419372</v>
+        <v>-89.47368421052651</v>
       </c>
       <c r="L651" t="n">
         <v>5.710000000000005</v>
@@ -33084,7 +32910,7 @@
         <v>1.379999999999999</v>
       </c>
       <c r="K652" t="n">
-        <v>-46.66666666666686</v>
+        <v>-80.00000000000036</v>
       </c>
       <c r="L652" t="n">
         <v>5.693000000000005</v>
@@ -33135,7 +32961,7 @@
         <v>1.379999999999999</v>
       </c>
       <c r="K653" t="n">
-        <v>-46.66666666666686</v>
+        <v>-80.00000000000036</v>
       </c>
       <c r="L653" t="n">
         <v>5.685000000000004</v>
@@ -33186,7 +33012,7 @@
         <v>1.389999999999999</v>
       </c>
       <c r="K654" t="n">
-        <v>-44.82758620689678</v>
+        <v>-71.4285714285718</v>
       </c>
       <c r="L654" t="n">
         <v>5.676000000000004</v>
@@ -33237,7 +33063,7 @@
         <v>1.399999999999999</v>
       </c>
       <c r="K655" t="n">
-        <v>-50.00000000000016</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L655" t="n">
         <v>5.672000000000004</v>
@@ -33288,7 +33114,7 @@
         <v>1.399999999999999</v>
       </c>
       <c r="K656" t="n">
-        <v>-55.55555555555563</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L656" t="n">
         <v>5.669000000000004</v>
@@ -33339,7 +33165,7 @@
         <v>1.399999999999999</v>
       </c>
       <c r="K657" t="n">
-        <v>-61.53846153846207</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L657" t="n">
         <v>5.666000000000004</v>
@@ -33390,7 +33216,7 @@
         <v>1.399999999999999</v>
       </c>
       <c r="K658" t="n">
-        <v>-75.00000000000037</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L658" t="n">
         <v>5.662000000000003</v>
@@ -33441,7 +33267,7 @@
         <v>1.399999999999999</v>
       </c>
       <c r="K659" t="n">
-        <v>-72.72727272727316</v>
+        <v>0</v>
       </c>
       <c r="L659" t="n">
         <v>5.659000000000003</v>
@@ -33492,7 +33318,7 @@
         <v>1.399999999999999</v>
       </c>
       <c r="K660" t="n">
-        <v>-80.95238095238128</v>
+        <v>0</v>
       </c>
       <c r="L660" t="n">
         <v>5.659000000000003</v>
@@ -33543,7 +33369,7 @@
         <v>1.399999999999999</v>
       </c>
       <c r="K661" t="n">
-        <v>-80.95238095238128</v>
+        <v>0</v>
       </c>
       <c r="L661" t="n">
         <v>5.659000000000003</v>
@@ -33594,7 +33420,7 @@
         <v>1.399999999999999</v>
       </c>
       <c r="K662" t="n">
-        <v>-80.95238095238128</v>
+        <v>0</v>
       </c>
       <c r="L662" t="n">
         <v>5.659000000000003</v>
@@ -33645,7 +33471,7 @@
         <v>1.399999999999999</v>
       </c>
       <c r="K663" t="n">
-        <v>-66.66666666666717</v>
+        <v>100</v>
       </c>
       <c r="L663" t="n">
         <v>5.659000000000003</v>
@@ -33695,9 +33521,7 @@
       <c r="J664" t="n">
         <v>1.399999999999999</v>
       </c>
-      <c r="K664" t="n">
-        <v>-66.66666666666717</v>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>5.660000000000003</v>
       </c>
@@ -33746,9 +33570,7 @@
       <c r="J665" t="n">
         <v>1.399999999999999</v>
       </c>
-      <c r="K665" t="n">
-        <v>-50.00000000000055</v>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>5.660000000000004</v>
       </c>
@@ -33798,7 +33620,7 @@
         <v>1.409999999999998</v>
       </c>
       <c r="K666" t="n">
-        <v>-25.00000000000083</v>
+        <v>100</v>
       </c>
       <c r="L666" t="n">
         <v>5.661000000000004</v>
@@ -33849,7 +33671,7 @@
         <v>1.439999999999999</v>
       </c>
       <c r="K667" t="n">
-        <v>9.090909090908944</v>
+        <v>100</v>
       </c>
       <c r="L667" t="n">
         <v>5.665000000000004</v>
@@ -33900,7 +33722,7 @@
         <v>1.449999999999998</v>
       </c>
       <c r="K668" t="n">
-        <v>9.090909090908944</v>
+        <v>100</v>
       </c>
       <c r="L668" t="n">
         <v>5.670000000000004</v>
@@ -33951,7 +33773,7 @@
         <v>1.459999999999998</v>
       </c>
       <c r="K669" t="n">
-        <v>27.27272727272683</v>
+        <v>100</v>
       </c>
       <c r="L669" t="n">
         <v>5.676000000000005</v>
@@ -34002,7 +33824,7 @@
         <v>1.469999999999999</v>
       </c>
       <c r="K670" t="n">
-        <v>77.77777777777821</v>
+        <v>100</v>
       </c>
       <c r="L670" t="n">
         <v>5.683000000000005</v>
@@ -34053,7 +33875,7 @@
         <v>1.479999999999999</v>
       </c>
       <c r="K671" t="n">
-        <v>80.00000000000036</v>
+        <v>100</v>
       </c>
       <c r="L671" t="n">
         <v>5.691000000000005</v>
@@ -34104,7 +33926,7 @@
         <v>1.509999999999999</v>
       </c>
       <c r="K672" t="n">
-        <v>38.46153846153836</v>
+        <v>45.45454545454516</v>
       </c>
       <c r="L672" t="n">
         <v>5.696000000000005</v>
@@ -34155,7 +33977,7 @@
         <v>1.509999999999999</v>
       </c>
       <c r="K673" t="n">
-        <v>38.46153846153836</v>
+        <v>45.45454545454516</v>
       </c>
       <c r="L673" t="n">
         <v>5.701000000000005</v>
@@ -34206,7 +34028,7 @@
         <v>1.509999999999999</v>
       </c>
       <c r="K674" t="n">
-        <v>49.99999999999963</v>
+        <v>45.45454545454516</v>
       </c>
       <c r="L674" t="n">
         <v>5.706000000000005</v>
@@ -34257,7 +34079,7 @@
         <v>1.539999999999999</v>
       </c>
       <c r="K675" t="n">
-        <v>57.14285714285696</v>
+        <v>53.84615384615374</v>
       </c>
       <c r="L675" t="n">
         <v>5.714000000000004</v>
@@ -34308,7 +34130,7 @@
         <v>1.539999999999999</v>
       </c>
       <c r="K676" t="n">
-        <v>57.14285714285696</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L676" t="n">
         <v>5.721000000000005</v>
@@ -34359,7 +34181,7 @@
         <v>1.539999999999999</v>
       </c>
       <c r="K677" t="n">
-        <v>57.14285714285696</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L677" t="n">
         <v>5.725000000000004</v>
@@ -34410,7 +34232,7 @@
         <v>1.549999999999999</v>
       </c>
       <c r="K678" t="n">
-        <v>46.66666666666674</v>
+        <v>11.11111111111177</v>
       </c>
       <c r="L678" t="n">
         <v>5.727000000000005</v>
@@ -34461,7 +34283,7 @@
         <v>1.559999999999999</v>
       </c>
       <c r="K679" t="n">
-        <v>50</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L679" t="n">
         <v>5.729000000000005</v>
@@ -34512,7 +34334,7 @@
         <v>1.559999999999999</v>
       </c>
       <c r="K680" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L680" t="n">
         <v>5.730000000000006</v>
@@ -34563,7 +34385,7 @@
         <v>1.559999999999999</v>
       </c>
       <c r="K681" t="n">
-        <v>50</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L681" t="n">
         <v>5.730000000000006</v>
@@ -34614,7 +34436,7 @@
         <v>1.569999999999999</v>
       </c>
       <c r="K682" t="n">
-        <v>41.17647058823548</v>
+        <v>33.33333333333432</v>
       </c>
       <c r="L682" t="n">
         <v>5.732000000000006</v>
@@ -34665,7 +34487,7 @@
         <v>1.579999999999998</v>
       </c>
       <c r="K683" t="n">
-        <v>44.44444444444456</v>
+        <v>42.85714285714358</v>
       </c>
       <c r="L683" t="n">
         <v>5.735000000000006</v>
@@ -34716,7 +34538,7 @@
         <v>1.579999999999998</v>
       </c>
       <c r="K684" t="n">
-        <v>44.44444444444456</v>
+        <v>0</v>
       </c>
       <c r="L684" t="n">
         <v>5.738000000000006</v>
@@ -34767,7 +34589,7 @@
         <v>1.579999999999998</v>
       </c>
       <c r="K685" t="n">
-        <v>44.44444444444456</v>
+        <v>0</v>
       </c>
       <c r="L685" t="n">
         <v>5.738000000000006</v>
@@ -34818,7 +34640,7 @@
         <v>1.579999999999998</v>
       </c>
       <c r="K686" t="n">
-        <v>41.17647058823548</v>
+        <v>0</v>
       </c>
       <c r="L686" t="n">
         <v>5.738000000000006</v>
@@ -34869,7 +34691,7 @@
         <v>1.579999999999998</v>
       </c>
       <c r="K687" t="n">
-        <v>28.57142857142867</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L687" t="n">
         <v>5.738000000000006</v>
@@ -34920,7 +34742,7 @@
         <v>1.579999999999998</v>
       </c>
       <c r="K688" t="n">
-        <v>23.07692307692329</v>
+        <v>0</v>
       </c>
       <c r="L688" t="n">
         <v>5.739000000000006</v>
@@ -34971,7 +34793,7 @@
         <v>1.579999999999998</v>
       </c>
       <c r="K689" t="n">
-        <v>16.66666666666704</v>
+        <v>0</v>
       </c>
       <c r="L689" t="n">
         <v>5.739000000000006</v>
@@ -35022,7 +34844,7 @@
         <v>1.589999999999998</v>
       </c>
       <c r="K690" t="n">
-        <v>16.66666666666642</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L690" t="n">
         <v>5.740000000000006</v>
@@ -35073,7 +34895,7 @@
         <v>1.589999999999998</v>
       </c>
       <c r="K691" t="n">
-        <v>9.090909090908944</v>
+        <v>100</v>
       </c>
       <c r="L691" t="n">
         <v>5.741000000000005</v>
@@ -35124,7 +34946,7 @@
         <v>1.609999999999998</v>
       </c>
       <c r="K692" t="n">
-        <v>60.00000000000036</v>
+        <v>100</v>
       </c>
       <c r="L692" t="n">
         <v>5.745000000000005</v>
@@ -35175,7 +34997,7 @@
         <v>1.629999999999998</v>
       </c>
       <c r="K693" t="n">
-        <v>66.66666666666717</v>
+        <v>100</v>
       </c>
       <c r="L693" t="n">
         <v>5.750000000000004</v>
@@ -35226,7 +35048,7 @@
         <v>1.639999999999998</v>
       </c>
       <c r="K694" t="n">
-        <v>53.84615384615448</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L694" t="n">
         <v>5.754000000000004</v>
@@ -35277,7 +35099,7 @@
         <v>1.649999999999999</v>
       </c>
       <c r="K695" t="n">
-        <v>27.27272727272683</v>
+        <v>42.85714285714177</v>
       </c>
       <c r="L695" t="n">
         <v>5.757000000000004</v>
@@ -35328,7 +35150,7 @@
         <v>1.659999999999999</v>
       </c>
       <c r="K696" t="n">
-        <v>33.33333333333333</v>
+        <v>49.99999999999945</v>
       </c>
       <c r="L696" t="n">
         <v>5.761000000000005</v>
@@ -35379,7 +35201,7 @@
         <v>1.659999999999999</v>
       </c>
       <c r="K697" t="n">
-        <v>33.33333333333333</v>
+        <v>49.99999999999945</v>
       </c>
       <c r="L697" t="n">
         <v>5.765000000000004</v>
@@ -35430,7 +35252,7 @@
         <v>1.659999999999999</v>
       </c>
       <c r="K698" t="n">
-        <v>45.45454545454516</v>
+        <v>49.99999999999945</v>
       </c>
       <c r="L698" t="n">
         <v>5.769000000000004</v>
@@ -35481,7 +35303,7 @@
         <v>1.669999999999999</v>
       </c>
       <c r="K699" t="n">
-        <v>45.45454545454516</v>
+        <v>49.99999999999945</v>
       </c>
       <c r="L699" t="n">
         <v>5.774000000000004</v>
@@ -35532,7 +35354,7 @@
         <v>1.669999999999999</v>
       </c>
       <c r="K700" t="n">
-        <v>45.45454545454516</v>
+        <v>49.99999999999945</v>
       </c>
       <c r="L700" t="n">
         <v>5.778000000000004</v>
@@ -35583,7 +35405,7 @@
         <v>1.689999999999999</v>
       </c>
       <c r="K701" t="n">
-        <v>53.84615384615342</v>
+        <v>49.99999999999945</v>
       </c>
       <c r="L701" t="n">
         <v>5.784000000000004</v>
@@ -35634,7 +35456,7 @@
         <v>1.689999999999999</v>
       </c>
       <c r="K702" t="n">
-        <v>66.66666666666593</v>
+        <v>33.33333333333235</v>
       </c>
       <c r="L702" t="n">
         <v>5.788000000000004</v>
@@ -35685,7 +35507,7 @@
         <v>1.699999999999999</v>
       </c>
       <c r="K703" t="n">
-        <v>66.66666666666617</v>
+        <v>66.66666666666518</v>
       </c>
       <c r="L703" t="n">
         <v>5.791000000000004</v>
@@ -35736,7 +35558,7 @@
         <v>1.699999999999999</v>
       </c>
       <c r="K704" t="n">
-        <v>66.66666666666617</v>
+        <v>100</v>
       </c>
       <c r="L704" t="n">
         <v>5.795000000000003</v>
@@ -35787,7 +35609,7 @@
         <v>1.699999999999999</v>
       </c>
       <c r="K705" t="n">
-        <v>66.66666666666617</v>
+        <v>100</v>
       </c>
       <c r="L705" t="n">
         <v>5.800000000000004</v>
@@ -35838,7 +35660,7 @@
         <v>1.709999999999999</v>
       </c>
       <c r="K706" t="n">
-        <v>69.2307692307687</v>
+        <v>100</v>
       </c>
       <c r="L706" t="n">
         <v>5.805000000000004</v>
@@ -35889,7 +35711,7 @@
         <v>1.709999999999999</v>
       </c>
       <c r="K707" t="n">
-        <v>69.2307692307687</v>
+        <v>100</v>
       </c>
       <c r="L707" t="n">
         <v>5.810000000000004</v>
@@ -35940,7 +35762,7 @@
         <v>1.709999999999999</v>
       </c>
       <c r="K708" t="n">
-        <v>69.2307692307687</v>
+        <v>100</v>
       </c>
       <c r="L708" t="n">
         <v>5.815000000000003</v>
@@ -35991,7 +35813,7 @@
         <v>1.709999999999999</v>
       </c>
       <c r="K709" t="n">
-        <v>69.2307692307687</v>
+        <v>100</v>
       </c>
       <c r="L709" t="n">
         <v>5.819000000000004</v>
@@ -36042,7 +35864,7 @@
         <v>1.709999999999999</v>
       </c>
       <c r="K710" t="n">
-        <v>66.66666666666617</v>
+        <v>100</v>
       </c>
       <c r="L710" t="n">
         <v>5.823000000000004</v>
@@ -36093,7 +35915,7 @@
         <v>1.709999999999999</v>
       </c>
       <c r="K711" t="n">
-        <v>66.66666666666617</v>
+        <v>100</v>
       </c>
       <c r="L711" t="n">
         <v>5.825000000000005</v>
@@ -36144,7 +35966,7 @@
         <v>1.709999999999999</v>
       </c>
       <c r="K712" t="n">
-        <v>59.99999999999964</v>
+        <v>100</v>
       </c>
       <c r="L712" t="n">
         <v>5.827000000000004</v>
@@ -36195,7 +36017,7 @@
         <v>1.709999999999999</v>
       </c>
       <c r="K713" t="n">
-        <v>49.99999999999945</v>
+        <v>100</v>
       </c>
       <c r="L713" t="n">
         <v>5.828000000000004</v>
@@ -36246,7 +36068,7 @@
         <v>1.719999999999999</v>
       </c>
       <c r="K714" t="n">
-        <v>49.99999999999945</v>
+        <v>0</v>
       </c>
       <c r="L714" t="n">
         <v>5.828000000000004</v>
@@ -36297,7 +36119,7 @@
         <v>1.729999999999999</v>
       </c>
       <c r="K715" t="n">
-        <v>75.00000000000055</v>
+        <v>0</v>
       </c>
       <c r="L715" t="n">
         <v>5.829000000000004</v>
@@ -36348,7 +36170,7 @@
         <v>1.729999999999999</v>
       </c>
       <c r="K716" t="n">
-        <v>71.4285714285718</v>
+        <v>0</v>
       </c>
       <c r="L716" t="n">
         <v>5.829000000000005</v>
@@ -36399,7 +36221,7 @@
         <v>1.729999999999999</v>
       </c>
       <c r="K717" t="n">
-        <v>71.4285714285718</v>
+        <v>0</v>
       </c>
       <c r="L717" t="n">
         <v>5.829000000000005</v>
@@ -36450,7 +36272,7 @@
         <v>1.729999999999999</v>
       </c>
       <c r="K718" t="n">
-        <v>71.4285714285718</v>
+        <v>0</v>
       </c>
       <c r="L718" t="n">
         <v>5.829000000000005</v>
@@ -36501,7 +36323,7 @@
         <v>1.739999999999998</v>
       </c>
       <c r="K719" t="n">
-        <v>71.4285714285718</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L719" t="n">
         <v>5.830000000000005</v>
@@ -36552,7 +36374,7 @@
         <v>1.739999999999998</v>
       </c>
       <c r="K720" t="n">
-        <v>71.4285714285718</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L720" t="n">
         <v>5.831000000000006</v>
@@ -36603,7 +36425,7 @@
         <v>1.739999999999998</v>
       </c>
       <c r="K721" t="n">
-        <v>60.00000000000071</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L721" t="n">
         <v>5.832000000000006</v>
@@ -36654,7 +36476,7 @@
         <v>1.749999999999998</v>
       </c>
       <c r="K722" t="n">
-        <v>66.66666666666717</v>
+        <v>50</v>
       </c>
       <c r="L722" t="n">
         <v>5.834000000000006</v>
@@ -36705,7 +36527,7 @@
         <v>1.749999999999998</v>
       </c>
       <c r="K723" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L723" t="n">
         <v>5.836000000000006</v>
@@ -36756,7 +36578,7 @@
         <v>1.749999999999998</v>
       </c>
       <c r="K724" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L724" t="n">
         <v>5.839000000000005</v>
@@ -36807,7 +36629,7 @@
         <v>1.749999999999998</v>
       </c>
       <c r="K725" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L725" t="n">
         <v>5.841000000000006</v>
@@ -36858,7 +36680,7 @@
         <v>1.749999999999998</v>
       </c>
       <c r="K726" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L726" t="n">
         <v>5.843000000000005</v>
@@ -36909,7 +36731,7 @@
         <v>1.749999999999998</v>
       </c>
       <c r="K727" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L727" t="n">
         <v>5.845000000000004</v>
@@ -36960,7 +36782,7 @@
         <v>1.749999999999998</v>
       </c>
       <c r="K728" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L728" t="n">
         <v>5.847000000000004</v>
@@ -37011,7 +36833,7 @@
         <v>1.749999999999998</v>
       </c>
       <c r="K729" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L729" t="n">
         <v>5.848000000000003</v>
@@ -37062,7 +36884,7 @@
         <v>1.749999999999998</v>
       </c>
       <c r="K730" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L730" t="n">
         <v>5.849000000000002</v>
@@ -37112,9 +36934,7 @@
       <c r="J731" t="n">
         <v>1.749999999999998</v>
       </c>
-      <c r="K731" t="n">
-        <v>50</v>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>5.850000000000001</v>
       </c>
@@ -37163,9 +36983,7 @@
       <c r="J732" t="n">
         <v>1.749999999999998</v>
       </c>
-      <c r="K732" t="n">
-        <v>50</v>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>5.850000000000001</v>
       </c>
@@ -37215,7 +37033,7 @@
         <v>1.759999999999999</v>
       </c>
       <c r="K733" t="n">
-        <v>60.00000000000071</v>
+        <v>100</v>
       </c>
       <c r="L733" t="n">
         <v>5.851000000000001</v>
@@ -37317,7 +37135,7 @@
         <v>1.77</v>
       </c>
       <c r="K735" t="n">
-        <v>49.99999999999778</v>
+        <v>0</v>
       </c>
       <c r="L735" t="n">
         <v>5.852000000000002</v>
@@ -37368,7 +37186,7 @@
         <v>1.78</v>
       </c>
       <c r="K736" t="n">
-        <v>59.99999999999858</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L736" t="n">
         <v>5.853000000000002</v>
@@ -37419,7 +37237,7 @@
         <v>1.78</v>
       </c>
       <c r="K737" t="n">
-        <v>59.99999999999858</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L737" t="n">
         <v>5.854000000000003</v>
@@ -37470,7 +37288,7 @@
         <v>1.83</v>
       </c>
       <c r="K738" t="n">
-        <v>79.99999999999893</v>
+        <v>74.99999999999889</v>
       </c>
       <c r="L738" t="n">
         <v>5.860000000000003</v>
@@ -37521,7 +37339,7 @@
         <v>1.83</v>
       </c>
       <c r="K739" t="n">
-        <v>77.77777777777668</v>
+        <v>74.99999999999889</v>
       </c>
       <c r="L739" t="n">
         <v>5.866000000000003</v>
@@ -37572,7 +37390,7 @@
         <v>1.84</v>
       </c>
       <c r="K740" t="n">
-        <v>59.99999999999964</v>
+        <v>55.55555555555534</v>
       </c>
       <c r="L740" t="n">
         <v>5.871000000000003</v>
@@ -37623,7 +37441,7 @@
         <v>1.85</v>
       </c>
       <c r="K741" t="n">
-        <v>63.63636363636319</v>
+        <v>59.99999999999964</v>
       </c>
       <c r="L741" t="n">
         <v>5.877000000000003</v>
@@ -37674,7 +37492,7 @@
         <v>1.859999999999999</v>
       </c>
       <c r="K742" t="n">
-        <v>45.4545454545456</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L742" t="n">
         <v>5.882000000000003</v>
@@ -37725,7 +37543,7 @@
         <v>1.859999999999999</v>
       </c>
       <c r="K743" t="n">
-        <v>45.4545454545456</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L743" t="n">
         <v>5.886000000000003</v>
@@ -37776,7 +37594,7 @@
         <v>1.859999999999999</v>
       </c>
       <c r="K744" t="n">
-        <v>45.4545454545456</v>
+        <v>55.55555555555644</v>
       </c>
       <c r="L744" t="n">
         <v>5.890000000000003</v>
@@ -37827,7 +37645,7 @@
         <v>1.859999999999999</v>
       </c>
       <c r="K745" t="n">
-        <v>45.4545454545456</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L745" t="n">
         <v>5.895000000000004</v>
@@ -37878,7 +37696,7 @@
         <v>1.859999999999999</v>
       </c>
       <c r="K746" t="n">
-        <v>45.4545454545456</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L746" t="n">
         <v>5.899000000000004</v>
@@ -37929,7 +37747,7 @@
         <v>1.859999999999999</v>
       </c>
       <c r="K747" t="n">
-        <v>45.4545454545456</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L747" t="n">
         <v>5.903000000000004</v>
@@ -37980,7 +37798,7 @@
         <v>1.869999999999999</v>
       </c>
       <c r="K748" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L748" t="n">
         <v>5.903000000000004</v>
@@ -38035,7 +37853,7 @@
         <v>1.869999999999999</v>
       </c>
       <c r="K749" t="n">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L749" t="n">
         <v>5.903000000000004</v>
@@ -38092,7 +37910,7 @@
         <v>1.869999999999999</v>
       </c>
       <c r="K750" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L750" t="n">
         <v>5.904000000000004</v>
@@ -38149,7 +37967,7 @@
         <v>1.869999999999999</v>
       </c>
       <c r="K751" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L751" t="n">
         <v>5.904000000000005</v>
@@ -38206,7 +38024,7 @@
         <v>1.869999999999999</v>
       </c>
       <c r="K752" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L752" t="n">
         <v>5.905000000000005</v>
@@ -38263,7 +38081,7 @@
         <v>1.879999999999999</v>
       </c>
       <c r="K753" t="n">
-        <v>49.99999999999963</v>
+        <v>100</v>
       </c>
       <c r="L753" t="n">
         <v>5.907000000000004</v>
@@ -38320,7 +38138,7 @@
         <v>1.879999999999999</v>
       </c>
       <c r="K754" t="n">
-        <v>49.99999999999963</v>
+        <v>100</v>
       </c>
       <c r="L754" t="n">
         <v>5.909000000000004</v>
@@ -38377,7 +38195,7 @@
         <v>1.899999999999999</v>
       </c>
       <c r="K755" t="n">
-        <v>69.23076923076987</v>
+        <v>100</v>
       </c>
       <c r="L755" t="n">
         <v>5.913000000000005</v>
@@ -38434,7 +38252,7 @@
         <v>1.91</v>
       </c>
       <c r="K756" t="n">
-        <v>53.84615384615342</v>
+        <v>59.99999999999787</v>
       </c>
       <c r="L756" t="n">
         <v>5.916000000000005</v>
@@ -38491,7 +38309,7 @@
         <v>1.92</v>
       </c>
       <c r="K757" t="n">
-        <v>42.85714285714268</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L757" t="n">
         <v>5.918000000000005</v>
@@ -38548,7 +38366,7 @@
         <v>1.92</v>
       </c>
       <c r="K758" t="n">
-        <v>11.11111111111089</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L758" t="n">
         <v>5.919000000000004</v>
@@ -38599,7 +38417,7 @@
         <v>1.92</v>
       </c>
       <c r="K759" t="n">
-        <v>11.11111111111089</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L759" t="n">
         <v>5.920000000000004</v>
@@ -38650,7 +38468,7 @@
         <v>1.92</v>
       </c>
       <c r="K760" t="n">
-        <v>24.99999999999945</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L760" t="n">
         <v>5.921000000000005</v>
@@ -38701,7 +38519,7 @@
         <v>1.93</v>
       </c>
       <c r="K761" t="n">
-        <v>24.99999999999945</v>
+        <v>33.33333333333235</v>
       </c>
       <c r="L761" t="n">
         <v>5.923000000000004</v>
@@ -38752,7 +38570,7 @@
         <v>1.949999999999999</v>
       </c>
       <c r="K762" t="n">
-        <v>11.11111111111089</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L762" t="n">
         <v>5.923000000000004</v>
@@ -38803,7 +38621,7 @@
         <v>1.959999999999999</v>
       </c>
       <c r="K763" t="n">
-        <v>0</v>
+        <v>-24.99999999999945</v>
       </c>
       <c r="L763" t="n">
         <v>5.921000000000005</v>
@@ -38854,7 +38672,7 @@
         <v>1.959999999999999</v>
       </c>
       <c r="K764" t="n">
-        <v>0</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L764" t="n">
         <v>5.919000000000006</v>
@@ -38905,7 +38723,7 @@
         <v>1.97</v>
       </c>
       <c r="K765" t="n">
-        <v>-9.090909090909678</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L765" t="n">
         <v>5.914000000000006</v>
@@ -38956,7 +38774,7 @@
         <v>1.98</v>
       </c>
       <c r="K766" t="n">
-        <v>0</v>
+        <v>-33.33333333333235</v>
       </c>
       <c r="L766" t="n">
         <v>5.911000000000007</v>
@@ -39007,7 +38825,7 @@
         <v>1.98</v>
       </c>
       <c r="K767" t="n">
-        <v>0</v>
+        <v>-33.33333333333235</v>
       </c>
       <c r="L767" t="n">
         <v>5.909000000000006</v>
@@ -39058,7 +38876,7 @@
         <v>1.99</v>
       </c>
       <c r="K768" t="n">
-        <v>0</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L768" t="n">
         <v>5.908000000000006</v>
@@ -39109,7 +38927,7 @@
         <v>1.99</v>
       </c>
       <c r="K769" t="n">
-        <v>0</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L769" t="n">
         <v>5.907000000000005</v>
@@ -39160,7 +38978,7 @@
         <v>2</v>
       </c>
       <c r="K770" t="n">
-        <v>-7.692307692307482</v>
+        <v>-42.85714285714177</v>
       </c>
       <c r="L770" t="n">
         <v>5.905000000000006</v>
@@ -39262,7 +39080,7 @@
         <v>2.01</v>
       </c>
       <c r="K772" t="n">
-        <v>0</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L772" t="n">
         <v>5.903000000000006</v>
@@ -39313,7 +39131,7 @@
         <v>2.01</v>
       </c>
       <c r="K773" t="n">
-        <v>-7.692307692307482</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L773" t="n">
         <v>5.904000000000005</v>
@@ -39364,7 +39182,7 @@
         <v>2.01</v>
       </c>
       <c r="K774" t="n">
-        <v>-7.692307692307482</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L774" t="n">
         <v>5.905000000000006</v>
@@ -39415,7 +39233,7 @@
         <v>2.01</v>
       </c>
       <c r="K775" t="n">
-        <v>-27.27272727272742</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L775" t="n">
         <v>5.907000000000006</v>
@@ -39466,7 +39284,7 @@
         <v>2.01</v>
       </c>
       <c r="K776" t="n">
-        <v>-19.99999999999964</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L776" t="n">
         <v>5.908000000000007</v>
@@ -39517,7 +39335,7 @@
         <v>2.02</v>
       </c>
       <c r="K777" t="n">
-        <v>-19.99999999999964</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L777" t="n">
         <v>5.908000000000007</v>
@@ -39568,7 +39386,7 @@
         <v>2.069999999999999</v>
       </c>
       <c r="K778" t="n">
-        <v>20.00000000000024</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L778" t="n">
         <v>5.912000000000006</v>
@@ -39619,7 +39437,7 @@
         <v>2.069999999999999</v>
       </c>
       <c r="K779" t="n">
-        <v>20.00000000000024</v>
+        <v>71.4285714285718</v>
       </c>
       <c r="L779" t="n">
         <v>5.916000000000007</v>
@@ -39670,7 +39488,7 @@
         <v>2.089999999999999</v>
       </c>
       <c r="K780" t="n">
-        <v>29.41176470588242</v>
+        <v>75.00000000000028</v>
       </c>
       <c r="L780" t="n">
         <v>5.923000000000007</v>
@@ -39721,7 +39539,7 @@
         <v>2.129999999999999</v>
       </c>
       <c r="K781" t="n">
-        <v>40.00000000000018</v>
+        <v>83.33333333333358</v>
       </c>
       <c r="L781" t="n">
         <v>5.933000000000007</v>
@@ -39772,7 +39590,7 @@
         <v>2.259999999999999</v>
       </c>
       <c r="K782" t="n">
-        <v>74.19354838709673</v>
+        <v>92.00000000000014</v>
       </c>
       <c r="L782" t="n">
         <v>5.956000000000008</v>
@@ -39823,7 +39641,7 @@
         <v>2.269999999999999</v>
       </c>
       <c r="K783" t="n">
-        <v>74.19354838709673</v>
+        <v>84.61538461538488</v>
       </c>
       <c r="L783" t="n">
         <v>5.978000000000007</v>
@@ -39874,7 +39692,7 @@
         <v>2.359999999999999</v>
       </c>
       <c r="K784" t="n">
-        <v>79.99999999999996</v>
+        <v>88.57142857142878</v>
       </c>
       <c r="L784" t="n">
         <v>6.009000000000007</v>
@@ -39925,7 +39743,7 @@
         <v>2.469999999999999</v>
       </c>
       <c r="K785" t="n">
-        <v>88.00000000000023</v>
+        <v>91.30434782608712</v>
       </c>
       <c r="L785" t="n">
         <v>6.051000000000007</v>
@@ -39976,7 +39794,7 @@
         <v>2.509999999999999</v>
       </c>
       <c r="K786" t="n">
-        <v>73.58490566037752</v>
+        <v>79.59183673469393</v>
       </c>
       <c r="L786" t="n">
         <v>6.089000000000008</v>
@@ -40027,7 +39845,7 @@
         <v>2.589999999999999</v>
       </c>
       <c r="K787" t="n">
-        <v>77.049180327869</v>
+        <v>80.76923076923083</v>
       </c>
       <c r="L787" t="n">
         <v>6.136000000000009</v>
@@ -40078,7 +39896,7 @@
         <v>2.699999999999999</v>
       </c>
       <c r="K788" t="n">
-        <v>80.28169014084521</v>
+        <v>84.12698412698418</v>
       </c>
       <c r="L788" t="n">
         <v>6.189000000000009</v>
@@ -40129,7 +39947,7 @@
         <v>2.779999999999999</v>
       </c>
       <c r="K789" t="n">
-        <v>62.0253164556963</v>
+        <v>62.3188405797102</v>
       </c>
       <c r="L789" t="n">
         <v>6.234000000000009</v>
@@ -40180,7 +39998,7 @@
         <v>2.819999999999999</v>
       </c>
       <c r="K790" t="n">
-        <v>56.0975609756098</v>
+        <v>50.72463768115946</v>
       </c>
       <c r="L790" t="n">
         <v>6.273000000000009</v>
@@ -40231,7 +40049,7 @@
         <v>2.84</v>
       </c>
       <c r="K791" t="n">
-        <v>51.80722891566261</v>
+        <v>34.48275862068963</v>
       </c>
       <c r="L791" t="n">
         <v>6.30600000000001</v>
@@ -40282,7 +40100,7 @@
         <v>2.86</v>
       </c>
       <c r="K792" t="n">
-        <v>52.94117647058822</v>
+        <v>38.98305084745759</v>
       </c>
       <c r="L792" t="n">
         <v>6.32800000000001</v>
@@ -40333,7 +40151,7 @@
         <v>2.890000000000001</v>
       </c>
       <c r="K793" t="n">
-        <v>47.72727272727268</v>
+        <v>20.75471698113206</v>
       </c>
       <c r="L793" t="n">
         <v>6.34800000000001</v>
@@ -40384,7 +40202,7 @@
         <v>2.890000000000001</v>
       </c>
       <c r="K794" t="n">
-        <v>47.72727272727268</v>
+        <v>0</v>
       </c>
       <c r="L794" t="n">
         <v>6.359000000000011</v>
@@ -40435,7 +40253,7 @@
         <v>2.910000000000001</v>
       </c>
       <c r="K795" t="n">
-        <v>44.44444444444432</v>
+        <v>4.999999999999867</v>
       </c>
       <c r="L795" t="n">
         <v>6.357000000000011</v>
@@ -40486,7 +40304,7 @@
         <v>2.950000000000001</v>
       </c>
       <c r="K796" t="n">
-        <v>38.29787234042542</v>
+        <v>-27.77777777777776</v>
       </c>
       <c r="L796" t="n">
         <v>6.35500000000001</v>
@@ -40537,7 +40355,7 @@
         <v>3.07</v>
       </c>
       <c r="K797" t="n">
-        <v>23.8095238095238</v>
+        <v>-89.18918918918897</v>
       </c>
       <c r="L797" t="n">
         <v>6.333000000000011</v>
@@ -40588,7 +40406,7 @@
         <v>3.09</v>
       </c>
       <c r="K798" t="n">
-        <v>21.56862745098036</v>
+        <v>-74.1935483870968</v>
       </c>
       <c r="L798" t="n">
         <v>6.302000000000009</v>
@@ -40639,7 +40457,7 @@
         <v>3.17</v>
       </c>
       <c r="K799" t="n">
-        <v>27.27272727272724</v>
+        <v>-31.42857142857147</v>
       </c>
       <c r="L799" t="n">
         <v>6.28700000000001</v>
@@ -40690,7 +40508,7 @@
         <v>3.18</v>
       </c>
       <c r="K800" t="n">
-        <v>26.60550458715595</v>
+        <v>-23.52941176470591</v>
       </c>
       <c r="L800" t="n">
         <v>6.27700000000001</v>
@@ -40741,7 +40559,7 @@
         <v>3.23</v>
       </c>
       <c r="K801" t="n">
-        <v>18.18181818181819</v>
+        <v>-40.54054054054072</v>
       </c>
       <c r="L801" t="n">
         <v>6.264000000000008</v>
@@ -40792,7 +40610,7 @@
         <v>3.239999999999999</v>
       </c>
       <c r="K802" t="n">
-        <v>6.122448979591885</v>
+        <v>-37.14285714285725</v>
       </c>
       <c r="L802" t="n">
         <v>6.248000000000009</v>
@@ -40843,7 +40661,7 @@
         <v>3.249999999999999</v>
       </c>
       <c r="K803" t="n">
-        <v>8.163265306122453</v>
+        <v>-33.3333333333335</v>
       </c>
       <c r="L803" t="n">
         <v>6.236000000000009</v>
@@ -40894,7 +40712,7 @@
         <v>3.289999999999999</v>
       </c>
       <c r="K804" t="n">
-        <v>3.225806451612928</v>
+        <v>-15.7894736842105</v>
       </c>
       <c r="L804" t="n">
         <v>6.228000000000009</v>
@@ -40945,7 +40763,7 @@
         <v>3.309999999999999</v>
       </c>
       <c r="K805" t="n">
-        <v>-11.90476190476186</v>
+        <v>-11.11111111111095</v>
       </c>
       <c r="L805" t="n">
         <v>6.220000000000009</v>
@@ -40996,7 +40814,7 @@
         <v>3.309999999999999</v>
       </c>
       <c r="K806" t="n">
-        <v>-7.499999999999953</v>
+        <v>33.33333333333358</v>
       </c>
       <c r="L806" t="n">
         <v>6.21600000000001</v>
@@ -41047,7 +40865,7 @@
         <v>3.339999999999998</v>
       </c>
       <c r="K807" t="n">
-        <v>-14.66666666666673</v>
+        <v>36.0000000000002</v>
       </c>
       <c r="L807" t="n">
         <v>6.22700000000001</v>
@@ -41098,7 +40916,7 @@
         <v>3.349999999999998</v>
       </c>
       <c r="K808" t="n">
-        <v>-32.30769230769251</v>
+        <v>11.111111111111</v>
       </c>
       <c r="L808" t="n">
         <v>6.237000000000011</v>
@@ -41149,7 +40967,7 @@
         <v>3.379999999999998</v>
       </c>
       <c r="K809" t="n">
-        <v>-16.66666666666679</v>
+        <v>20.00000000000018</v>
       </c>
       <c r="L809" t="n">
         <v>6.24200000000001</v>
@@ -41200,7 +41018,7 @@
         <v>3.399999999999999</v>
       </c>
       <c r="K810" t="n">
-        <v>-6.896551724137947</v>
+        <v>64.70588235294173</v>
       </c>
       <c r="L810" t="n">
         <v>6.24800000000001</v>
@@ -41251,7 +41069,7 @@
         <v>3.409999999999998</v>
       </c>
       <c r="K811" t="n">
-        <v>-1.754385964912248</v>
+        <v>76.47058823529449</v>
       </c>
       <c r="L811" t="n">
         <v>6.26000000000001</v>
@@ -41302,7 +41120,7 @@
         <v>3.419999999999998</v>
       </c>
       <c r="K812" t="n">
-        <v>-3.571428571428668</v>
+        <v>76.47058823529449</v>
       </c>
       <c r="L812" t="n">
         <v>6.27400000000001</v>
@@ -41353,7 +41171,7 @@
         <v>3.479999999999999</v>
       </c>
       <c r="K813" t="n">
-        <v>11.8644067796611</v>
+        <v>78.94736842105303</v>
       </c>
       <c r="L813" t="n">
         <v>6.29300000000001</v>
@@ -41404,7 +41222,7 @@
         <v>3.549999999999998</v>
       </c>
       <c r="K814" t="n">
-        <v>21.21212121212125</v>
+        <v>100</v>
       </c>
       <c r="L814" t="n">
         <v>6.31500000000001</v>
@@ -41455,7 +41273,7 @@
         <v>3.579999999999998</v>
       </c>
       <c r="K815" t="n">
-        <v>28.35820895522406</v>
+        <v>100</v>
       </c>
       <c r="L815" t="n">
         <v>6.34200000000001</v>
@@ -41506,7 +41324,7 @@
         <v>3.649999999999999</v>
       </c>
       <c r="K816" t="n">
-        <v>22.85714285714296</v>
+        <v>54.83870967741924</v>
       </c>
       <c r="L816" t="n">
         <v>6.362000000000011</v>
@@ -41557,7 +41375,7 @@
         <v>3.649999999999999</v>
       </c>
       <c r="K817" t="n">
-        <v>48.27586206896554</v>
+        <v>53.33333333333326</v>
       </c>
       <c r="L817" t="n">
         <v>6.37900000000001</v>
@@ -41608,7 +41426,7 @@
         <v>3.669999999999999</v>
       </c>
       <c r="K818" t="n">
-        <v>48.27586206896563</v>
+        <v>51.72413793103444</v>
       </c>
       <c r="L818" t="n">
         <v>6.39700000000001</v>
@@ -41659,7 +41477,7 @@
         <v>3.679999999999999</v>
       </c>
       <c r="K819" t="n">
-        <v>41.17647058823538</v>
+        <v>49.99999999999984</v>
       </c>
       <c r="L819" t="n">
         <v>6.413000000000009</v>
@@ -41710,7 +41528,7 @@
         <v>3.689999999999999</v>
       </c>
       <c r="K820" t="n">
-        <v>37.25490196078447</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L820" t="n">
         <v>6.426000000000011</v>
@@ -41761,7 +41579,7 @@
         <v>3.849999999999999</v>
       </c>
       <c r="K821" t="n">
-        <v>64.51612903225821</v>
+        <v>62.79069767441862</v>
       </c>
       <c r="L821" t="n">
         <v>6.45400000000001</v>
@@ -41812,7 +41630,7 @@
         <v>3.889999999999999</v>
       </c>
       <c r="K822" t="n">
-        <v>69.23076923076931</v>
+        <v>60.97560975609754</v>
       </c>
       <c r="L822" t="n">
         <v>6.485000000000011</v>
@@ -41863,7 +41681,7 @@
         <v>3.989999999999999</v>
       </c>
       <c r="K823" t="n">
-        <v>45.94594594594592</v>
+        <v>18.18181818181815</v>
       </c>
       <c r="L823" t="n">
         <v>6.50000000000001</v>
@@ -41914,7 +41732,7 @@
         <v>4.06</v>
       </c>
       <c r="K824" t="n">
-        <v>48.05194805194803</v>
+        <v>24.99999999999995</v>
       </c>
       <c r="L824" t="n">
         <v>6.51500000000001</v>
@@ -41965,7 +41783,7 @@
         <v>4.17</v>
       </c>
       <c r="K825" t="n">
-        <v>32.5581395348836</v>
+        <v>15.38461538461536</v>
       </c>
       <c r="L825" t="n">
         <v>6.516000000000011</v>
@@ -42016,7 +41834,7 @@
         <v>4.22</v>
       </c>
       <c r="K826" t="n">
-        <v>25.2747252747252</v>
+        <v>5.263157894736875</v>
       </c>
       <c r="L826" t="n">
         <v>6.519000000000011</v>
@@ -42067,7 +41885,7 @@
         <v>4.3</v>
       </c>
       <c r="K827" t="n">
-        <v>12.49999999999999</v>
+        <v>-11.11111111111114</v>
       </c>
       <c r="L827" t="n">
         <v>6.51400000000001</v>
@@ -42118,7 +41936,7 @@
         <v>4.31</v>
       </c>
       <c r="K828" t="n">
-        <v>10.4166666666667</v>
+        <v>-14.28571428571425</v>
       </c>
       <c r="L828" t="n">
         <v>6.50600000000001</v>
@@ -42169,7 +41987,7 @@
         <v>4.359999999999999</v>
       </c>
       <c r="K829" t="n">
-        <v>12.24489795918367</v>
+        <v>-4.477611940298539</v>
       </c>
       <c r="L829" t="n">
         <v>6.502000000000011</v>
@@ -42220,7 +42038,7 @@
         <v>4.399999999999999</v>
       </c>
       <c r="K830" t="n">
-        <v>5.999999999999956</v>
+        <v>-41.81818181818184</v>
       </c>
       <c r="L830" t="n">
         <v>6.49500000000001</v>
@@ -42271,7 +42089,7 @@
         <v>4.409999999999999</v>
       </c>
       <c r="K831" t="n">
-        <v>5.999999999999956</v>
+        <v>-50.00000000000009</v>
       </c>
       <c r="L831" t="n">
         <v>6.473000000000011</v>
@@ -42322,7 +42140,7 @@
         <v>4.449999999999999</v>
       </c>
       <c r="K832" t="n">
-        <v>8.737864077669879</v>
+        <v>-26.08695652173916</v>
       </c>
       <c r="L832" t="n">
         <v>6.45100000000001</v>
@@ -42373,7 +42191,7 @@
         <v>4.499999999999999</v>
       </c>
       <c r="K833" t="n">
-        <v>-1.960784313725535</v>
+        <v>-54.54545454545465</v>
       </c>
       <c r="L833" t="n">
         <v>6.43400000000001</v>
@@ -42424,7 +42242,7 @@
         <v>4.509999999999999</v>
       </c>
       <c r="K834" t="n">
-        <v>-8.333333333333332</v>
+        <v>-35.29411764705897</v>
       </c>
       <c r="L834" t="n">
         <v>6.41100000000001</v>
@@ -42475,7 +42293,7 @@
         <v>4.539999999999998</v>
       </c>
       <c r="K835" t="n">
-        <v>-14.5833333333333</v>
+        <v>-31.25000000000003</v>
       </c>
       <c r="L835" t="n">
         <v>6.39600000000001</v>
@@ -42526,7 +42344,7 @@
         <v>4.559999999999998</v>
       </c>
       <c r="K836" t="n">
-        <v>-5.494505494505479</v>
+        <v>0</v>
       </c>
       <c r="L836" t="n">
         <v>6.388000000000011</v>
@@ -42577,7 +42395,7 @@
         <v>4.599999999999998</v>
       </c>
       <c r="K837" t="n">
-        <v>-1.052631578947347</v>
+        <v>17.24137931034487</v>
       </c>
       <c r="L837" t="n">
         <v>6.392000000000009</v>
@@ -42628,7 +42446,7 @@
         <v>4.619999999999997</v>
       </c>
       <c r="K838" t="n">
-        <v>-5.263157894736832</v>
+        <v>-7.692307692307587</v>
       </c>
       <c r="L838" t="n">
         <v>6.395000000000009</v>
@@ -42679,7 +42497,7 @@
         <v>4.639999999999998</v>
       </c>
       <c r="K839" t="n">
-        <v>-8.333333333333348</v>
+        <v>0</v>
       </c>
       <c r="L839" t="n">
         <v>6.39100000000001</v>
@@ -42730,7 +42548,7 @@
         <v>4.719999999999998</v>
       </c>
       <c r="K840" t="n">
-        <v>-14.56310679611655</v>
+        <v>-29.0322580645162</v>
       </c>
       <c r="L840" t="n">
         <v>6.383000000000009</v>
@@ -42781,7 +42599,7 @@
         <v>4.739999999999998</v>
       </c>
       <c r="K841" t="n">
-        <v>-37.07865168539332</v>
+        <v>-51.7241379310346</v>
       </c>
       <c r="L841" t="n">
         <v>6.372000000000009</v>
@@ -42832,7 +42650,7 @@
         <v>4.749999999999997</v>
       </c>
       <c r="K842" t="n">
-        <v>-41.86046511627918</v>
+        <v>-36.0000000000002</v>
       </c>
       <c r="L842" t="n">
         <v>6.358000000000009</v>
@@ -42883,7 +42701,7 @@
         <v>4.779999999999998</v>
       </c>
       <c r="K843" t="n">
-        <v>-29.11392405063292</v>
+        <v>-25.92592592592583</v>
       </c>
       <c r="L843" t="n">
         <v>6.352000000000009</v>
@@ -42934,7 +42752,7 @@
         <v>4.779999999999998</v>
       </c>
       <c r="K844" t="n">
-        <v>-41.66666666666676</v>
+        <v>-16.66666666666673</v>
       </c>
       <c r="L844" t="n">
         <v>6.345000000000009</v>
@@ -42985,7 +42803,7 @@
         <v>4.789999999999998</v>
       </c>
       <c r="K845" t="n">
-        <v>-32.25806451612915</v>
+        <v>-30.43478260869572</v>
       </c>
       <c r="L845" t="n">
         <v>6.340000000000009</v>
@@ -43036,7 +42854,7 @@
         <v>4.809999999999998</v>
       </c>
       <c r="K846" t="n">
-        <v>-28.81355932203398</v>
+        <v>-61.90476190476186</v>
       </c>
       <c r="L846" t="n">
         <v>6.331000000000009</v>
@@ -43087,7 +42905,7 @@
         <v>4.859999999999998</v>
       </c>
       <c r="K847" t="n">
-        <v>-25.00000000000004</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L847" t="n">
         <v>6.313000000000009</v>
@@ -43138,7 +42956,7 @@
         <v>4.899999999999998</v>
       </c>
       <c r="K848" t="n">
-        <v>-28.81355932203398</v>
+        <v>-69.23076923076917</v>
       </c>
       <c r="L848" t="n">
         <v>6.29300000000001</v>
@@ -43189,7 +43007,7 @@
         <v>4.919999999999998</v>
       </c>
       <c r="K849" t="n">
-        <v>-42.857142857143</v>
+        <v>-60</v>
       </c>
       <c r="L849" t="n">
         <v>6.273000000000009</v>
@@ -43240,7 +43058,7 @@
         <v>4.919999999999998</v>
       </c>
       <c r="K850" t="n">
-        <v>-38.46153846153859</v>
+        <v>-55.55555555555567</v>
       </c>
       <c r="L850" t="n">
         <v>6.26100000000001</v>
@@ -43291,7 +43109,7 @@
         <v>4.989999999999998</v>
       </c>
       <c r="K851" t="n">
-        <v>-24.13793103448274</v>
+        <v>-16.6666666666666</v>
       </c>
       <c r="L851" t="n">
         <v>6.25800000000001</v>
@@ -43342,7 +43160,7 @@
         <v>5.009999999999998</v>
       </c>
       <c r="K852" t="n">
-        <v>-28.57142857142867</v>
+        <v>-21.73913043478288</v>
       </c>
       <c r="L852" t="n">
         <v>6.256000000000009</v>
@@ -43393,7 +43211,7 @@
         <v>5.039999999999998</v>
       </c>
       <c r="K853" t="n">
-        <v>-14.81481481481485</v>
+        <v>-7.69230769230785</v>
       </c>
       <c r="L853" t="n">
         <v>6.25400000000001</v>
@@ -43444,7 +43262,7 @@
         <v>5.059999999999999</v>
       </c>
       <c r="K854" t="n">
-        <v>-12.72727272727262</v>
+        <v>3.703703703703947</v>
       </c>
       <c r="L854" t="n">
         <v>6.25400000000001</v>
@@ -43495,7 +43313,7 @@
         <v>5.069999999999999</v>
       </c>
       <c r="K855" t="n">
-        <v>-5.660377358490611</v>
+        <v>15.38461538461536</v>
       </c>
       <c r="L855" t="n">
         <v>6.25600000000001</v>
@@ -43546,7 +43364,7 @@
         <v>5.079999999999998</v>
       </c>
       <c r="K856" t="n">
-        <v>-7.692307692307693</v>
+        <v>45.45454545454516</v>
       </c>
       <c r="L856" t="n">
         <v>6.261000000000011</v>
@@ -43597,7 +43415,7 @@
         <v>5.109999999999999</v>
       </c>
       <c r="K857" t="n">
-        <v>-9.803921568627404</v>
+        <v>80.95238095238059</v>
       </c>
       <c r="L857" t="n">
         <v>6.27400000000001</v>
@@ -43648,7 +43466,7 @@
         <v>5.179999999999999</v>
       </c>
       <c r="K858" t="n">
-        <v>7.142857142857132</v>
+        <v>100</v>
       </c>
       <c r="L858" t="n">
         <v>6.298000000000011</v>
@@ -43699,7 +43517,7 @@
         <v>5.209999999999998</v>
       </c>
       <c r="K859" t="n">
-        <v>15.78947368421049</v>
+        <v>100</v>
       </c>
       <c r="L859" t="n">
         <v>6.327000000000011</v>
@@ -43750,7 +43568,7 @@
         <v>5.219999999999999</v>
       </c>
       <c r="K860" t="n">
-        <v>36.00000000000006</v>
+        <v>100</v>
       </c>
       <c r="L860" t="n">
         <v>6.35700000000001</v>
@@ -43801,7 +43619,7 @@
         <v>5.23</v>
       </c>
       <c r="K861" t="n">
-        <v>38.77551020408138</v>
+        <v>90.90909090909037</v>
       </c>
       <c r="L861" t="n">
         <v>6.37900000000001</v>
@@ -43852,7 +43670,7 @@
         <v>5.249999999999999</v>
       </c>
       <c r="K862" t="n">
-        <v>31.99999999999992</v>
+        <v>71.4285714285713</v>
       </c>
       <c r="L862" t="n">
         <v>6.397000000000011</v>
@@ -43903,7 +43721,7 @@
         <v>5.289999999999999</v>
       </c>
       <c r="K863" t="n">
-        <v>17.64705882352933</v>
+        <v>39.13043478260856</v>
       </c>
       <c r="L863" t="n">
         <v>6.408000000000011</v>
@@ -43954,7 +43772,7 @@
         <v>5.329999999999999</v>
       </c>
       <c r="K864" t="n">
-        <v>9.090909090909033</v>
+        <v>15.38461538461536</v>
       </c>
       <c r="L864" t="n">
         <v>6.413000000000011</v>
@@ -44005,7 +43823,7 @@
         <v>5.339999999999999</v>
       </c>
       <c r="K865" t="n">
-        <v>9.090909090909207</v>
+        <v>7.69230769230785</v>
       </c>
       <c r="L865" t="n">
         <v>6.416000000000011</v>
@@ -44056,7 +43874,7 @@
         <v>5.339999999999999</v>
       </c>
       <c r="K866" t="n">
-        <v>13.20754716981135</v>
+        <v>-4.347826086956421</v>
       </c>
       <c r="L866" t="n">
         <v>6.418000000000011</v>
@@ -44107,7 +43925,7 @@
         <v>5.349999999999999</v>
       </c>
       <c r="K867" t="n">
-        <v>26.53061224489788</v>
+        <v>-41.17647058823548</v>
       </c>
       <c r="L867" t="n">
         <v>6.418000000000011</v>
@@ -44158,7 +43976,7 @@
         <v>5.359999999999999</v>
       </c>
       <c r="K868" t="n">
-        <v>39.13043478260856</v>
+        <v>-59.99999999999977</v>
       </c>
       <c r="L868" t="n">
         <v>6.412000000000011</v>
@@ -44209,7 +44027,7 @@
         <v>5.429999999999999</v>
       </c>
       <c r="K869" t="n">
-        <v>25.49019607843131</v>
+        <v>-80.95238095238135</v>
       </c>
       <c r="L869" t="n">
         <v>6.396000000000011</v>
@@ -44260,7 +44078,7 @@
         <v>5.469999999999999</v>
       </c>
       <c r="K870" t="n">
-        <v>30.90909090909086</v>
+        <v>-50.00000000000019</v>
       </c>
       <c r="L870" t="n">
         <v>6.38300000000001</v>
@@ -44311,7 +44129,7 @@
         <v>5.469999999999999</v>
       </c>
       <c r="K871" t="n">
-        <v>20.83333333333324</v>
+        <v>-45.45454545454574</v>
       </c>
       <c r="L871" t="n">
         <v>6.371000000000009</v>
@@ -44362,7 +44180,7 @@
         <v>5.469999999999999</v>
       </c>
       <c r="K872" t="n">
-        <v>17.39130434782607</v>
+        <v>-33.33333333333366</v>
       </c>
       <c r="L872" t="n">
         <v>6.361000000000009</v>
@@ -44413,7 +44231,7 @@
         <v>5.469999999999999</v>
       </c>
       <c r="K873" t="n">
-        <v>11.62790697674413</v>
+        <v>-14.28571428571465</v>
       </c>
       <c r="L873" t="n">
         <v>6.355000000000008</v>
@@ -44464,7 +44282,7 @@
         <v>5.469999999999999</v>
       </c>
       <c r="K874" t="n">
-        <v>7.317073170731549</v>
+        <v>-7.692307692308217</v>
       </c>
       <c r="L874" t="n">
         <v>6.353000000000008</v>
@@ -44515,7 +44333,7 @@
         <v>5.469999999999999</v>
       </c>
       <c r="K875" t="n">
-        <v>4.999999999999889</v>
+        <v>-7.692307692308217</v>
       </c>
       <c r="L875" t="n">
         <v>6.352000000000008</v>
@@ -44566,7 +44384,7 @@
         <v>5.479999999999999</v>
       </c>
       <c r="K876" t="n">
-        <v>0</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L876" t="n">
         <v>6.350000000000009</v>
@@ -44617,7 +44435,7 @@
         <v>5.479999999999999</v>
       </c>
       <c r="K877" t="n">
-        <v>-8.108108108108173</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L877" t="n">
         <v>6.347000000000009</v>
@@ -44668,7 +44486,7 @@
         <v>5.499999999999998</v>
       </c>
       <c r="K878" t="n">
-        <v>-37.50000000000011</v>
+        <v>14.28571428571537</v>
       </c>
       <c r="L878" t="n">
         <v>6.341000000000009</v>
@@ -44719,7 +44537,7 @@
         <v>5.499999999999998</v>
       </c>
       <c r="K879" t="n">
-        <v>-51.7241379310343</v>
+        <v>-100</v>
       </c>
       <c r="L879" t="n">
         <v>6.342000000000009</v>
@@ -44770,7 +44588,7 @@
         <v>5.509999999999999</v>
       </c>
       <c r="K880" t="n">
-        <v>-58.62068965517268</v>
+        <v>-100</v>
       </c>
       <c r="L880" t="n">
         <v>6.338000000000009</v>
@@ -44821,7 +44639,7 @@
         <v>5.519999999999999</v>
       </c>
       <c r="K881" t="n">
-        <v>-58.62068965517256</v>
+        <v>-100</v>
       </c>
       <c r="L881" t="n">
         <v>6.333000000000009</v>
@@ -44872,7 +44690,7 @@
         <v>5.519999999999999</v>
       </c>
       <c r="K882" t="n">
-        <v>-55.55555555555578</v>
+        <v>-100</v>
       </c>
       <c r="L882" t="n">
         <v>6.328000000000009</v>
@@ -44923,7 +44741,7 @@
         <v>5.559999999999999</v>
       </c>
       <c r="K883" t="n">
-        <v>-55.55555555555578</v>
+        <v>-100</v>
       </c>
       <c r="L883" t="n">
         <v>6.319000000000009</v>
@@ -44974,7 +44792,7 @@
         <v>5.559999999999999</v>
       </c>
       <c r="K884" t="n">
-        <v>-47.82608695652198</v>
+        <v>-100</v>
       </c>
       <c r="L884" t="n">
         <v>6.310000000000008</v>
@@ -45025,7 +44843,7 @@
         <v>5.609999999999999</v>
       </c>
       <c r="K885" t="n">
-        <v>-55.55555555555578</v>
+        <v>-100</v>
       </c>
       <c r="L885" t="n">
         <v>6.296000000000008</v>
@@ -45076,7 +44894,7 @@
         <v>5.609999999999999</v>
       </c>
       <c r="K886" t="n">
-        <v>-55.55555555555578</v>
+        <v>-100</v>
       </c>
       <c r="L886" t="n">
         <v>6.283000000000008</v>
@@ -45127,7 +44945,7 @@
         <v>5.609999999999999</v>
       </c>
       <c r="K887" t="n">
-        <v>-61.53846153846164</v>
+        <v>-100</v>
       </c>
       <c r="L887" t="n">
         <v>6.270000000000008</v>
@@ -45178,7 +44996,7 @@
         <v>5.699999999999998</v>
       </c>
       <c r="K888" t="n">
-        <v>-76.47058823529409</v>
+        <v>-100</v>
       </c>
       <c r="L888" t="n">
         <v>6.250000000000008</v>
@@ -45229,7 +45047,7 @@
         <v>5.729999999999999</v>
       </c>
       <c r="K889" t="n">
-        <v>-53.33333333333312</v>
+        <v>-72.72727272727248</v>
       </c>
       <c r="L889" t="n">
         <v>6.233000000000008</v>
@@ -45280,7 +45098,7 @@
         <v>5.749999999999998</v>
       </c>
       <c r="K890" t="n">
-        <v>-64.28571428571433</v>
+        <v>-56.52173913043485</v>
       </c>
       <c r="L890" t="n">
         <v>6.219000000000007</v>
@@ -45331,7 +45149,7 @@
         <v>5.759999999999998</v>
       </c>
       <c r="K891" t="n">
-        <v>-58.62068965517256</v>
+        <v>-50.00000000000019</v>
       </c>
       <c r="L891" t="n">
         <v>6.207000000000006</v>
@@ -45382,7 +45200,7 @@
         <v>5.769999999999999</v>
       </c>
       <c r="K892" t="n">
-        <v>-53.33333333333312</v>
+        <v>-33.33333333333305</v>
       </c>
       <c r="L892" t="n">
         <v>6.196000000000007</v>
@@ -45433,7 +45251,7 @@
         <v>5.779999999999998</v>
       </c>
       <c r="K893" t="n">
-        <v>-48.38709677419344</v>
+        <v>-27.27272727272713</v>
       </c>
       <c r="L893" t="n">
         <v>6.190000000000007</v>
@@ -45484,7 +45302,7 @@
         <v>5.779999999999998</v>
       </c>
       <c r="K894" t="n">
-        <v>-48.38709677419344</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L894" t="n">
         <v>6.184000000000006</v>
@@ -45535,7 +45353,7 @@
         <v>5.799999999999999</v>
       </c>
       <c r="K895" t="n">
-        <v>-51.51515151515148</v>
+        <v>-15.78947368421063</v>
       </c>
       <c r="L895" t="n">
         <v>6.181000000000006</v>
@@ -45586,7 +45404,7 @@
         <v>5.81</v>
       </c>
       <c r="K896" t="n">
-        <v>-45.45454545454516</v>
+        <v>-9.999999999999734</v>
       </c>
       <c r="L896" t="n">
         <v>6.179000000000007</v>
@@ -45637,7 +45455,7 @@
         <v>5.819999999999999</v>
       </c>
       <c r="K897" t="n">
-        <v>-41.17647058823511</v>
+        <v>66.66666666666617</v>
       </c>
       <c r="L897" t="n">
         <v>6.178000000000006</v>
@@ -45688,7 +45506,7 @@
         <v>5.819999999999999</v>
       </c>
       <c r="K898" t="n">
-        <v>-37.49999999999989</v>
+        <v>55.5555555555549</v>
       </c>
       <c r="L898" t="n">
         <v>6.186000000000006</v>
@@ -45739,7 +45557,7 @@
         <v>5.869999999999999</v>
       </c>
       <c r="K899" t="n">
-        <v>-45.9459459459458</v>
+        <v>-16.66666666666617</v>
       </c>
       <c r="L899" t="n">
         <v>6.186000000000006</v>
@@ -45790,7 +45608,7 @@
         <v>5.879999999999999</v>
       </c>
       <c r="K900" t="n">
-        <v>-40.54054054054038</v>
+        <v>-16.66666666666617</v>
       </c>
       <c r="L900" t="n">
         <v>6.185000000000007</v>
@@ -45841,7 +45659,7 @@
         <v>5.899999999999999</v>
       </c>
       <c r="K901" t="n">
-        <v>-31.57894736842109</v>
+        <v>-7.692307692308217</v>
       </c>
       <c r="L901" t="n">
         <v>6.185000000000006</v>
@@ -45892,7 +45710,7 @@
         <v>5.909999999999998</v>
       </c>
       <c r="K902" t="n">
-        <v>-33.33333333333333</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L902" t="n">
         <v>6.183000000000005</v>
@@ -45943,7 +45761,7 @@
         <v>5.909999999999998</v>
       </c>
       <c r="K903" t="n">
-        <v>-25.7142857142857</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L903" t="n">
         <v>6.180000000000005</v>
@@ -45994,7 +45812,7 @@
         <v>5.909999999999998</v>
       </c>
       <c r="K904" t="n">
-        <v>-25.7142857142857</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L904" t="n">
         <v>6.177000000000005</v>
@@ -46045,7 +45863,7 @@
         <v>5.909999999999998</v>
       </c>
       <c r="K905" t="n">
-        <v>-13.33333333333335</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L905" t="n">
         <v>6.176000000000005</v>
@@ -46096,7 +45914,7 @@
         <v>5.909999999999998</v>
       </c>
       <c r="K906" t="n">
-        <v>-13.33333333333335</v>
+        <v>-33.33333333333399</v>
       </c>
       <c r="L906" t="n">
         <v>6.174000000000005</v>
@@ -46147,7 +45965,7 @@
         <v>5.909999999999998</v>
       </c>
       <c r="K907" t="n">
-        <v>-13.33333333333335</v>
+        <v>-33.33333333333399</v>
       </c>
       <c r="L907" t="n">
         <v>6.171000000000005</v>
@@ -46198,7 +46016,7 @@
         <v>5.919999999999998</v>
       </c>
       <c r="K908" t="n">
-        <v>18.18181818181822</v>
+        <v>20</v>
       </c>
       <c r="L908" t="n">
         <v>6.167000000000004</v>
@@ -46249,7 +46067,7 @@
         <v>5.939999999999999</v>
       </c>
       <c r="K909" t="n">
-        <v>-4.761904761905084</v>
+        <v>-33.33333333333432</v>
       </c>
       <c r="L909" t="n">
         <v>6.166000000000005</v>
@@ -46300,7 +46118,7 @@
         <v>5.969999999999998</v>
       </c>
       <c r="K910" t="n">
-        <v>-27.27272727272713</v>
+        <v>-100</v>
       </c>
       <c r="L910" t="n">
         <v>6.161000000000006</v>
@@ -46351,7 +46169,7 @@
         <v>5.999999999999997</v>
       </c>
       <c r="K911" t="n">
-        <v>-16.66666666666673</v>
+        <v>-33.33333333333399</v>
       </c>
       <c r="L911" t="n">
         <v>6.157000000000005</v>
@@ -46402,7 +46220,7 @@
         <v>6.009999999999998</v>
       </c>
       <c r="K912" t="n">
-        <v>-16.66666666666673</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L912" t="n">
         <v>6.155000000000006</v>
@@ -46453,7 +46271,7 @@
         <v>6.029999999999998</v>
       </c>
       <c r="K913" t="n">
-        <v>-28.00000000000011</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L913" t="n">
         <v>6.151000000000005</v>
@@ -46504,7 +46322,7 @@
         <v>6.029999999999998</v>
       </c>
       <c r="K914" t="n">
-        <v>-28.00000000000011</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L914" t="n">
         <v>6.147000000000004</v>
@@ -46555,7 +46373,7 @@
         <v>6.049999999999998</v>
       </c>
       <c r="K915" t="n">
-        <v>-27.99999999999986</v>
+        <v>-42.85714285714268</v>
       </c>
       <c r="L915" t="n">
         <v>6.141000000000004</v>
@@ -46606,7 +46424,7 @@
         <v>6.049999999999998</v>
       </c>
       <c r="K916" t="n">
-        <v>-33.33333333333358</v>
+        <v>-42.85714285714268</v>
       </c>
       <c r="L916" t="n">
         <v>6.135000000000003</v>
@@ -46657,7 +46475,7 @@
         <v>6.049999999999998</v>
       </c>
       <c r="K917" t="n">
-        <v>-39.13043478260887</v>
+        <v>-38.46153846153836</v>
       </c>
       <c r="L917" t="n">
         <v>6.129000000000003</v>
@@ -46708,7 +46526,7 @@
         <v>6.059999999999998</v>
       </c>
       <c r="K918" t="n">
-        <v>-33.33333333333358</v>
+        <v>-16.66666666666642</v>
       </c>
       <c r="L918" t="n">
         <v>6.125000000000004</v>
@@ -46759,7 +46577,7 @@
         <v>6.069999999999998</v>
       </c>
       <c r="K919" t="n">
-        <v>-20.00000000000018</v>
+        <v>0</v>
       </c>
       <c r="L919" t="n">
         <v>6.122000000000004</v>
@@ -46810,7 +46628,7 @@
         <v>6.139999999999998</v>
       </c>
       <c r="K920" t="n">
-        <v>-46.15384615384639</v>
+        <v>-71.42857142857089</v>
       </c>
       <c r="L920" t="n">
         <v>6.115000000000005</v>
@@ -46861,7 +46679,7 @@
         <v>6.169999999999998</v>
       </c>
       <c r="K921" t="n">
-        <v>-62.96296296296303</v>
+        <v>-87.50000000000028</v>
       </c>
       <c r="L921" t="n">
         <v>6.102000000000006</v>
@@ -46912,7 +46730,7 @@
         <v>6.169999999999998</v>
       </c>
       <c r="K922" t="n">
-        <v>-61.53846153846164</v>
+        <v>-85.71428571428599</v>
       </c>
       <c r="L922" t="n">
         <v>6.088000000000006</v>
@@ -46963,7 +46781,7 @@
         <v>6.169999999999998</v>
       </c>
       <c r="K923" t="n">
-        <v>-61.53846153846164</v>
+        <v>-85.71428571428599</v>
       </c>
       <c r="L923" t="n">
         <v>6.076000000000006</v>
@@ -47014,7 +46832,7 @@
         <v>6.179999999999998</v>
       </c>
       <c r="K924" t="n">
-        <v>-55.55555555555578</v>
+        <v>-69.23076923076987</v>
       </c>
       <c r="L924" t="n">
         <v>6.065000000000006</v>
@@ -47065,7 +46883,7 @@
         <v>6.189999999999999</v>
       </c>
       <c r="K925" t="n">
-        <v>-49.99999999999984</v>
+        <v>-57.14285714285696</v>
       </c>
       <c r="L925" t="n">
         <v>6.057000000000005</v>
@@ -47116,7 +46934,7 @@
         <v>6.219999999999998</v>
       </c>
       <c r="K926" t="n">
-        <v>-35.48387096774208</v>
+        <v>-29.41176470588278</v>
       </c>
       <c r="L926" t="n">
         <v>6.052000000000005</v>
@@ -47167,7 +46985,7 @@
         <v>6.219999999999998</v>
       </c>
       <c r="K927" t="n">
-        <v>-35.48387096774208</v>
+        <v>-37.50000000000028</v>
       </c>
       <c r="L927" t="n">
         <v>6.047000000000006</v>
@@ -47218,7 +47036,7 @@
         <v>6.219999999999998</v>
       </c>
       <c r="K928" t="n">
-        <v>-33.33333333333353</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L928" t="n">
         <v>6.041000000000006</v>
@@ -47269,7 +47087,7 @@
         <v>6.229999999999999</v>
       </c>
       <c r="K929" t="n">
-        <v>-24.13793103448255</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L929" t="n">
         <v>6.037000000000006</v>
@@ -47320,7 +47138,7 @@
         <v>6.239999999999998</v>
       </c>
       <c r="K930" t="n">
-        <v>-11.11111111111118</v>
+        <v>100</v>
       </c>
       <c r="L930" t="n">
         <v>6.041000000000006</v>
@@ -47371,7 +47189,7 @@
         <v>6.249999999999998</v>
       </c>
       <c r="K931" t="n">
-        <v>-27.99999999999966</v>
+        <v>75.00000000000055</v>
       </c>
       <c r="L931" t="n">
         <v>6.047000000000006</v>
@@ -47422,7 +47240,7 @@
         <v>6.259999999999999</v>
       </c>
       <c r="K932" t="n">
-        <v>-36.00000000000017</v>
+        <v>55.5555555555549</v>
       </c>
       <c r="L932" t="n">
         <v>6.052000000000006</v>
@@ -47473,7 +47291,7 @@
         <v>6.259999999999999</v>
       </c>
       <c r="K933" t="n">
-        <v>-30.43478260869572</v>
+        <v>49.99999999999945</v>
       </c>
       <c r="L933" t="n">
         <v>6.057000000000006</v>
@@ -47524,7 +47342,7 @@
         <v>6.259999999999999</v>
       </c>
       <c r="K934" t="n">
-        <v>-30.43478260869572</v>
+        <v>42.85714285714177</v>
       </c>
       <c r="L934" t="n">
         <v>6.061000000000005</v>
@@ -47575,7 +47393,7 @@
         <v>6.279999999999998</v>
       </c>
       <c r="K935" t="n">
-        <v>-30.43478260869572</v>
+        <v>-33.33333333333235</v>
       </c>
       <c r="L935" t="n">
         <v>6.062000000000006</v>
@@ -47626,7 +47444,7 @@
         <v>6.299999999999998</v>
       </c>
       <c r="K936" t="n">
-        <v>-20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L936" t="n">
         <v>6.062000000000006</v>
@@ -47677,7 +47495,7 @@
         <v>6.299999999999998</v>
       </c>
       <c r="K937" t="n">
-        <v>-20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L937" t="n">
         <v>6.062000000000006</v>
@@ -47728,7 +47546,7 @@
         <v>6.319999999999999</v>
       </c>
       <c r="K938" t="n">
-        <v>-15.38461538461536</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L938" t="n">
         <v>6.064000000000005</v>
@@ -47779,7 +47597,7 @@
         <v>6.359999999999999</v>
       </c>
       <c r="K939" t="n">
-        <v>-24.13793103448278</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L939" t="n">
         <v>6.061000000000006</v>
@@ -47830,7 +47648,7 @@
         <v>6.369999999999998</v>
       </c>
       <c r="K940" t="n">
-        <v>4.347826086956421</v>
+        <v>-16.66666666666704</v>
       </c>
       <c r="L940" t="n">
         <v>6.058000000000007</v>
@@ -47881,7 +47699,7 @@
         <v>6.369999999999998</v>
       </c>
       <c r="K941" t="n">
-        <v>20</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L941" t="n">
         <v>6.056000000000006</v>
@@ -47932,7 +47750,7 @@
         <v>6.369999999999998</v>
       </c>
       <c r="K942" t="n">
-        <v>20</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L942" t="n">
         <v>6.055000000000007</v>
@@ -47983,7 +47801,7 @@
         <v>6.379999999999998</v>
       </c>
       <c r="K943" t="n">
-        <v>23.80952380952373</v>
+        <v>0</v>
       </c>
       <c r="L943" t="n">
         <v>6.055000000000007</v>
@@ -48034,7 +47852,7 @@
         <v>6.379999999999998</v>
       </c>
       <c r="K944" t="n">
-        <v>20</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L944" t="n">
         <v>6.055000000000007</v>
@@ -48085,7 +47903,7 @@
         <v>6.389999999999998</v>
       </c>
       <c r="K945" t="n">
-        <v>9.999999999999822</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L945" t="n">
         <v>6.056000000000006</v>
@@ -48136,7 +47954,7 @@
         <v>6.389999999999998</v>
       </c>
       <c r="K946" t="n">
-        <v>-5.882352941176348</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L946" t="n">
         <v>6.055000000000007</v>
@@ -48187,7 +48005,7 @@
         <v>6.399999999999998</v>
       </c>
       <c r="K947" t="n">
-        <v>-11.11111111111089</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L947" t="n">
         <v>6.053000000000007</v>
@@ -48238,7 +48056,7 @@
         <v>6.409999999999997</v>
       </c>
       <c r="K948" t="n">
-        <v>-5.263157894736744</v>
+        <v>20</v>
       </c>
       <c r="L948" t="n">
         <v>6.050000000000007</v>
@@ -48289,7 +48107,7 @@
         <v>6.419999999999997</v>
       </c>
       <c r="K949" t="n">
-        <v>-5.263157894737236</v>
+        <v>20</v>
       </c>
       <c r="L949" t="n">
         <v>6.052000000000008</v>
@@ -48340,7 +48158,7 @@
         <v>6.429999999999997</v>
       </c>
       <c r="K950" t="n">
-        <v>-15.78947368421077</v>
+        <v>0</v>
       </c>
       <c r="L950" t="n">
         <v>6.052000000000008</v>
@@ -48391,7 +48209,7 @@
         <v>6.439999999999997</v>
       </c>
       <c r="K951" t="n">
-        <v>-15.78947368421077</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L951" t="n">
         <v>6.051000000000009</v>
@@ -48442,7 +48260,7 @@
         <v>6.449999999999997</v>
       </c>
       <c r="K952" t="n">
-        <v>-5.263157894736794</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L952" t="n">
         <v>6.051000000000009</v>
@@ -48493,7 +48311,7 @@
         <v>6.449999999999997</v>
       </c>
       <c r="K953" t="n">
-        <v>-5.263157894736794</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L953" t="n">
         <v>6.050000000000009</v>
@@ -48544,7 +48362,7 @@
         <v>6.449999999999997</v>
       </c>
       <c r="K954" t="n">
-        <v>-5.263157894736794</v>
+        <v>0</v>
       </c>
       <c r="L954" t="n">
         <v>6.049000000000008</v>
@@ -48595,7 +48413,7 @@
         <v>6.449999999999997</v>
       </c>
       <c r="K955" t="n">
-        <v>5.88235294117641</v>
+        <v>0</v>
       </c>
       <c r="L955" t="n">
         <v>6.049000000000008</v>
@@ -48646,7 +48464,7 @@
         <v>6.449999999999997</v>
       </c>
       <c r="K956" t="n">
-        <v>-6.666666666666588</v>
+        <v>20</v>
       </c>
       <c r="L956" t="n">
         <v>6.049000000000008</v>
@@ -48697,7 +48515,7 @@
         <v>6.459999999999996</v>
       </c>
       <c r="K957" t="n">
-        <v>-12.49999999999986</v>
+        <v>-20</v>
       </c>
       <c r="L957" t="n">
         <v>6.049000000000008</v>
@@ -48748,7 +48566,7 @@
         <v>6.469999999999996</v>
       </c>
       <c r="K958" t="n">
-        <v>-20.00000000000047</v>
+        <v>-20</v>
       </c>
       <c r="L958" t="n">
         <v>6.049000000000009</v>
@@ -48799,7 +48617,7 @@
         <v>6.479999999999996</v>
       </c>
       <c r="K959" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L959" t="n">
         <v>6.047000000000009</v>
@@ -48850,7 +48668,7 @@
         <v>6.479999999999996</v>
       </c>
       <c r="K960" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L960" t="n">
         <v>6.046000000000011</v>
@@ -48901,7 +48719,7 @@
         <v>6.479999999999996</v>
       </c>
       <c r="K961" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L961" t="n">
         <v>6.046000000000012</v>
@@ -49003,7 +48821,7 @@
         <v>6.499999999999996</v>
       </c>
       <c r="K963" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L963" t="n">
         <v>6.045000000000013</v>
@@ -49054,7 +48872,7 @@
         <v>6.499999999999996</v>
       </c>
       <c r="K964" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L964" t="n">
         <v>6.044000000000014</v>
@@ -49105,7 +48923,7 @@
         <v>6.499999999999996</v>
       </c>
       <c r="K965" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L965" t="n">
         <v>6.043000000000015</v>
@@ -49156,7 +48974,7 @@
         <v>6.499999999999996</v>
       </c>
       <c r="K966" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L966" t="n">
         <v>6.042000000000016</v>
@@ -49207,7 +49025,7 @@
         <v>6.509999999999995</v>
       </c>
       <c r="K967" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L967" t="n">
         <v>6.043000000000015</v>
@@ -49258,7 +49076,7 @@
         <v>6.529999999999996</v>
       </c>
       <c r="K968" t="n">
-        <v>16.66666666666729</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L968" t="n">
         <v>6.045000000000016</v>
@@ -49309,7 +49127,7 @@
         <v>6.539999999999996</v>
       </c>
       <c r="K969" t="n">
-        <v>16.66666666666729</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L969" t="n">
         <v>6.049000000000015</v>
@@ -49360,7 +49178,7 @@
         <v>6.539999999999996</v>
       </c>
       <c r="K970" t="n">
-        <v>27.27272727272786</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L970" t="n">
         <v>6.053000000000017</v>
@@ -49411,7 +49229,7 @@
         <v>6.589999999999995</v>
       </c>
       <c r="K971" t="n">
-        <v>60.00000000000048</v>
+        <v>80.00000000000036</v>
       </c>
       <c r="L971" t="n">
         <v>6.062000000000017</v>
@@ -49462,7 +49280,7 @@
         <v>6.609999999999996</v>
       </c>
       <c r="K972" t="n">
-        <v>62.50000000000063</v>
+        <v>100</v>
       </c>
       <c r="L972" t="n">
         <v>6.072000000000017</v>
@@ -49513,7 +49331,7 @@
         <v>6.639999999999995</v>
       </c>
       <c r="K973" t="n">
-        <v>68.4210526315794</v>
+        <v>100</v>
       </c>
       <c r="L973" t="n">
         <v>6.086000000000018</v>
@@ -49564,7 +49382,7 @@
         <v>6.659999999999995</v>
       </c>
       <c r="K974" t="n">
-        <v>52.38095238095298</v>
+        <v>75.00000000000043</v>
       </c>
       <c r="L974" t="n">
         <v>6.098000000000019</v>
@@ -49615,7 +49433,7 @@
         <v>6.679999999999995</v>
       </c>
       <c r="K975" t="n">
-        <v>39.13043478260887</v>
+        <v>55.55555555555544</v>
       </c>
       <c r="L975" t="n">
         <v>6.108000000000017</v>
@@ -49666,7 +49484,7 @@
         <v>6.679999999999995</v>
       </c>
       <c r="K976" t="n">
-        <v>39.13043478260887</v>
+        <v>52.94117647058817</v>
       </c>
       <c r="L976" t="n">
         <v>6.118000000000017</v>
@@ -49717,7 +49535,7 @@
         <v>6.699999999999996</v>
       </c>
       <c r="K977" t="n">
-        <v>50.00000000000019</v>
+        <v>52.94117647058817</v>
       </c>
       <c r="L977" t="n">
         <v>6.129000000000017</v>
@@ -49768,7 +49586,7 @@
         <v>6.699999999999996</v>
       </c>
       <c r="K978" t="n">
-        <v>47.82608695652198</v>
+        <v>50</v>
       </c>
       <c r="L978" t="n">
         <v>6.138000000000018</v>
@@ -49819,7 +49637,7 @@
         <v>6.699999999999996</v>
       </c>
       <c r="K979" t="n">
-        <v>54.54545454545465</v>
+        <v>50</v>
       </c>
       <c r="L979" t="n">
         <v>6.146000000000018</v>
@@ -49870,7 +49688,7 @@
         <v>6.699999999999996</v>
       </c>
       <c r="K980" t="n">
-        <v>54.54545454545465</v>
+        <v>27.27272727272742</v>
       </c>
       <c r="L980" t="n">
         <v>6.154000000000018</v>
@@ -49921,7 +49739,7 @@
         <v>6.699999999999996</v>
       </c>
       <c r="K981" t="n">
-        <v>54.54545454545465</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L981" t="n">
         <v>6.157000000000017</v>
@@ -49972,7 +49790,7 @@
         <v>6.729999999999996</v>
       </c>
       <c r="K982" t="n">
-        <v>58.33333333333351</v>
+        <v>11.11111111111177</v>
       </c>
       <c r="L982" t="n">
         <v>6.161000000000017</v>
@@ -50023,7 +49841,7 @@
         <v>6.729999999999996</v>
       </c>
       <c r="K983" t="n">
-        <v>65.21739130434786</v>
+        <v>42.85714285714249</v>
       </c>
       <c r="L983" t="n">
         <v>6.162000000000019</v>
@@ -50074,7 +49892,7 @@
         <v>6.729999999999996</v>
       </c>
       <c r="K984" t="n">
-        <v>65.21739130434786</v>
+        <v>100</v>
       </c>
       <c r="L984" t="n">
         <v>6.165000000000019</v>
@@ -50125,7 +49943,7 @@
         <v>6.729999999999996</v>
       </c>
       <c r="K985" t="n">
-        <v>65.21739130434786</v>
+        <v>100</v>
       </c>
       <c r="L985" t="n">
         <v>6.170000000000019</v>
@@ -50176,7 +49994,7 @@
         <v>6.739999999999997</v>
       </c>
       <c r="K986" t="n">
-        <v>58.33333333333294</v>
+        <v>49.99999999999778</v>
       </c>
       <c r="L986" t="n">
         <v>6.174000000000019</v>
@@ -50227,7 +50045,7 @@
         <v>6.749999999999997</v>
       </c>
       <c r="K987" t="n">
-        <v>58.33333333333308</v>
+        <v>59.99999999999858</v>
       </c>
       <c r="L987" t="n">
         <v>6.177000000000019</v>
@@ -50278,7 +50096,7 @@
         <v>6.759999999999997</v>
       </c>
       <c r="K988" t="n">
-        <v>56.52173913043441</v>
+        <v>66.66666666666518</v>
       </c>
       <c r="L988" t="n">
         <v>6.18100000000002</v>
@@ -50329,7 +50147,7 @@
         <v>6.769999999999997</v>
       </c>
       <c r="K989" t="n">
-        <v>47.82608695652161</v>
+        <v>42.85714285714249</v>
       </c>
       <c r="L989" t="n">
         <v>6.184000000000021</v>
@@ -50380,7 +50198,7 @@
         <v>6.769999999999997</v>
       </c>
       <c r="K990" t="n">
-        <v>47.82608695652161</v>
+        <v>42.85714285714249</v>
       </c>
       <c r="L990" t="n">
         <v>6.187000000000021</v>
@@ -50431,7 +50249,7 @@
         <v>6.799999999999996</v>
       </c>
       <c r="K991" t="n">
-        <v>42.85714285714262</v>
+        <v>42.85714285714177</v>
       </c>
       <c r="L991" t="n">
         <v>6.193000000000021</v>
@@ -50482,7 +50300,7 @@
         <v>6.819999999999996</v>
       </c>
       <c r="K992" t="n">
-        <v>23.80952380952373</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L992" t="n">
         <v>6.194000000000021</v>
@@ -50533,7 +50351,7 @@
         <v>6.829999999999996</v>
       </c>
       <c r="K993" t="n">
-        <v>5.263157894737187</v>
+        <v>0</v>
       </c>
       <c r="L993" t="n">
         <v>6.194000000000021</v>
@@ -50584,7 +50402,7 @@
         <v>6.849999999999995</v>
       </c>
       <c r="K994" t="n">
-        <v>26.31578947368406</v>
+        <v>16.66666666666642</v>
       </c>
       <c r="L994" t="n">
         <v>6.196000000000021</v>
@@ -50635,7 +50453,7 @@
         <v>6.849999999999995</v>
       </c>
       <c r="K995" t="n">
-        <v>41.17647058823548</v>
+        <v>27.27272727272786</v>
       </c>
       <c r="L995" t="n">
         <v>6.19800000000002</v>
@@ -50686,7 +50504,7 @@
         <v>6.849999999999995</v>
       </c>
       <c r="K996" t="n">
-        <v>41.17647058823548</v>
+        <v>20</v>
       </c>
       <c r="L996" t="n">
         <v>6.20100000000002</v>
@@ -50737,7 +50555,7 @@
         <v>6.859999999999995</v>
       </c>
       <c r="K997" t="n">
-        <v>25.00000000000014</v>
+        <v>0</v>
       </c>
       <c r="L997" t="n">
         <v>6.202000000000019</v>
@@ -50788,7 +50606,7 @@
         <v>6.869999999999995</v>
       </c>
       <c r="K998" t="n">
-        <v>17.64705882352966</v>
+        <v>0</v>
       </c>
       <c r="L998" t="n">
         <v>6.201000000000019</v>
@@ -50839,7 +50657,7 @@
         <v>6.869999999999995</v>
       </c>
       <c r="K999" t="n">
-        <v>17.64705882352966</v>
+        <v>0</v>
       </c>
       <c r="L999" t="n">
         <v>6.201000000000019</v>
@@ -50890,7 +50708,7 @@
         <v>6.879999999999995</v>
       </c>
       <c r="K1000" t="n">
-        <v>22.22222222222239</v>
+        <v>-25</v>
       </c>
       <c r="L1000" t="n">
         <v>6.202000000000019</v>
@@ -50941,7 +50759,7 @@
         <v>6.879999999999995</v>
       </c>
       <c r="K1001" t="n">
-        <v>22.22222222222239</v>
+        <v>0</v>
       </c>
       <c r="L1001" t="n">
         <v>6.20000000000002</v>
@@ -50992,7 +50810,7 @@
         <v>6.879999999999995</v>
       </c>
       <c r="K1002" t="n">
-        <v>6.666666666666588</v>
+        <v>20</v>
       </c>
       <c r="L1002" t="n">
         <v>6.20000000000002</v>
@@ -51043,7 +50861,7 @@
         <v>6.889999999999994</v>
       </c>
       <c r="K1003" t="n">
-        <v>12.49999999999986</v>
+        <v>0</v>
       </c>
       <c r="L1003" t="n">
         <v>6.202000000000019</v>
@@ -51094,7 +50912,7 @@
         <v>6.899999999999994</v>
       </c>
       <c r="K1004" t="n">
-        <v>5.88235294117641</v>
+        <v>-20</v>
       </c>
       <c r="L1004" t="n">
         <v>6.20100000000002</v>
@@ -51145,7 +50963,7 @@
         <v>6.899999999999994</v>
       </c>
       <c r="K1005" t="n">
-        <v>5.88235294117641</v>
+        <v>-20</v>
       </c>
       <c r="L1005" t="n">
         <v>6.200000000000019</v>
@@ -51196,7 +51014,7 @@
         <v>6.899999999999994</v>
       </c>
       <c r="K1006" t="n">
-        <v>12.50000000000048</v>
+        <v>0</v>
       </c>
       <c r="L1006" t="n">
         <v>6.199000000000018</v>
@@ -51247,7 +51065,7 @@
         <v>6.899999999999994</v>
       </c>
       <c r="K1007" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1007" t="n">
         <v>6.199000000000018</v>
@@ -51298,7 +51116,7 @@
         <v>6.909999999999994</v>
       </c>
       <c r="K1008" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L1008" t="n">
         <v>6.199000000000018</v>
@@ -51349,7 +51167,7 @@
         <v>6.919999999999995</v>
       </c>
       <c r="K1009" t="n">
-        <v>-6.666666666667219</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L1009" t="n">
         <v>6.198000000000019</v>
@@ -51400,7 +51218,7 @@
         <v>6.939999999999994</v>
       </c>
       <c r="K1010" t="n">
-        <v>-17.64705882352984</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L1010" t="n">
         <v>6.194000000000019</v>
@@ -51451,7 +51269,7 @@
         <v>6.939999999999994</v>
       </c>
       <c r="K1011" t="n">
-        <v>-42.85714285714322</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L1011" t="n">
         <v>6.190000000000017</v>
@@ -51502,7 +51320,7 @@
         <v>6.949999999999994</v>
       </c>
       <c r="K1012" t="n">
-        <v>-23.0769230769236</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L1012" t="n">
         <v>6.187000000000017</v>
@@ -51553,7 +51371,7 @@
         <v>6.949999999999994</v>
       </c>
       <c r="K1013" t="n">
-        <v>-16.66666666666729</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L1013" t="n">
         <v>6.183000000000018</v>
@@ -51604,7 +51422,7 @@
         <v>6.959999999999994</v>
       </c>
       <c r="K1014" t="n">
-        <v>-45.45454545454589</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L1014" t="n">
         <v>6.179000000000018</v>
@@ -51655,7 +51473,7 @@
         <v>6.969999999999994</v>
       </c>
       <c r="K1015" t="n">
-        <v>-50.00000000000037</v>
+        <v>-71.4285714285718</v>
       </c>
       <c r="L1015" t="n">
         <v>6.174000000000018</v>
@@ -51706,7 +51524,7 @@
         <v>6.979999999999993</v>
       </c>
       <c r="K1016" t="n">
-        <v>-38.46153846153888</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L1016" t="n">
         <v>6.170000000000018</v>
@@ -51757,7 +51575,7 @@
         <v>6.989999999999993</v>
       </c>
       <c r="K1017" t="n">
-        <v>-38.46153846153888</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L1017" t="n">
         <v>6.165000000000018</v>
@@ -51808,7 +51626,7 @@
         <v>6.999999999999993</v>
       </c>
       <c r="K1018" t="n">
-        <v>-23.0769230769236</v>
+        <v>-25</v>
       </c>
       <c r="L1018" t="n">
         <v>6.162000000000018</v>
@@ -51859,7 +51677,7 @@
         <v>7.009999999999993</v>
       </c>
       <c r="K1019" t="n">
-        <v>-28.57142857142902</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L1019" t="n">
         <v>6.159000000000018</v>
@@ -51910,7 +51728,7 @@
         <v>7.009999999999993</v>
       </c>
       <c r="K1020" t="n">
-        <v>-38.46153846153888</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L1020" t="n">
         <v>6.158000000000018</v>
@@ -51961,7 +51779,7 @@
         <v>7.109999999999993</v>
       </c>
       <c r="K1021" t="n">
-        <v>-65.21739130434835</v>
+        <v>-75.00000000000043</v>
       </c>
       <c r="L1021" t="n">
         <v>6.147000000000018</v>
@@ -52012,7 +51830,7 @@
         <v>7.159999999999993</v>
       </c>
       <c r="K1022" t="n">
-        <v>-35.7142857142861</v>
+        <v>-33.33333333333361</v>
       </c>
       <c r="L1022" t="n">
         <v>6.140000000000017</v>
@@ -52063,7 +51881,7 @@
         <v>7.189999999999992</v>
       </c>
       <c r="K1023" t="n">
-        <v>-46.66666666666686</v>
+        <v>-39.13043478260887</v>
       </c>
       <c r="L1023" t="n">
         <v>6.130000000000017</v>
@@ -52114,7 +51932,7 @@
         <v>7.209999999999992</v>
       </c>
       <c r="K1024" t="n">
-        <v>-35.48387096774228</v>
+        <v>-25.00000000000037</v>
       </c>
       <c r="L1024" t="n">
         <v>6.123000000000017</v>
@@ -52165,7 +51983,7 @@
         <v>7.229999999999992</v>
       </c>
       <c r="K1025" t="n">
-        <v>-39.39393939393967</v>
+        <v>-36.0000000000002</v>
       </c>
       <c r="L1025" t="n">
         <v>6.115000000000018</v>
@@ -52216,7 +52034,7 @@
         <v>7.249999999999991</v>
       </c>
       <c r="K1026" t="n">
-        <v>-31.42857142857179</v>
+        <v>-23.07692307692345</v>
       </c>
       <c r="L1026" t="n">
         <v>6.108000000000018</v>
@@ -52267,7 +52085,7 @@
         <v>7.249999999999991</v>
       </c>
       <c r="K1027" t="n">
-        <v>-31.42857142857179</v>
+        <v>-28.00000000000031</v>
       </c>
       <c r="L1027" t="n">
         <v>6.102000000000019</v>
@@ -52318,7 +52136,7 @@
         <v>7.249999999999991</v>
       </c>
       <c r="K1028" t="n">
-        <v>-29.41176470588275</v>
+        <v>-25.00000000000037</v>
       </c>
       <c r="L1028" t="n">
         <v>6.095000000000018</v>
@@ -52369,7 +52187,7 @@
         <v>7.249999999999991</v>
       </c>
       <c r="K1029" t="n">
-        <v>-27.27272727272751</v>
+        <v>-25.00000000000037</v>
       </c>
       <c r="L1029" t="n">
         <v>6.089000000000019</v>
@@ -52420,7 +52238,7 @@
         <v>7.259999999999991</v>
       </c>
       <c r="K1030" t="n">
-        <v>-25.00000000000028</v>
+        <v>20.00000000000047</v>
       </c>
       <c r="L1030" t="n">
         <v>6.08200000000002</v>
@@ -52471,7 +52289,7 @@
         <v>7.259999999999991</v>
       </c>
       <c r="K1031" t="n">
-        <v>-25.00000000000028</v>
+        <v>-20</v>
       </c>
       <c r="L1031" t="n">
         <v>6.08500000000002</v>
@@ -52522,7 +52340,7 @@
         <v>7.259999999999991</v>
       </c>
       <c r="K1032" t="n">
-        <v>-29.03225806451637</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L1032" t="n">
         <v>6.083000000000021</v>
@@ -52573,7 +52391,7 @@
         <v>7.259999999999991</v>
       </c>
       <c r="K1033" t="n">
-        <v>-29.03225806451637</v>
+        <v>-20</v>
       </c>
       <c r="L1033" t="n">
         <v>6.084000000000021</v>
@@ -52624,7 +52442,7 @@
         <v>7.259999999999991</v>
       </c>
       <c r="K1034" t="n">
-        <v>-26.66666666666694</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1034" t="n">
         <v>6.083000000000022</v>
@@ -52675,7 +52493,7 @@
         <v>7.269999999999991</v>
       </c>
       <c r="K1035" t="n">
-        <v>-20.00000000000036</v>
+        <v>0</v>
       </c>
       <c r="L1035" t="n">
         <v>6.085000000000021</v>
@@ -52726,7 +52544,7 @@
         <v>7.27999999999999</v>
       </c>
       <c r="K1036" t="n">
-        <v>-20.00000000000036</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1036" t="n">
         <v>6.086000000000022</v>
@@ -52777,7 +52595,7 @@
         <v>7.28999999999999</v>
       </c>
       <c r="K1037" t="n">
-        <v>-20.00000000000036</v>
+        <v>0</v>
       </c>
       <c r="L1037" t="n">
         <v>6.086000000000022</v>
@@ -52828,7 +52646,7 @@
         <v>7.309999999999991</v>
       </c>
       <c r="K1038" t="n">
-        <v>-16.12903225806457</v>
+        <v>33.33333333333432</v>
       </c>
       <c r="L1038" t="n">
         <v>6.088000000000021</v>
@@ -52879,7 +52697,7 @@
         <v>7.319999999999991</v>
       </c>
       <c r="K1039" t="n">
-        <v>-9.677419354838857</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L1039" t="n">
         <v>6.091000000000021</v>
@@ -52930,7 +52748,7 @@
         <v>7.32999999999999</v>
       </c>
       <c r="K1040" t="n">
-        <v>-6.250000000000192</v>
+        <v>71.4285714285718</v>
       </c>
       <c r="L1040" t="n">
         <v>6.096000000000021</v>
@@ -52981,7 +52799,7 @@
         <v>7.33999999999999</v>
       </c>
       <c r="K1041" t="n">
-        <v>39.13043478260916</v>
+        <v>75.00000000000028</v>
       </c>
       <c r="L1041" t="n">
         <v>6.102000000000021</v>
@@ -53032,7 +52850,7 @@
         <v>7.33999999999999</v>
       </c>
       <c r="K1042" t="n">
-        <v>22.22222222222261</v>
+        <v>75.00000000000028</v>
       </c>
       <c r="L1042" t="n">
         <v>6.108000000000021</v>
@@ -53083,7 +52901,7 @@
         <v>7.33999999999999</v>
       </c>
       <c r="K1043" t="n">
-        <v>46.66666666666698</v>
+        <v>75.00000000000028</v>
       </c>
       <c r="L1043" t="n">
         <v>6.114000000000021</v>
@@ -53134,7 +52952,7 @@
         <v>7.33999999999999</v>
       </c>
       <c r="K1044" t="n">
-        <v>38.46153846153888</v>
+        <v>71.4285714285718</v>
       </c>
       <c r="L1044" t="n">
         <v>6.120000000000021</v>
@@ -53185,7 +53003,7 @@
         <v>7.33999999999999</v>
       </c>
       <c r="K1045" t="n">
-        <v>63.63636363636394</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L1045" t="n">
         <v>6.125000000000021</v>
@@ -53236,7 +53054,7 @@
         <v>7.34999999999999</v>
       </c>
       <c r="K1046" t="n">
-        <v>40.00000000000053</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L1046" t="n">
         <v>6.128000000000021</v>
@@ -53287,7 +53105,7 @@
         <v>7.35999999999999</v>
       </c>
       <c r="K1047" t="n">
-        <v>27.27272727272786</v>
+        <v>20</v>
       </c>
       <c r="L1047" t="n">
         <v>6.13100000000002</v>
@@ -53338,7 +53156,7 @@
         <v>7.35999999999999</v>
       </c>
       <c r="K1048" t="n">
-        <v>27.27272727272786</v>
+        <v>0</v>
       </c>
       <c r="L1048" t="n">
         <v>6.132000000000021</v>
@@ -53389,7 +53207,7 @@
         <v>7.35999999999999</v>
       </c>
       <c r="K1049" t="n">
-        <v>27.27272727272786</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1049" t="n">
         <v>6.132000000000021</v>
@@ -53440,7 +53258,7 @@
         <v>7.369999999999989</v>
       </c>
       <c r="K1050" t="n">
-        <v>45.45454545454589</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1050" t="n">
         <v>6.132000000000021</v>
@@ -53491,7 +53309,7 @@
         <v>7.369999999999989</v>
       </c>
       <c r="K1051" t="n">
-        <v>45.45454545454589</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1051" t="n">
         <v>6.131000000000022</v>
@@ -53542,7 +53360,7 @@
         <v>7.379999999999989</v>
       </c>
       <c r="K1052" t="n">
-        <v>33.33333333333383</v>
+        <v>-50</v>
       </c>
       <c r="L1052" t="n">
         <v>6.129000000000022</v>
@@ -53593,7 +53411,7 @@
         <v>7.379999999999989</v>
       </c>
       <c r="K1053" t="n">
-        <v>33.33333333333383</v>
+        <v>-50</v>
       </c>
       <c r="L1053" t="n">
         <v>6.127000000000022</v>
@@ -53644,7 +53462,7 @@
         <v>7.379999999999989</v>
       </c>
       <c r="K1054" t="n">
-        <v>33.33333333333383</v>
+        <v>-50</v>
       </c>
       <c r="L1054" t="n">
         <v>6.125000000000023</v>
@@ -53695,7 +53513,7 @@
         <v>7.389999999999989</v>
       </c>
       <c r="K1055" t="n">
-        <v>16.66666666666729</v>
+        <v>-50</v>
       </c>
       <c r="L1055" t="n">
         <v>6.122000000000023</v>
@@ -53746,7 +53564,7 @@
         <v>7.389999999999989</v>
       </c>
       <c r="K1056" t="n">
-        <v>9.090909090909825</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1056" t="n">
         <v>6.120000000000022</v>

--- a/BackTest/2019-10-18 BackTest CON.xlsx
+++ b/BackTest/2019-10-18 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>5.58</v>
@@ -521,7 +521,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>5.58</v>
@@ -562,7 +562,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>5.58</v>
@@ -603,7 +603,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>5.58</v>
@@ -640,7 +640,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>5.58</v>
@@ -681,7 +681,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>5.58</v>
@@ -722,7 +722,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>5.58</v>
@@ -759,7 +759,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>5.58</v>
@@ -800,7 +800,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>5.58</v>
@@ -841,7 +841,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>5.58</v>
@@ -878,7 +878,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>5.58</v>
@@ -919,7 +919,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>5.58</v>
@@ -960,7 +960,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>5.58</v>
@@ -997,7 +997,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>5.58</v>
@@ -1038,7 +1038,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>5.58</v>
@@ -1079,7 +1079,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>5.58</v>
@@ -1116,7 +1116,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>5.58</v>
@@ -1157,7 +1157,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>5.58</v>
@@ -1198,7 +1198,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>5.58</v>
@@ -1235,7 +1235,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>5.58</v>
@@ -1276,7 +1276,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>5.58</v>
@@ -1317,7 +1317,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>5.58</v>
@@ -1354,7 +1354,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>5.58</v>
@@ -1395,7 +1395,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>5.58</v>
@@ -1436,7 +1436,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>5.58</v>
@@ -1473,7 +1473,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>5.58</v>
@@ -1514,7 +1514,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>5.58</v>
@@ -1555,7 +1555,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>5.58</v>
@@ -1592,7 +1592,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>5.58</v>
@@ -1633,7 +1633,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>5.58</v>
@@ -1674,7 +1674,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>5.58</v>
@@ -1711,7 +1711,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>5.58</v>
@@ -1752,7 +1752,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>5.58</v>
@@ -1793,7 +1793,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>5.58</v>
@@ -1830,7 +1830,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>5.58</v>
@@ -1871,7 +1871,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>5.58</v>
@@ -1912,7 +1912,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>5.58</v>
@@ -1949,7 +1949,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>5.58</v>
@@ -1990,7 +1990,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>5.58</v>
@@ -2031,7 +2031,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>5.58</v>
@@ -2068,7 +2068,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>5.58</v>
@@ -2109,7 +2109,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>5.58</v>
@@ -2150,7 +2150,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>5.58</v>
@@ -2187,7 +2187,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>5.58</v>
@@ -2228,7 +2228,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>5.58</v>
@@ -2269,7 +2269,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>5.58</v>
@@ -2306,7 +2306,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>5.58</v>
@@ -2347,7 +2347,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>5.58</v>
@@ -2388,7 +2388,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>5.58</v>
@@ -2425,7 +2425,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>5.58</v>
@@ -2466,7 +2466,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>5.58</v>
@@ -2507,7 +2507,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>5.58</v>
@@ -2544,7 +2544,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>5.58</v>
@@ -2585,7 +2585,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>5.58</v>
@@ -2626,7 +2626,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>5.58</v>
@@ -2663,7 +2663,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>5.58</v>
@@ -2704,7 +2704,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>5.58</v>
@@ -2745,7 +2745,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>5.58</v>
@@ -2782,7 +2782,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>5.58</v>
@@ -2823,7 +2823,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>5.58</v>
@@ -2864,7 +2864,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>5.58</v>
@@ -2901,7 +2901,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>5.58</v>
@@ -2942,7 +2942,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>5.58</v>
@@ -2983,7 +2983,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>5.58</v>
@@ -3020,7 +3020,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>5.58</v>
@@ -3061,7 +3061,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>5.58</v>
@@ -3102,7 +3102,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>5.58</v>
@@ -3139,7 +3139,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>5.58</v>
@@ -3180,7 +3180,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>5.58</v>
@@ -3221,7 +3221,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>5.58</v>
@@ -3258,7 +3258,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>5.58</v>
@@ -3299,7 +3299,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>5.58</v>
@@ -3340,7 +3340,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>5.58</v>
@@ -3377,7 +3377,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>5.58</v>
@@ -3418,7 +3418,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>5.58</v>
@@ -3459,7 +3459,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>5.58</v>
@@ -3496,7 +3496,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>5.58</v>
@@ -3537,7 +3537,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>5.58</v>
@@ -3578,7 +3578,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>5.58</v>
@@ -3615,7 +3615,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>5.58</v>
@@ -3656,7 +3656,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>5.58</v>
@@ -3697,7 +3697,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>5.58</v>
@@ -3734,7 +3734,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>5.58</v>
@@ -3775,7 +3775,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>5.58</v>
@@ -3816,7 +3816,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>5.58</v>
@@ -3853,7 +3853,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>5.58</v>
@@ -3894,7 +3894,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>5.58</v>
@@ -3935,7 +3935,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>5.58</v>
@@ -3972,7 +3972,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>5.58</v>
@@ -4013,7 +4013,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>5.58</v>
@@ -4054,7 +4054,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>5.58</v>
@@ -4091,7 +4091,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>5.58</v>
@@ -4132,7 +4132,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>5.58</v>
@@ -4173,7 +4173,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>5.58</v>
@@ -4210,7 +4210,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>5.58</v>
@@ -4251,7 +4251,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>5.58</v>
@@ -4292,7 +4292,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>5.58</v>
@@ -4329,7 +4329,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>5.58</v>
@@ -4370,7 +4370,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>5.58</v>
@@ -4411,7 +4411,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>5.58</v>
@@ -4448,7 +4448,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>5.58</v>
@@ -4489,7 +4489,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>5.58</v>
@@ -4530,7 +4530,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>5.58</v>
@@ -4567,7 +4567,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>5.58</v>
@@ -4608,7 +4608,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>5.58</v>
@@ -4649,7 +4649,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>5.58</v>
@@ -4686,7 +4686,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>5.58</v>
@@ -4727,7 +4727,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>5.58</v>
@@ -4768,7 +4768,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>5.58</v>
@@ -4805,7 +4805,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>5.58</v>
@@ -4846,7 +4846,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>5.58</v>
@@ -4887,7 +4887,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>5.58</v>
@@ -4924,7 +4924,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>5.58</v>
@@ -4965,7 +4965,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>5.58</v>
@@ -5006,7 +5006,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>5.58</v>
@@ -5043,7 +5043,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>5.58</v>
@@ -5084,7 +5084,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>5.58</v>
@@ -5125,7 +5125,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>5.58</v>
@@ -5162,7 +5162,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>5.58</v>
@@ -5203,7 +5203,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>5.58</v>
@@ -5244,7 +5244,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>5.58</v>
@@ -5281,7 +5281,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>5.58</v>
@@ -5322,7 +5322,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>5.58</v>
@@ -5363,7 +5363,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>5.58</v>
@@ -5400,7 +5400,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>5.58</v>
@@ -5441,7 +5441,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>5.58</v>
@@ -5482,7 +5482,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>5.58</v>
@@ -5519,7 +5519,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>5.58</v>
@@ -5560,7 +5560,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>5.58</v>
@@ -5601,7 +5601,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>5.58</v>
@@ -5638,7 +5638,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>5.58</v>
@@ -5679,7 +5679,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>5.58</v>
@@ -5720,7 +5720,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>5.58</v>
@@ -5757,7 +5757,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>5.58</v>
@@ -5798,7 +5798,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>5.58</v>
@@ -5839,7 +5839,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>5.58</v>
@@ -5876,7 +5876,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>5.58</v>
@@ -5917,7 +5917,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>5.58</v>
@@ -5958,7 +5958,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>5.58</v>
@@ -5995,7 +5995,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>5.58</v>
@@ -6036,7 +6036,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>5.58</v>
@@ -6077,7 +6077,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>5.58</v>
@@ -6114,7 +6114,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>5.58</v>
@@ -6155,7 +6155,7 @@
         <v>-71242.14290000004</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>5.58</v>
@@ -6196,7 +6196,7 @@
         <v>-152993.6726</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>5.58</v>
@@ -6237,7 +6237,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>5.57</v>
@@ -6278,7 +6278,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>5.58</v>
@@ -6319,7 +6319,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>5.58</v>
@@ -6360,7 +6360,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>5.58</v>
@@ -6401,7 +6401,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>5.58</v>
@@ -6442,7 +6442,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>5.58</v>
@@ -6483,7 +6483,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>5.58</v>
@@ -6524,7 +6524,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>5.58</v>
@@ -6565,7 +6565,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>5.58</v>
@@ -6606,7 +6606,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>5.58</v>
@@ -6647,7 +6647,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>5.58</v>
@@ -6688,7 +6688,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>5.58</v>
@@ -6729,7 +6729,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>5.58</v>
@@ -6770,7 +6770,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>5.58</v>
@@ -6811,7 +6811,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>5.58</v>
@@ -6852,7 +6852,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>5.58</v>
@@ -6893,7 +6893,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>5.58</v>
@@ -6934,7 +6934,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>5.58</v>
@@ -6975,7 +6975,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>5.58</v>
@@ -7016,7 +7016,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>5.58</v>
@@ -7057,7 +7057,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>5.58</v>
@@ -7098,7 +7098,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>5.58</v>
@@ -7139,7 +7139,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>5.58</v>
@@ -7180,7 +7180,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>5.58</v>
@@ -7221,7 +7221,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>5.58</v>
@@ -7262,7 +7262,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>5.58</v>
@@ -7303,7 +7303,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>5.58</v>
@@ -7344,7 +7344,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>5.58</v>
@@ -7385,7 +7385,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>5.58</v>
@@ -7426,7 +7426,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>5.58</v>
@@ -7467,7 +7467,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>5.58</v>
@@ -7508,7 +7508,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>5.58</v>
@@ -7549,7 +7549,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>5.58</v>
@@ -7590,7 +7590,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>5.58</v>
@@ -7631,7 +7631,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>5.58</v>
@@ -7672,7 +7672,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>5.58</v>
@@ -7713,7 +7713,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>5.58</v>
@@ -7754,7 +7754,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>5.58</v>
@@ -7795,7 +7795,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>5.58</v>
@@ -7836,7 +7836,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>5.58</v>
@@ -7877,7 +7877,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>5.58</v>
@@ -7918,7 +7918,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>5.58</v>
@@ -7959,7 +7959,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>5.58</v>
@@ -8000,7 +8000,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>5.58</v>
@@ -8041,7 +8041,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>5.58</v>
@@ -8082,7 +8082,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>5.58</v>
@@ -8123,7 +8123,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>5.58</v>
@@ -8164,7 +8164,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>5.58</v>
@@ -8205,7 +8205,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>5.58</v>
@@ -8246,7 +8246,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>5.58</v>
@@ -8287,7 +8287,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>5.58</v>
@@ -8328,7 +8328,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>5.58</v>
@@ -8369,7 +8369,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>5.58</v>
@@ -8410,7 +8410,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>5.58</v>
@@ -8451,7 +8451,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>5.58</v>
@@ -8492,7 +8492,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>5.58</v>
@@ -8533,7 +8533,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>5.58</v>
@@ -8574,7 +8574,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>5.58</v>
@@ -8615,7 +8615,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>5.58</v>
@@ -8656,7 +8656,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>5.58</v>
@@ -8697,7 +8697,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>5.58</v>
@@ -8738,7 +8738,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>5.58</v>
@@ -8779,7 +8779,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>5.58</v>
@@ -8820,7 +8820,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>5.58</v>
@@ -8861,7 +8861,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>5.58</v>
@@ -8902,7 +8902,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>5.58</v>
@@ -8943,7 +8943,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>5.58</v>
@@ -8984,7 +8984,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>5.58</v>
@@ -9025,7 +9025,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>5.58</v>
@@ -9066,7 +9066,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>5.58</v>
@@ -9107,7 +9107,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>5.58</v>
@@ -9148,7 +9148,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>5.58</v>
@@ -9189,7 +9189,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>5.58</v>
@@ -9230,7 +9230,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>5.58</v>
@@ -9271,7 +9271,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>5.58</v>
@@ -9312,7 +9312,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>5.58</v>
@@ -9353,7 +9353,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>5.58</v>
@@ -9394,7 +9394,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>5.58</v>
@@ -9435,7 +9435,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>5.58</v>
@@ -9476,7 +9476,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>5.58</v>
@@ -9517,7 +9517,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>5.58</v>
@@ -9558,7 +9558,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>5.58</v>
@@ -9599,7 +9599,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>5.58</v>
@@ -9640,7 +9640,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>5.58</v>
@@ -9681,7 +9681,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>5.58</v>
@@ -9722,7 +9722,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>5.58</v>
@@ -9763,7 +9763,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>5.58</v>
@@ -9804,7 +9804,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>5.58</v>
@@ -9845,7 +9845,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>5.58</v>
@@ -9886,7 +9886,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>5.58</v>
@@ -9927,7 +9927,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>5.58</v>
@@ -9968,7 +9968,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>5.58</v>
@@ -10009,7 +10009,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>5.58</v>
@@ -10050,7 +10050,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>5.58</v>
@@ -10091,7 +10091,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>5.58</v>
@@ -10132,7 +10132,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>5.58</v>
@@ -10173,7 +10173,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>5.58</v>
@@ -10214,7 +10214,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>5.58</v>
@@ -10255,7 +10255,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>5.58</v>
@@ -10296,7 +10296,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>5.58</v>
@@ -10337,7 +10337,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>5.58</v>
@@ -10378,7 +10378,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>5.58</v>
@@ -10419,7 +10419,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>5.58</v>
@@ -10460,7 +10460,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>5.58</v>
@@ -10501,7 +10501,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>5.58</v>
@@ -10542,7 +10542,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>5.58</v>
@@ -10583,7 +10583,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>5.58</v>
@@ -10624,7 +10624,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>5.58</v>
@@ -10665,7 +10665,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>5.58</v>
@@ -10706,7 +10706,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>5.58</v>
@@ -10747,7 +10747,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>5.58</v>
@@ -10788,7 +10788,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>5.58</v>
@@ -10829,7 +10829,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>5.58</v>
@@ -10870,7 +10870,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>5.58</v>
@@ -10911,7 +10911,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>5.58</v>
@@ -10952,7 +10952,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>5.58</v>
@@ -10993,7 +10993,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>5.58</v>
@@ -11034,7 +11034,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>5.58</v>
@@ -11075,7 +11075,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>5.58</v>
@@ -11116,7 +11116,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>5.58</v>
@@ -11157,7 +11157,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>5.58</v>
@@ -11198,7 +11198,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>5.58</v>
@@ -11239,7 +11239,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>5.58</v>
@@ -11280,7 +11280,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>5.58</v>
@@ -11321,7 +11321,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>5.58</v>
@@ -11362,7 +11362,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>5.58</v>
@@ -11403,7 +11403,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>5.58</v>
@@ -11444,7 +11444,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>5.58</v>
@@ -11485,7 +11485,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>5.58</v>
@@ -11526,7 +11526,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>5.58</v>
@@ -11567,7 +11567,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>5.58</v>
@@ -11608,7 +11608,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>5.58</v>
@@ -11649,7 +11649,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>5.58</v>
@@ -11690,7 +11690,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>5.58</v>
@@ -11731,7 +11731,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>5.58</v>
@@ -11772,7 +11772,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>5.58</v>
@@ -11813,7 +11813,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>5.58</v>
@@ -11854,7 +11854,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>5.58</v>
@@ -11895,7 +11895,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>5.58</v>
@@ -11936,7 +11936,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>5.58</v>
@@ -11977,7 +11977,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>5.58</v>
@@ -12018,7 +12018,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>5.58</v>
@@ -12059,7 +12059,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>5.58</v>
@@ -12100,7 +12100,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>5.58</v>
@@ -12141,7 +12141,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>5.58</v>
@@ -12182,7 +12182,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>5.58</v>
@@ -12223,7 +12223,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>5.58</v>
@@ -12264,7 +12264,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>5.58</v>
@@ -12305,7 +12305,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>5.58</v>
@@ -12346,7 +12346,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>5.58</v>
@@ -12387,7 +12387,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>5.58</v>
@@ -12428,7 +12428,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>5.58</v>
@@ -12469,7 +12469,7 @@
         <v>228500.7682999999</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>5.58</v>
@@ -12510,7 +12510,7 @@
         <v>42617.38609999995</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>5.58</v>
@@ -12551,7 +12551,7 @@
         <v>126321.6535999999</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>5.57</v>
@@ -12592,7 +12592,7 @@
         <v>126321.6535999999</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>5.58</v>
@@ -12633,7 +12633,7 @@
         <v>126321.6535999999</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>5.58</v>
@@ -12674,7 +12674,7 @@
         <v>126321.6535999999</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>5.58</v>
@@ -12715,7 +12715,7 @@
         <v>126321.6535999999</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>5.58</v>
@@ -12756,7 +12756,7 @@
         <v>126321.6535999999</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>5.58</v>
@@ -12797,7 +12797,7 @@
         <v>126321.6535999999</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>5.58</v>
@@ -12838,7 +12838,7 @@
         <v>126321.6535999999</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>5.58</v>
@@ -12879,7 +12879,7 @@
         <v>126321.6535999999</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>5.58</v>
@@ -12920,7 +12920,7 @@
         <v>126321.6535999999</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>5.58</v>
@@ -12961,7 +12961,7 @@
         <v>126311.5998</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>5.58</v>
@@ -13002,7 +13002,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>5.57</v>
@@ -13043,7 +13043,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314" t="n">
         <v>5.58</v>
@@ -13084,7 +13084,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>5.58</v>
@@ -13125,7 +13125,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>5.58</v>
@@ -13166,7 +13166,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>5.58</v>
@@ -13207,7 +13207,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>5.58</v>
@@ -13248,7 +13248,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>5.58</v>
@@ -13289,7 +13289,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320" t="n">
         <v>5.58</v>
@@ -13330,7 +13330,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I321" t="n">
         <v>5.58</v>
@@ -13371,7 +13371,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I322" t="n">
         <v>5.58</v>
@@ -13412,7 +13412,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323" t="n">
         <v>5.58</v>
@@ -13453,7 +13453,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>5.58</v>
@@ -13494,7 +13494,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>5.58</v>
@@ -13535,7 +13535,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>5.58</v>
@@ -13576,7 +13576,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I327" t="n">
         <v>5.58</v>
@@ -13617,7 +13617,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I328" t="n">
         <v>5.58</v>
@@ -13658,7 +13658,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I329" t="n">
         <v>5.58</v>
@@ -13699,7 +13699,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I330" t="n">
         <v>5.58</v>
@@ -13740,7 +13740,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I331" t="n">
         <v>5.58</v>
@@ -13781,7 +13781,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I332" t="n">
         <v>5.58</v>
@@ -13822,7 +13822,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I333" t="n">
         <v>5.58</v>
@@ -13863,7 +13863,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I334" t="n">
         <v>5.58</v>
@@ -13904,7 +13904,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I335" t="n">
         <v>5.58</v>
@@ -13945,7 +13945,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I336" t="n">
         <v>5.58</v>
@@ -13986,7 +13986,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I337" t="n">
         <v>5.58</v>
@@ -14027,7 +14027,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I338" t="n">
         <v>5.58</v>
@@ -14068,7 +14068,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339" t="n">
         <v>5.58</v>
@@ -14109,7 +14109,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I340" t="n">
         <v>5.58</v>
@@ -14150,7 +14150,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I341" t="n">
         <v>5.58</v>
@@ -14191,7 +14191,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I342" t="n">
         <v>5.58</v>
@@ -14232,7 +14232,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I343" t="n">
         <v>5.58</v>
@@ -14273,7 +14273,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I344" t="n">
         <v>5.58</v>
@@ -14314,7 +14314,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I345" t="n">
         <v>5.58</v>
@@ -14355,7 +14355,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I346" t="n">
         <v>5.58</v>
@@ -14396,7 +14396,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347" t="n">
         <v>5.58</v>
@@ -14437,7 +14437,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348" t="n">
         <v>5.58</v>
@@ -14478,7 +14478,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I349" t="n">
         <v>5.58</v>
@@ -14519,7 +14519,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I350" t="n">
         <v>5.58</v>
@@ -14560,7 +14560,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I351" t="n">
         <v>5.58</v>
@@ -14601,7 +14601,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I352" t="n">
         <v>5.58</v>
@@ -14642,7 +14642,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I353" t="n">
         <v>5.58</v>
@@ -14683,7 +14683,7 @@
         <v>260500.1232</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I354" t="n">
         <v>5.58</v>
@@ -14724,7 +14724,7 @@
         <v>83834.68409999998</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I355" t="n">
         <v>5.58</v>
@@ -14765,7 +14765,7 @@
         <v>316716.862</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I356" t="n">
         <v>5.57</v>
@@ -14806,7 +14806,7 @@
         <v>316716.862</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I357" t="n">
         <v>5.58</v>
@@ -14847,7 +14847,7 @@
         <v>316716.862</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I358" t="n">
         <v>5.58</v>
@@ -14888,7 +14888,7 @@
         <v>316716.862</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I359" t="n">
         <v>5.58</v>
@@ -14929,7 +14929,7 @@
         <v>316716.862</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I360" t="n">
         <v>5.58</v>
@@ -14970,7 +14970,7 @@
         <v>316716.862</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I361" t="n">
         <v>5.58</v>
@@ -15011,7 +15011,7 @@
         <v>316716.862</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I362" t="n">
         <v>5.58</v>
@@ -15052,7 +15052,7 @@
         <v>316716.862</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I363" t="n">
         <v>5.58</v>
@@ -15093,7 +15093,7 @@
         <v>316716.862</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I364" t="n">
         <v>5.58</v>
@@ -15134,7 +15134,7 @@
         <v>316716.862</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I365" t="n">
         <v>5.58</v>
@@ -15175,7 +15175,7 @@
         <v>316716.862</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I366" t="n">
         <v>5.58</v>
@@ -15216,7 +15216,7 @@
         <v>316716.862</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I367" t="n">
         <v>5.58</v>
@@ -15257,7 +15257,7 @@
         <v>316716.862</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I368" t="n">
         <v>5.58</v>
@@ -15298,7 +15298,7 @@
         <v>316716.862</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I369" t="n">
         <v>5.58</v>
@@ -15339,7 +15339,7 @@
         <v>316716.862</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I370" t="n">
         <v>5.58</v>
@@ -15380,7 +15380,7 @@
         <v>316716.862</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I371" t="n">
         <v>5.58</v>
@@ -15421,7 +15421,7 @@
         <v>316716.862</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I372" t="n">
         <v>5.58</v>
@@ -15462,7 +15462,7 @@
         <v>316716.862</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I373" t="n">
         <v>5.58</v>
@@ -15503,7 +15503,7 @@
         <v>316716.862</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I374" t="n">
         <v>5.58</v>
@@ -15544,7 +15544,7 @@
         <v>316716.862</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I375" t="n">
         <v>5.58</v>
@@ -15585,7 +15585,7 @@
         <v>316716.862</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I376" t="n">
         <v>5.58</v>
@@ -15626,7 +15626,7 @@
         <v>316716.862</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I377" t="n">
         <v>5.58</v>
@@ -15667,7 +15667,7 @@
         <v>316716.862</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I378" t="n">
         <v>5.58</v>
@@ -15708,7 +15708,7 @@
         <v>316716.862</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379" t="n">
         <v>5.58</v>
@@ -15749,7 +15749,7 @@
         <v>316716.862</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I380" t="n">
         <v>5.58</v>
@@ -15790,7 +15790,7 @@
         <v>316716.862</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I381" t="n">
         <v>5.58</v>
@@ -15831,7 +15831,7 @@
         <v>316716.862</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I382" t="n">
         <v>5.58</v>
@@ -15872,7 +15872,7 @@
         <v>316716.862</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I383" t="n">
         <v>5.58</v>
@@ -15913,7 +15913,7 @@
         <v>316716.862</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I384" t="n">
         <v>5.58</v>
@@ -15954,7 +15954,7 @@
         <v>1126055.9513</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I385" t="n">
         <v>5.58</v>
@@ -15995,7 +15995,7 @@
         <v>1126055.9513</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I386" t="n">
         <v>5.59</v>
@@ -16036,7 +16036,7 @@
         <v>1126055.9513</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I387" t="n">
         <v>5.59</v>
@@ -16077,7 +16077,7 @@
         <v>1126055.9513</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I388" t="n">
         <v>5.59</v>
@@ -16118,7 +16118,7 @@
         <v>1126055.9513</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I389" t="n">
         <v>5.59</v>
@@ -16159,7 +16159,7 @@
         <v>1126055.9513</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I390" t="n">
         <v>5.59</v>
@@ -16200,7 +16200,7 @@
         <v>1044215.6481</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I391" t="n">
         <v>5.59</v>
@@ -16241,7 +16241,7 @@
         <v>1151878.162</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I392" t="n">
         <v>5.58</v>
@@ -16282,7 +16282,7 @@
         <v>1151878.162</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I393" t="n">
         <v>5.59</v>
@@ -16323,7 +16323,7 @@
         <v>-2167.099900000263</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I394" t="n">
         <v>5.59</v>
@@ -16364,7 +16364,7 @@
         <v>-2167.099900000263</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I395" t="n">
         <v>5.58</v>
@@ -16405,7 +16405,7 @@
         <v>-2167.099900000263</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I396" t="n">
         <v>5.58</v>
@@ -16446,7 +16446,7 @@
         <v>-2167.099900000263</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I397" t="n">
         <v>5.58</v>
@@ -16487,7 +16487,7 @@
         <v>-2167.099900000263</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I398" t="n">
         <v>5.58</v>
@@ -16528,7 +16528,7 @@
         <v>-2167.099900000263</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I399" t="n">
         <v>5.58</v>
@@ -16569,7 +16569,7 @@
         <v>-2167.099900000263</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I400" t="n">
         <v>5.58</v>
@@ -16610,7 +16610,7 @@
         <v>-2167.099900000263</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I401" t="n">
         <v>5.58</v>
@@ -16651,7 +16651,7 @@
         <v>122940.1462999997</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I402" t="n">
         <v>5.58</v>
@@ -16692,7 +16692,7 @@
         <v>122940.1462999997</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I403" t="n">
         <v>5.59</v>
@@ -16733,7 +16733,7 @@
         <v>122940.1462999997</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I404" t="n">
         <v>5.59</v>
@@ -16774,7 +16774,7 @@
         <v>122940.1462999997</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I405" t="n">
         <v>5.59</v>
@@ -16815,7 +16815,7 @@
         <v>122940.1462999997</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I406" t="n">
         <v>5.59</v>
@@ -16856,7 +16856,7 @@
         <v>122940.1462999997</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I407" t="n">
         <v>5.59</v>
@@ -16897,7 +16897,7 @@
         <v>122940.1462999997</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I408" t="n">
         <v>5.59</v>
@@ -16938,7 +16938,7 @@
         <v>275438.0007999997</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I409" t="n">
         <v>5.59</v>
@@ -16979,7 +16979,7 @@
         <v>390956.3161999997</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>5.6</v>
@@ -17020,7 +17020,7 @@
         <v>390956.3161999997</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>5.61</v>
@@ -17061,7 +17061,7 @@
         <v>-187214.1042000002</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>5.61</v>
@@ -17102,7 +17102,7 @@
         <v>65336.76959999977</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
         <v>5.54</v>
@@ -17143,7 +17143,7 @@
         <v>65336.76959999977</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I414" t="n">
         <v>5.57</v>
@@ -17184,7 +17184,7 @@
         <v>65336.76959999977</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I415" t="n">
         <v>5.57</v>
@@ -17225,7 +17225,7 @@
         <v>65336.76959999977</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I416" t="n">
         <v>5.57</v>
@@ -17266,7 +17266,7 @@
         <v>65336.76959999977</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
         <v>5.57</v>
@@ -17307,7 +17307,7 @@
         <v>65336.76959999977</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>5.57</v>
@@ -17348,7 +17348,7 @@
         <v>65336.76959999977</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I419" t="n">
         <v>5.57</v>
@@ -17389,7 +17389,7 @@
         <v>65336.76959999977</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I420" t="n">
         <v>5.57</v>
@@ -17430,7 +17430,7 @@
         <v>65336.76959999977</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I421" t="n">
         <v>5.57</v>
@@ -17471,7 +17471,7 @@
         <v>65336.76959999977</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I422" t="n">
         <v>5.57</v>
@@ -17512,7 +17512,7 @@
         <v>65336.76959999977</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I423" t="n">
         <v>5.57</v>
@@ -17553,7 +17553,7 @@
         <v>-351608.1712000002</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I424" t="n">
         <v>5.57</v>
@@ -17594,7 +17594,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I425" t="n">
         <v>5.56</v>
@@ -17635,7 +17635,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I426" t="n">
         <v>5.57</v>
@@ -17676,7 +17676,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I427" t="n">
         <v>5.57</v>
@@ -17717,7 +17717,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I428" t="n">
         <v>5.57</v>
@@ -17758,7 +17758,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I429" t="n">
         <v>5.57</v>
@@ -17799,7 +17799,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I430" t="n">
         <v>5.57</v>
@@ -17840,7 +17840,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I431" t="n">
         <v>5.57</v>
@@ -17881,7 +17881,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I432" t="n">
         <v>5.57</v>
@@ -17922,7 +17922,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I433" t="n">
         <v>5.57</v>
@@ -17963,7 +17963,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I434" t="n">
         <v>5.57</v>
@@ -18004,7 +18004,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I435" t="n">
         <v>5.57</v>
@@ -18045,7 +18045,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I436" t="n">
         <v>5.57</v>
@@ -18086,7 +18086,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I437" t="n">
         <v>5.57</v>
@@ -18127,7 +18127,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I438" t="n">
         <v>5.57</v>
@@ -18168,7 +18168,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I439" t="n">
         <v>5.57</v>
@@ -18209,7 +18209,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I440" t="n">
         <v>5.57</v>
@@ -18250,7 +18250,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I441" t="n">
         <v>5.57</v>
@@ -18291,7 +18291,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I442" t="n">
         <v>5.57</v>
@@ -18332,7 +18332,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I443" t="n">
         <v>5.57</v>
@@ -18373,7 +18373,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I444" t="n">
         <v>5.57</v>
@@ -18414,7 +18414,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I445" t="n">
         <v>5.57</v>
@@ -18455,7 +18455,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I446" t="n">
         <v>5.57</v>
@@ -18496,7 +18496,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I447" t="n">
         <v>5.57</v>
@@ -18537,7 +18537,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I448" t="n">
         <v>5.57</v>
@@ -18578,7 +18578,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I449" t="n">
         <v>5.57</v>
@@ -18619,7 +18619,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I450" t="n">
         <v>5.57</v>
@@ -18660,7 +18660,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I451" t="n">
         <v>5.57</v>
@@ -18701,7 +18701,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I452" t="n">
         <v>5.57</v>
@@ -18742,7 +18742,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I453" t="n">
         <v>5.57</v>
@@ -18783,7 +18783,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I454" t="n">
         <v>5.57</v>
@@ -18824,7 +18824,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I455" t="n">
         <v>5.57</v>
@@ -18865,7 +18865,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I456" t="n">
         <v>5.57</v>
@@ -18906,7 +18906,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I457" t="n">
         <v>5.57</v>
@@ -18947,7 +18947,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I458" t="n">
         <v>5.57</v>
@@ -18988,7 +18988,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I459" t="n">
         <v>5.57</v>
@@ -19029,7 +19029,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I460" t="n">
         <v>5.57</v>
@@ -19070,7 +19070,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I461" t="n">
         <v>5.57</v>
@@ -19111,7 +19111,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I462" t="n">
         <v>5.57</v>
@@ -19152,7 +19152,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I463" t="n">
         <v>5.57</v>
@@ -19193,7 +19193,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I464" t="n">
         <v>5.57</v>
@@ -19234,7 +19234,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I465" t="n">
         <v>5.57</v>
@@ -19275,7 +19275,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I466" t="n">
         <v>5.57</v>
@@ -19316,7 +19316,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I467" t="n">
         <v>5.57</v>
@@ -19357,7 +19357,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I468" t="n">
         <v>5.57</v>
@@ -19398,7 +19398,7 @@
         <v>-143146.1194000002</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I469" t="n">
         <v>5.57</v>
@@ -19439,7 +19439,7 @@
         <v>38223.54517091537</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I470" t="n">
         <v>5.57</v>
@@ -19480,7 +19480,7 @@
         <v>38223.54517091537</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I471" t="n">
         <v>5.58</v>
@@ -19521,7 +19521,7 @@
         <v>38223.54517091537</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I472" t="n">
         <v>5.58</v>
@@ -19562,7 +19562,7 @@
         <v>38223.54517091537</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I473" t="n">
         <v>5.58</v>
@@ -19603,7 +19603,7 @@
         <v>38223.54517091537</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I474" t="n">
         <v>5.58</v>
@@ -19644,7 +19644,7 @@
         <v>38223.54517091537</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I475" t="n">
         <v>5.58</v>
@@ -19685,7 +19685,7 @@
         <v>38223.54517091537</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I476" t="n">
         <v>5.58</v>
@@ -19726,7 +19726,7 @@
         <v>38223.54517091537</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I477" t="n">
         <v>5.58</v>
@@ -19767,7 +19767,7 @@
         <v>38223.54517091537</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I478" t="n">
         <v>5.58</v>
@@ -19808,7 +19808,7 @@
         <v>38223.54517091537</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I479" t="n">
         <v>5.58</v>
@@ -19849,7 +19849,7 @@
         <v>38223.54517091537</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I480" t="n">
         <v>5.58</v>
@@ -19890,7 +19890,7 @@
         <v>38223.54517091537</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I481" t="n">
         <v>5.58</v>
@@ -19931,7 +19931,7 @@
         <v>38223.54517091537</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I482" t="n">
         <v>5.58</v>
@@ -19972,7 +19972,7 @@
         <v>38223.54517091537</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I483" t="n">
         <v>5.58</v>
@@ -20013,7 +20013,7 @@
         <v>38223.54517091537</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I484" t="n">
         <v>5.58</v>
@@ -20054,7 +20054,7 @@
         <v>38223.54517091537</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I485" t="n">
         <v>5.58</v>
@@ -20095,7 +20095,7 @@
         <v>38223.54517091537</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I486" t="n">
         <v>5.58</v>
@@ -20136,7 +20136,7 @@
         <v>38223.54517091537</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I487" t="n">
         <v>5.58</v>
@@ -20177,7 +20177,7 @@
         <v>38223.54517091537</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I488" t="n">
         <v>5.58</v>
@@ -20218,7 +20218,7 @@
         <v>38223.54517091537</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I489" t="n">
         <v>5.58</v>
@@ -20259,7 +20259,7 @@
         <v>38223.54517091537</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I490" t="n">
         <v>5.58</v>
@@ -20300,7 +20300,7 @@
         <v>38223.54517091537</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I491" t="n">
         <v>5.58</v>
@@ -20341,7 +20341,7 @@
         <v>38223.54517091537</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I492" t="n">
         <v>5.58</v>
@@ -20382,7 +20382,7 @@
         <v>38223.54517091537</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I493" t="n">
         <v>5.58</v>
@@ -20423,7 +20423,7 @@
         <v>38223.54517091537</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I494" t="n">
         <v>5.58</v>
@@ -20464,7 +20464,7 @@
         <v>38223.54517091537</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I495" t="n">
         <v>5.58</v>
@@ -20505,7 +20505,7 @@
         <v>34380.48197091537</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I496" t="n">
         <v>5.58</v>
@@ -20546,7 +20546,7 @@
         <v>34380.48197091537</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I497" t="n">
         <v>5.57</v>
@@ -20587,7 +20587,7 @@
         <v>34380.48197091537</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I498" t="n">
         <v>5.57</v>
@@ -20628,7 +20628,7 @@
         <v>34380.48197091537</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I499" t="n">
         <v>5.57</v>
@@ -20669,7 +20669,7 @@
         <v>34380.48197091537</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I500" t="n">
         <v>5.57</v>
@@ -20710,7 +20710,7 @@
         <v>34380.48197091537</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I501" t="n">
         <v>5.57</v>
@@ -20751,7 +20751,7 @@
         <v>34380.48197091537</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I502" t="n">
         <v>5.57</v>
@@ -20792,7 +20792,7 @@
         <v>34380.48197091537</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I503" t="n">
         <v>5.57</v>
@@ -20833,7 +20833,7 @@
         <v>34380.48197091537</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I504" t="n">
         <v>5.57</v>
@@ -20874,7 +20874,7 @@
         <v>34380.48197091537</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I505" t="n">
         <v>5.57</v>
@@ -20915,7 +20915,7 @@
         <v>34380.48197091537</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I506" t="n">
         <v>5.57</v>
@@ -20956,7 +20956,7 @@
         <v>34380.48197091537</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I507" t="n">
         <v>5.57</v>
@@ -20997,7 +20997,7 @@
         <v>34380.48197091537</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I508" t="n">
         <v>5.57</v>
@@ -21038,7 +21038,7 @@
         <v>34380.48197091537</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I509" t="n">
         <v>5.57</v>
@@ -21079,7 +21079,7 @@
         <v>373457.0371709154</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I510" t="n">
         <v>5.57</v>
@@ -21120,7 +21120,7 @@
         <v>373457.0371709154</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I511" t="n">
         <v>5.58</v>
@@ -21161,7 +21161,7 @@
         <v>373457.0371709154</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I512" t="n">
         <v>5.58</v>
@@ -21202,7 +21202,7 @@
         <v>373457.0371709154</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I513" t="n">
         <v>5.58</v>
@@ -21243,7 +21243,7 @@
         <v>373457.0371709154</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I514" t="n">
         <v>5.58</v>
@@ -21284,7 +21284,7 @@
         <v>373457.0371709154</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I515" t="n">
         <v>5.58</v>
@@ -21325,7 +21325,7 @@
         <v>373457.0371709154</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I516" t="n">
         <v>5.58</v>
@@ -21366,7 +21366,7 @@
         <v>373457.0371709154</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I517" t="n">
         <v>5.58</v>
@@ -21407,7 +21407,7 @@
         <v>373457.0371709154</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I518" t="n">
         <v>5.58</v>
@@ -21448,7 +21448,7 @@
         <v>373457.0371709154</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I519" t="n">
         <v>5.58</v>
@@ -21489,7 +21489,7 @@
         <v>373457.0371709154</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I520" t="n">
         <v>5.58</v>
@@ -21530,7 +21530,7 @@
         <v>373457.0371709154</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I521" t="n">
         <v>5.58</v>
@@ -21571,7 +21571,7 @@
         <v>373457.0371709154</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I522" t="n">
         <v>5.58</v>
@@ -21612,7 +21612,7 @@
         <v>373457.0371709154</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I523" t="n">
         <v>5.58</v>
@@ -21653,7 +21653,7 @@
         <v>373457.0371709154</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I524" t="n">
         <v>5.58</v>
@@ -21694,7 +21694,7 @@
         <v>373457.0371709154</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I525" t="n">
         <v>5.58</v>
@@ -21735,7 +21735,7 @@
         <v>373457.0371709154</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I526" t="n">
         <v>5.58</v>
@@ -21776,7 +21776,7 @@
         <v>373457.0371709154</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I527" t="n">
         <v>5.58</v>
@@ -21817,7 +21817,7 @@
         <v>373457.0371709154</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I528" t="n">
         <v>5.58</v>
@@ -21858,7 +21858,7 @@
         <v>373457.0371709154</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I529" t="n">
         <v>5.58</v>
@@ -21899,7 +21899,7 @@
         <v>373457.0371709154</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I530" t="n">
         <v>5.58</v>
@@ -21940,7 +21940,7 @@
         <v>373457.0371709154</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I531" t="n">
         <v>5.58</v>
@@ -21981,7 +21981,7 @@
         <v>373457.0371709154</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I532" t="n">
         <v>5.58</v>
@@ -22022,7 +22022,7 @@
         <v>373457.0371709154</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I533" t="n">
         <v>5.58</v>
@@ -22063,7 +22063,7 @@
         <v>373457.0371709154</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I534" t="n">
         <v>5.58</v>
@@ -22104,7 +22104,7 @@
         <v>647596.2024709154</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I535" t="n">
         <v>5.58</v>
@@ -22145,7 +22145,7 @@
         <v>647596.2024709154</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I536" t="n">
         <v>5.59</v>
@@ -22186,7 +22186,7 @@
         <v>699123.9515709154</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I537" t="n">
         <v>5.59</v>
@@ -22227,7 +22227,7 @@
         <v>1034555.988489454</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I538" t="n">
         <v>5.61</v>
@@ -22268,7 +22268,7 @@
         <v>1034555.988489454</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I539" t="n">
         <v>5.62</v>
@@ -22309,7 +22309,7 @@
         <v>1188101.421289454</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I540" t="n">
         <v>5.62</v>
@@ -22350,7 +22350,7 @@
         <v>1188101.421289454</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I541" t="n">
         <v>5.63</v>
@@ -22391,7 +22391,7 @@
         <v>1188101.421289454</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I542" t="n">
         <v>5.63</v>
@@ -22432,7 +22432,7 @@
         <v>1335911.977889454</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I543" t="n">
         <v>5.63</v>
@@ -22473,7 +22473,7 @@
         <v>1335911.977889454</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I544" t="n">
         <v>5.65</v>
@@ -22514,7 +22514,7 @@
         <v>1335911.977889454</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I545" t="n">
         <v>5.65</v>
@@ -22555,7 +22555,7 @@
         <v>1335911.977889454</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I546" t="n">
         <v>5.65</v>
@@ -22596,9 +22596,11 @@
         <v>1335911.977889454</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>5.65</v>
+      </c>
       <c r="J547" t="n">
         <v>5.58</v>
       </c>
@@ -22635,9 +22637,11 @@
         <v>1237246.907089454</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>5.65</v>
+      </c>
       <c r="J548" t="n">
         <v>5.58</v>
       </c>
@@ -22674,9 +22678,11 @@
         <v>1237246.907089454</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>5.64</v>
+      </c>
       <c r="J549" t="n">
         <v>5.58</v>
       </c>
@@ -22713,9 +22719,11 @@
         <v>1237246.907089454</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>5.64</v>
+      </c>
       <c r="J550" t="n">
         <v>5.58</v>
       </c>
@@ -22752,9 +22760,11 @@
         <v>1237246.907089454</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>5.64</v>
+      </c>
       <c r="J551" t="n">
         <v>5.58</v>
       </c>
@@ -22791,9 +22801,11 @@
         <v>1237246.907089454</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>5.64</v>
+      </c>
       <c r="J552" t="n">
         <v>5.58</v>
       </c>
@@ -22830,9 +22842,11 @@
         <v>1237246.907089454</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>5.64</v>
+      </c>
       <c r="J553" t="n">
         <v>5.58</v>
       </c>
@@ -22869,9 +22883,11 @@
         <v>865753.7753894536</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>5.64</v>
+      </c>
       <c r="J554" t="n">
         <v>5.58</v>
       </c>
@@ -22908,9 +22924,11 @@
         <v>865753.7753894536</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J555" t="n">
         <v>5.58</v>
       </c>
@@ -22947,9 +22965,11 @@
         <v>865753.7753894536</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J556" t="n">
         <v>5.58</v>
       </c>
@@ -22986,9 +23006,11 @@
         <v>865753.7753894536</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J557" t="n">
         <v>5.58</v>
       </c>
@@ -23025,9 +23047,11 @@
         <v>865753.7753894536</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J558" t="n">
         <v>5.58</v>
       </c>
@@ -23064,9 +23088,11 @@
         <v>865753.7753894536</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J559" t="n">
         <v>5.58</v>
       </c>
@@ -23103,9 +23129,11 @@
         <v>865753.7753894536</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J560" t="n">
         <v>5.58</v>
       </c>
@@ -23142,9 +23170,11 @@
         <v>865753.7753894536</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J561" t="n">
         <v>5.58</v>
       </c>
@@ -23181,9 +23211,11 @@
         <v>865753.7753894536</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J562" t="n">
         <v>5.58</v>
       </c>
@@ -23220,9 +23252,11 @@
         <v>865753.7753894536</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J563" t="n">
         <v>5.58</v>
       </c>
@@ -23259,9 +23293,11 @@
         <v>865753.7753894536</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J564" t="n">
         <v>5.58</v>
       </c>
@@ -23298,9 +23334,11 @@
         <v>865753.7753894536</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J565" t="n">
         <v>5.58</v>
       </c>
@@ -23337,7 +23375,7 @@
         <v>865753.7753894536</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I566" t="n">
         <v>5.63</v>
@@ -23378,9 +23416,11 @@
         <v>1186842.029789454</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J567" t="n">
         <v>5.58</v>
       </c>
@@ -23417,7 +23457,7 @@
         <v>1186842.029789454</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I568" t="n">
         <v>5.64</v>
@@ -23458,9 +23498,11 @@
         <v>1073850.837589454</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>5.64</v>
+      </c>
       <c r="J569" t="n">
         <v>5.58</v>
       </c>
@@ -23497,9 +23539,11 @@
         <v>1129778.598889454</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>5.62</v>
+      </c>
       <c r="J570" t="n">
         <v>5.58</v>
       </c>
@@ -23536,9 +23580,11 @@
         <v>1276810.674889454</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J571" t="n">
         <v>5.58</v>
       </c>
@@ -23575,7 +23621,7 @@
         <v>1276810.674889454</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I572" t="n">
         <v>5.64</v>
@@ -23616,9 +23662,11 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>5.64</v>
+      </c>
       <c r="J573" t="n">
         <v>5.58</v>
       </c>
@@ -23655,9 +23703,11 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J574" t="n">
         <v>5.58</v>
       </c>
@@ -23694,7 +23744,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I575" t="n">
         <v>5.63</v>
@@ -23735,7 +23785,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I576" t="n">
         <v>5.63</v>
@@ -23776,7 +23826,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I577" t="n">
         <v>5.63</v>
@@ -23817,7 +23867,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I578" t="n">
         <v>5.63</v>
@@ -23858,7 +23908,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I579" t="n">
         <v>5.63</v>
@@ -23899,7 +23949,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I580" t="n">
         <v>5.63</v>
@@ -23940,7 +23990,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I581" t="n">
         <v>5.63</v>
@@ -23981,7 +24031,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I582" t="n">
         <v>5.63</v>
@@ -24022,7 +24072,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I583" t="n">
         <v>5.63</v>
@@ -24063,7 +24113,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I584" t="n">
         <v>5.63</v>
@@ -24104,7 +24154,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I585" t="n">
         <v>5.63</v>
@@ -24145,7 +24195,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I586" t="n">
         <v>5.63</v>
@@ -24186,7 +24236,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I587" t="n">
         <v>5.63</v>
@@ -24227,7 +24277,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I588" t="n">
         <v>5.63</v>
@@ -24268,7 +24318,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I589" t="n">
         <v>5.63</v>
@@ -24309,7 +24359,7 @@
         <v>1122747.275489454</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I590" t="n">
         <v>5.63</v>
@@ -24350,7 +24400,7 @@
         <v>1229438.504089454</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I591" t="n">
         <v>5.62</v>
@@ -24391,7 +24441,7 @@
         <v>1330924.987089454</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I592" t="n">
         <v>5.63</v>
@@ -24432,7 +24482,7 @@
         <v>1384022.850389454</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I593" t="n">
         <v>5.64</v>
@@ -24473,7 +24523,7 @@
         <v>1384022.850389454</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I594" t="n">
         <v>5.65</v>
@@ -24514,7 +24564,7 @@
         <v>1556812.160689454</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I595" t="n">
         <v>5.65</v>
@@ -24555,7 +24605,7 @@
         <v>1556812.160689454</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I596" t="n">
         <v>5.66</v>
@@ -24596,7 +24646,7 @@
         <v>1556812.160689454</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I597" t="n">
         <v>5.66</v>
@@ -24637,9 +24687,11 @@
         <v>880601.3985894538</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J598" t="n">
         <v>5.58</v>
       </c>
@@ -24676,9 +24728,11 @@
         <v>880601.3985894538</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>5.64</v>
+      </c>
       <c r="J599" t="n">
         <v>5.58</v>
       </c>
@@ -24715,9 +24769,11 @@
         <v>880601.3985894538</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>5.64</v>
+      </c>
       <c r="J600" t="n">
         <v>5.58</v>
       </c>
@@ -24754,7 +24810,7 @@
         <v>880601.3985894538</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I601" t="n">
         <v>5.64</v>
@@ -24795,7 +24851,7 @@
         <v>880601.3985894538</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I602" t="n">
         <v>5.64</v>
@@ -24836,7 +24892,7 @@
         <v>880601.3985894538</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I603" t="n">
         <v>5.64</v>
@@ -24877,7 +24933,7 @@
         <v>1078064.996997904</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I604" t="n">
         <v>5.64</v>
@@ -24918,7 +24974,7 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I605" t="n">
         <v>5.67</v>
@@ -24959,7 +25015,7 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I606" t="n">
         <v>5.66</v>
@@ -25000,9 +25056,11 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J607" t="n">
         <v>5.58</v>
       </c>
@@ -25039,9 +25097,11 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J608" t="n">
         <v>5.58</v>
       </c>
@@ -25078,9 +25138,11 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J609" t="n">
         <v>5.58</v>
       </c>
@@ -25117,9 +25179,11 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J610" t="n">
         <v>5.58</v>
       </c>
@@ -25156,9 +25220,11 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J611" t="n">
         <v>5.58</v>
       </c>
@@ -25195,7 +25261,7 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I612" t="n">
         <v>5.66</v>
@@ -25236,7 +25302,7 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I613" t="n">
         <v>5.66</v>
@@ -25277,9 +25343,11 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J614" t="n">
         <v>5.58</v>
       </c>
@@ -25316,9 +25384,11 @@
         <v>781852.7473979045</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J615" t="n">
         <v>5.58</v>
       </c>
@@ -25355,9 +25425,11 @@
         <v>808441.9733979045</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>5.65</v>
+      </c>
       <c r="J616" t="n">
         <v>5.58</v>
       </c>
@@ -25394,9 +25466,11 @@
         <v>808441.9733979045</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J617" t="n">
         <v>5.58</v>
       </c>
@@ -25433,9 +25507,11 @@
         <v>808441.9733979045</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J618" t="n">
         <v>5.58</v>
       </c>
@@ -25472,9 +25548,11 @@
         <v>993932.3289979046</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J619" t="n">
         <v>5.58</v>
       </c>
@@ -25511,9 +25589,11 @@
         <v>993932.3289979046</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J620" t="n">
         <v>5.58</v>
       </c>
@@ -25550,9 +25630,11 @@
         <v>993932.3289979046</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J621" t="n">
         <v>5.58</v>
       </c>
@@ -25589,9 +25671,11 @@
         <v>993932.3289979046</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J622" t="n">
         <v>5.58</v>
       </c>
@@ -25628,9 +25712,11 @@
         <v>993932.3289979046</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J623" t="n">
         <v>5.58</v>
       </c>
@@ -25667,9 +25753,11 @@
         <v>993932.3289979046</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J624" t="n">
         <v>5.58</v>
       </c>
@@ -25706,9 +25794,11 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J625" t="n">
         <v>5.58</v>
       </c>
@@ -25745,9 +25835,11 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J626" t="n">
         <v>5.58</v>
       </c>
@@ -25784,9 +25876,11 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J627" t="n">
         <v>5.58</v>
       </c>
@@ -25823,9 +25917,11 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J628" t="n">
         <v>5.58</v>
       </c>
@@ -25862,9 +25958,11 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J629" t="n">
         <v>5.58</v>
       </c>
@@ -25901,9 +25999,11 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J630" t="n">
         <v>5.58</v>
       </c>
@@ -25940,9 +26040,11 @@
         <v>818312.2930979045</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J631" t="n">
         <v>5.58</v>
       </c>
@@ -25979,9 +26081,11 @@
         <v>546222.9805979045</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>5.65</v>
+      </c>
       <c r="J632" t="n">
         <v>5.58</v>
       </c>
@@ -26018,9 +26122,11 @@
         <v>546222.9805979045</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J633" t="n">
         <v>5.58</v>
       </c>
@@ -26057,9 +26163,11 @@
         <v>415639.5151979045</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J634" t="n">
         <v>5.58</v>
       </c>
@@ -26096,7 +26204,7 @@
         <v>415639.5151979045</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I635" t="n">
         <v>5.62</v>
@@ -26137,7 +26245,7 @@
         <v>415639.5151979045</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I636" t="n">
         <v>5.62</v>
@@ -26178,7 +26286,7 @@
         <v>415639.5151979045</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I637" t="n">
         <v>5.62</v>
@@ -26219,7 +26327,7 @@
         <v>415639.5151979045</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I638" t="n">
         <v>5.62</v>
@@ -26260,7 +26368,7 @@
         <v>1085151.901797905</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I639" t="n">
         <v>5.62</v>
@@ -26301,7 +26409,7 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I640" t="n">
         <v>5.67</v>
@@ -26342,7 +26450,7 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I641" t="n">
         <v>5.66</v>
@@ -26383,7 +26491,7 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I642" t="n">
         <v>5.66</v>
@@ -26424,9 +26532,11 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J643" t="n">
         <v>5.58</v>
       </c>
@@ -26463,9 +26573,11 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J644" t="n">
         <v>5.58</v>
       </c>
@@ -26502,9 +26614,11 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J645" t="n">
         <v>5.58</v>
       </c>
@@ -26541,7 +26655,7 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I646" t="n">
         <v>5.66</v>
@@ -26582,7 +26696,7 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I647" t="n">
         <v>5.66</v>
@@ -26623,7 +26737,7 @@
         <v>1112697.179197905</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I648" t="n">
         <v>5.66</v>
@@ -26664,9 +26778,11 @@
         <v>1021737.870597905</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J649" t="n">
         <v>5.58</v>
       </c>
@@ -26703,7 +26819,7 @@
         <v>1178636.428697905</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I650" t="n">
         <v>5.66</v>
@@ -26744,7 +26860,7 @@
         <v>1178636.428697905</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I651" t="n">
         <v>5.67</v>
@@ -26785,9 +26901,11 @@
         <v>1475964.129597905</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J652" t="n">
         <v>5.58</v>
       </c>
@@ -26824,9 +26942,11 @@
         <v>1463167.772397905</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>5.69</v>
+      </c>
       <c r="J653" t="n">
         <v>5.58</v>
       </c>
@@ -26863,9 +26983,11 @@
         <v>1568625.114097905</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>5.68</v>
+      </c>
       <c r="J654" t="n">
         <v>5.58</v>
       </c>
@@ -26902,9 +27024,11 @@
         <v>1568625.114097905</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>5.69</v>
+      </c>
       <c r="J655" t="n">
         <v>5.58</v>
       </c>
@@ -26941,9 +27065,11 @@
         <v>1568625.114097905</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>5.69</v>
+      </c>
       <c r="J656" t="n">
         <v>5.58</v>
       </c>
@@ -26980,9 +27106,11 @@
         <v>1600136.284489454</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>5.69</v>
+      </c>
       <c r="J657" t="n">
         <v>5.58</v>
       </c>
@@ -27019,9 +27147,11 @@
         <v>1874128.303989454</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>5.7</v>
+      </c>
       <c r="J658" t="n">
         <v>5.58</v>
       </c>
@@ -27058,9 +27188,11 @@
         <v>1874128.303989454</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>5.71</v>
+      </c>
       <c r="J659" t="n">
         <v>5.58</v>
       </c>
@@ -27097,9 +27229,11 @@
         <v>2154592.263789454</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>5.71</v>
+      </c>
       <c r="J660" t="n">
         <v>5.58</v>
       </c>
@@ -27136,9 +27270,11 @@
         <v>2154592.263789454</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>5.72</v>
+      </c>
       <c r="J661" t="n">
         <v>5.58</v>
       </c>
@@ -27175,9 +27311,11 @@
         <v>2355479.157289454</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>5.72</v>
+      </c>
       <c r="J662" t="n">
         <v>5.58</v>
       </c>
@@ -27214,9 +27352,11 @@
         <v>2725952.537350451</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>5.73</v>
+      </c>
       <c r="J663" t="n">
         <v>5.58</v>
       </c>
@@ -27253,9 +27393,11 @@
         <v>2725952.537350451</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>5.79</v>
+      </c>
       <c r="J664" t="n">
         <v>5.58</v>
       </c>
@@ -27292,9 +27434,11 @@
         <v>2725952.537350451</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>5.79</v>
+      </c>
       <c r="J665" t="n">
         <v>5.58</v>
       </c>
@@ -27331,9 +27475,11 @@
         <v>3032969.950650451</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>5.79</v>
+      </c>
       <c r="J666" t="n">
         <v>5.58</v>
       </c>
@@ -27370,9 +27516,11 @@
         <v>3032969.950650451</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>5.8</v>
+      </c>
       <c r="J667" t="n">
         <v>5.58</v>
       </c>
@@ -27838,9 +27986,11 @@
         <v>7772285.813789454</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>5.86</v>
+      </c>
       <c r="J679" t="n">
         <v>5.58</v>
       </c>
@@ -27916,9 +28066,11 @@
         <v>7772285.813789454</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>5.85</v>
+      </c>
       <c r="J681" t="n">
         <v>5.58</v>
       </c>
@@ -27955,9 +28107,11 @@
         <v>7821982.962489454</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>5.85</v>
+      </c>
       <c r="J682" t="n">
         <v>5.58</v>
       </c>
@@ -28033,9 +28187,11 @@
         <v>7821163.988189454</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>5.86</v>
+      </c>
       <c r="J684" t="n">
         <v>5.58</v>
       </c>
@@ -28891,9 +29047,11 @@
         <v>7159331.486589454</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>5.69</v>
+      </c>
       <c r="J706" t="n">
         <v>5.58</v>
       </c>
@@ -28930,9 +29088,11 @@
         <v>7421324.750689454</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>5.69</v>
+      </c>
       <c r="J707" t="n">
         <v>5.58</v>
       </c>
@@ -28969,9 +29129,11 @@
         <v>7415383.776289455</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>5.7</v>
+      </c>
       <c r="J708" t="n">
         <v>5.58</v>
       </c>
@@ -29008,9 +29170,11 @@
         <v>6883583.227889455</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>5.69</v>
+      </c>
       <c r="J709" t="n">
         <v>5.58</v>
       </c>
@@ -29242,9 +29406,11 @@
         <v>7043944.633289455</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J715" t="n">
         <v>5.58</v>
       </c>
@@ -29281,9 +29447,11 @@
         <v>7043944.633289455</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J716" t="n">
         <v>5.58</v>
       </c>
@@ -29320,9 +29488,11 @@
         <v>7043944.633289455</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J717" t="n">
         <v>5.58</v>
       </c>
@@ -29359,9 +29529,11 @@
         <v>7043944.633289455</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J718" t="n">
         <v>5.58</v>
       </c>
@@ -29632,9 +29804,11 @@
         <v>7324546.289889456</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J725" t="n">
         <v>5.58</v>
       </c>
@@ -29671,9 +29845,11 @@
         <v>7401823.897789456</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J726" t="n">
         <v>5.58</v>
       </c>
@@ -34234,7 +34410,7 @@
         <v>19993918.47857793</v>
       </c>
       <c r="H843" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="n">
@@ -34242,15 +34418,13 @@
       </c>
       <c r="K843" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L843" t="n">
-        <v>1.109695340501792</v>
-      </c>
-      <c r="M843" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M843" t="inlineStr"/>
     </row>
     <row r="844">
       <c r="A844" s="1" t="n">
@@ -34275,11 +34449,17 @@
         <v>20851353.10620826</v>
       </c>
       <c r="H844" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -34308,11 +34488,17 @@
         <v>20106458.52460827</v>
       </c>
       <c r="H845" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -34341,11 +34527,17 @@
         <v>21951727.48237412</v>
       </c>
       <c r="H846" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="J846" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -34377,8 +34569,14 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -34410,8 +34608,14 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="J848" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -34443,8 +34647,14 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="J849" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -34476,8 +34686,14 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="J850" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -34509,8 +34725,14 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="J851" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -34542,8 +34764,14 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="J852" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -34575,8 +34803,14 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="J853" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -34608,8 +34842,14 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -34641,8 +34881,14 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -34674,8 +34920,14 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="J856" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -34707,8 +34959,14 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="J857" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -34740,8 +34998,14 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="J858" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -34773,8 +35037,14 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="J859" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -34806,8 +35076,14 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -34839,8 +35115,14 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="J861" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -34872,8 +35154,14 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -34905,8 +35193,14 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="J863" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -34938,8 +35232,14 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -34968,11 +35268,17 @@
         <v>22519908.65380431</v>
       </c>
       <c r="H865" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="J865" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -35004,8 +35310,14 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="J866" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -35034,11 +35346,17 @@
         <v>23489410.45060431</v>
       </c>
       <c r="H867" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="J867" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -35067,11 +35385,17 @@
         <v>23651825.02091498</v>
       </c>
       <c r="H868" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="J868" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -35100,11 +35424,17 @@
         <v>24235413.38221497</v>
       </c>
       <c r="H869" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="J869" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -35133,11 +35463,17 @@
         <v>24653965.83361498</v>
       </c>
       <c r="H870" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="J870" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -35166,11 +35502,17 @@
         <v>25164354.06711498</v>
       </c>
       <c r="H871" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="J871" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -35199,11 +35541,17 @@
         <v>26098313.85111497</v>
       </c>
       <c r="H872" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="J872" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -35232,11 +35580,17 @@
         <v>27034890.70895174</v>
       </c>
       <c r="H873" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="J873" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -35265,11 +35619,17 @@
         <v>27752999.56605174</v>
       </c>
       <c r="H874" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="J874" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -35298,11 +35658,17 @@
         <v>27282186.64845174</v>
       </c>
       <c r="H875" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="J875" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -35334,8 +35700,14 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="J876" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -35367,8 +35739,14 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="J877" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -35400,8 +35778,14 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="J878" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -35433,8 +35817,14 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="J879" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -35466,8 +35856,14 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="J880" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -35499,8 +35895,14 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="J881" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -35529,15 +35931,23 @@
         <v>34369007.94851497</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="J882" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L882" t="n">
-        <v>1</v>
-      </c>
-      <c r="M882" t="inlineStr"/>
+        <v>1.168835125448029</v>
+      </c>
+      <c r="M882" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="883">
       <c r="A883" s="1" t="n">
@@ -35562,7 +35972,7 @@
         <v>35435171.37681497</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -35595,7 +36005,7 @@
         <v>33004518.56001497</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -35628,7 +36038,7 @@
         <v>32041168.35341497</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -35661,7 +36071,7 @@
         <v>31638032.29611497</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -35694,7 +36104,7 @@
         <v>30708138.10911497</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -35727,7 +36137,7 @@
         <v>31706277.24861497</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -35760,7 +36170,7 @@
         <v>31227774.79591497</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -35793,7 +36203,7 @@
         <v>31501270.70441497</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -35826,7 +36236,7 @@
         <v>31883531.87211497</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -35859,7 +36269,7 @@
         <v>31451057.71367979</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -35892,7 +36302,7 @@
         <v>32157925.89717979</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -35925,7 +36335,7 @@
         <v>30555770.3578798</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -35958,7 +36368,7 @@
         <v>30846593.92867979</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -35991,7 +36401,7 @@
         <v>31045838.5015798</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -36024,7 +36434,7 @@
         <v>30769021.9408798</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -36057,7 +36467,7 @@
         <v>30704599.06867979</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -36090,7 +36500,7 @@
         <v>28357387.86884027</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -36123,7 +36533,7 @@
         <v>28097796.03924027</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -36156,7 +36566,7 @@
         <v>28823073.27794027</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -36189,7 +36599,7 @@
         <v>28851589.18190075</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -36222,7 +36632,7 @@
         <v>28851589.18190075</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -36255,7 +36665,7 @@
         <v>28539286.87410075</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -36288,7 +36698,7 @@
         <v>28114151.37040075</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -36321,7 +36731,7 @@
         <v>27773517.98210075</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -36354,7 +36764,7 @@
         <v>27095443.17140075</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -36387,7 +36797,7 @@
         <v>26516619.42960075</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -36420,7 +36830,7 @@
         <v>26516619.42960075</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -36453,7 +36863,7 @@
         <v>27558577.85480075</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -36486,7 +36896,7 @@
         <v>27828371.52670075</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -36519,7 +36929,7 @@
         <v>28420376.99410075</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -36552,7 +36962,7 @@
         <v>28595536.68400075</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -36585,7 +36995,7 @@
         <v>28935380.67660075</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -36618,7 +37028,7 @@
         <v>29154881.89510075</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -36651,7 +37061,7 @@
         <v>29252845.37200075</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -36684,7 +37094,7 @@
         <v>29641715.30330075</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -36717,7 +37127,7 @@
         <v>30914768.75990075</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -36750,7 +37160,7 @@
         <v>31819149.12320075</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -36783,7 +37193,7 @@
         <v>31334856.17100075</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -36816,7 +37226,7 @@
         <v>31100302.89490075</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -36849,7 +37259,7 @@
         <v>30619276.09300075</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -36882,7 +37292,7 @@
         <v>30442331.13920075</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -36915,7 +37325,7 @@
         <v>30259261.42160075</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -36948,7 +37358,7 @@
         <v>30259261.42160075</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -36981,7 +37391,7 @@
         <v>30490222.57450075</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -37014,7 +37424,7 @@
         <v>30662086.69410075</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -37047,7 +37457,7 @@
         <v>30368439.86040075</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -37080,7 +37490,7 @@
         <v>30435226.10640075</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -37113,7 +37523,7 @@
         <v>30435226.10640075</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -37146,7 +37556,7 @@
         <v>30435226.10640075</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -37179,7 +37589,7 @@
         <v>30435226.10640075</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -37212,7 +37622,7 @@
         <v>30435226.10640075</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -37245,7 +37655,7 @@
         <v>30435226.10640075</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -37278,7 +37688,7 @@
         <v>30345751.57300075</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -37311,7 +37721,7 @@
         <v>30345751.57300075</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -37344,7 +37754,7 @@
         <v>30203767.61490075</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -37377,7 +37787,7 @@
         <v>30203767.61490075</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -37410,7 +37820,7 @@
         <v>30057899.83690075</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -37443,7 +37853,7 @@
         <v>29840907.89140075</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -37476,7 +37886,7 @@
         <v>29840907.89140075</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -37509,7 +37919,7 @@
         <v>29579008.67670075</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -37542,7 +37952,7 @@
         <v>29579008.67670075</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -37575,7 +37985,7 @@
         <v>29132181.81990075</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -37608,7 +38018,7 @@
         <v>29132181.81990075</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -37641,7 +38051,7 @@
         <v>29132181.81990075</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -37674,7 +38084,7 @@
         <v>28513542.37960075</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -37707,7 +38117,7 @@
         <v>28678570.11470075</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -37740,7 +38150,7 @@
         <v>28926100.97140075</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -37773,7 +38183,7 @@
         <v>29394183.53420075</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -37806,7 +38216,7 @@
         <v>29844624.08640075</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -37839,7 +38249,7 @@
         <v>30279935.29840076</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -37872,7 +38282,7 @@
         <v>30279935.29840076</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -37905,7 +38315,7 @@
         <v>30156309.35420075</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -37938,7 +38348,7 @@
         <v>30215062.06800075</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -37971,7 +38381,7 @@
         <v>30511845.35760075</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -38004,7 +38414,7 @@
         <v>30511845.35760075</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -38037,7 +38447,7 @@
         <v>30284816.70680075</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -38070,7 +38480,7 @@
         <v>30845397.51910075</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -38103,7 +38513,7 @@
         <v>31548410.63840075</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -38136,7 +38546,7 @@
         <v>30808305.30290075</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -38169,7 +38579,7 @@
         <v>30808305.30290075</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -38202,7 +38612,7 @@
         <v>30808305.30290075</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -38235,7 +38645,7 @@
         <v>30808305.30290075</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -38268,7 +38678,7 @@
         <v>30808305.30290075</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -38301,7 +38711,7 @@
         <v>30808305.30290075</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -38334,7 +38744,7 @@
         <v>30793662.84560075</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -38367,7 +38777,7 @@
         <v>30546549.33080075</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -38400,7 +38810,7 @@
         <v>30495741.68520075</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -38433,7 +38843,7 @@
         <v>30747949.41330076</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -38466,7 +38876,7 @@
         <v>31069435.07960076</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -38499,7 +38909,7 @@
         <v>31042726.68670075</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -38532,7 +38942,7 @@
         <v>31042726.68670075</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -38565,7 +38975,7 @@
         <v>30675370.62690075</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -38598,7 +39008,7 @@
         <v>30675370.62690075</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -38631,7 +39041,7 @@
         <v>30675370.62690075</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -38664,7 +39074,7 @@
         <v>30951020.12210076</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -38697,7 +39107,7 @@
         <v>30226193.46360075</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -38730,7 +39140,7 @@
         <v>29434722.07810076</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -38763,7 +39173,7 @@
         <v>29411850.10760076</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -38796,7 +39206,7 @@
         <v>29411850.10760076</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -38829,7 +39239,7 @@
         <v>29411850.10760076</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -39819,7 +40229,7 @@
         <v>31490959.98490075</v>
       </c>
       <c r="H1012" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -40479,7 +40889,7 @@
         <v>36362045.11880076</v>
       </c>
       <c r="H1032" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -40512,7 +40922,7 @@
         <v>35842239.20150076</v>
       </c>
       <c r="H1033" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -40545,7 +40955,7 @@
         <v>35635600.05590076</v>
       </c>
       <c r="H1034" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -40578,7 +40988,7 @@
         <v>35635600.05590076</v>
       </c>
       <c r="H1035" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -40611,7 +41021,7 @@
         <v>36019758.75083658</v>
       </c>
       <c r="H1036" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -40644,7 +41054,7 @@
         <v>36019758.75083658</v>
       </c>
       <c r="H1037" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -40677,7 +41087,7 @@
         <v>36019758.75083658</v>
       </c>
       <c r="H1038" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -40710,7 +41120,7 @@
         <v>36019758.75083658</v>
       </c>
       <c r="H1039" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -40743,7 +41153,7 @@
         <v>36019758.75083658</v>
       </c>
       <c r="H1040" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -40776,7 +41186,7 @@
         <v>37029378.71843658</v>
       </c>
       <c r="H1041" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -40809,7 +41219,7 @@
         <v>37029378.71843658</v>
       </c>
       <c r="H1042" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -40842,7 +41252,7 @@
         <v>37029378.71843658</v>
       </c>
       <c r="H1043" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -40875,7 +41285,7 @@
         <v>37029378.71843658</v>
       </c>
       <c r="H1044" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -40908,7 +41318,7 @@
         <v>36930489.33563659</v>
       </c>
       <c r="H1045" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -40941,7 +41351,7 @@
         <v>37306238.66393659</v>
       </c>
       <c r="H1046" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -40974,7 +41384,7 @@
         <v>37665033.92003658</v>
       </c>
       <c r="H1047" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -41007,7 +41417,7 @@
         <v>37486748.57283659</v>
       </c>
       <c r="H1048" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -41040,7 +41450,7 @@
         <v>37486748.57283659</v>
       </c>
       <c r="H1049" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -41073,7 +41483,7 @@
         <v>37729439.76712526</v>
       </c>
       <c r="H1050" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -41106,7 +41516,7 @@
         <v>37519972.95302527</v>
       </c>
       <c r="H1051" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -41139,7 +41549,7 @@
         <v>37428986.02922527</v>
       </c>
       <c r="H1052" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -41172,7 +41582,7 @@
         <v>37875116.76072527</v>
       </c>
       <c r="H1053" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -41205,7 +41615,7 @@
         <v>37875116.76072527</v>
       </c>
       <c r="H1054" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -41238,7 +41648,7 @@
         <v>37875116.76072527</v>
       </c>
       <c r="H1055" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -41271,7 +41681,7 @@
         <v>37438475.89272527</v>
       </c>
       <c r="H1056" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -41304,7 +41714,7 @@
         <v>37268146.63372526</v>
       </c>
       <c r="H1057" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -41337,7 +41747,7 @@
         <v>37268146.63372526</v>
       </c>
       <c r="H1058" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -41370,7 +41780,7 @@
         <v>37414708.11262526</v>
       </c>
       <c r="H1059" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -41403,7 +41813,7 @@
         <v>37414708.11262526</v>
       </c>
       <c r="H1060" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -41436,7 +41846,7 @@
         <v>37414708.11262526</v>
       </c>
       <c r="H1061" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -41469,7 +41879,7 @@
         <v>38156092.45682526</v>
       </c>
       <c r="H1062" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -41502,7 +41912,7 @@
         <v>38156079.45682526</v>
       </c>
       <c r="H1063" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -41535,7 +41945,7 @@
         <v>38156079.45682526</v>
       </c>
       <c r="H1064" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -41568,7 +41978,7 @@
         <v>38156079.45682526</v>
       </c>
       <c r="H1065" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -41601,7 +42011,7 @@
         <v>38156079.45682526</v>
       </c>
       <c r="H1066" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -41634,7 +42044,7 @@
         <v>37281811.09062526</v>
       </c>
       <c r="H1067" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -41667,7 +42077,7 @@
         <v>36622844.33482526</v>
       </c>
       <c r="H1068" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -41700,7 +42110,7 @@
         <v>36584918.48342526</v>
       </c>
       <c r="H1069" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -41733,7 +42143,7 @@
         <v>36584918.48342526</v>
       </c>
       <c r="H1070" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -41766,7 +42176,7 @@
         <v>36845393.91412526</v>
       </c>
       <c r="H1071" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -41799,7 +42209,7 @@
         <v>36845393.91412526</v>
       </c>
       <c r="H1072" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -41832,7 +42242,7 @@
         <v>36703183.70592526</v>
       </c>
       <c r="H1073" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -41865,7 +42275,7 @@
         <v>36692328.21382526</v>
       </c>
       <c r="H1074" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -41898,7 +42308,7 @@
         <v>36774702.81092525</v>
       </c>
       <c r="H1075" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -41931,7 +42341,7 @@
         <v>36774691.81092525</v>
       </c>
       <c r="H1076" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -41964,7 +42374,7 @@
         <v>36816431.18922526</v>
       </c>
       <c r="H1077" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -41997,7 +42407,7 @@
         <v>36806855.60972526</v>
       </c>
       <c r="H1078" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -42030,7 +42440,7 @@
         <v>36806855.60972526</v>
       </c>
       <c r="H1079" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -42063,7 +42473,7 @@
         <v>36650960.06592526</v>
       </c>
       <c r="H1080" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -42096,7 +42506,7 @@
         <v>36989738.60942526</v>
       </c>
       <c r="H1081" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -42129,7 +42539,7 @@
         <v>36742203.04742526</v>
       </c>
       <c r="H1082" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -42162,7 +42572,7 @@
         <v>36782326.94782526</v>
       </c>
       <c r="H1083" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -42195,7 +42605,7 @@
         <v>36526083.50122526</v>
       </c>
       <c r="H1084" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -42228,7 +42638,7 @@
         <v>37248815.44752526</v>
       </c>
       <c r="H1085" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -42261,7 +42671,7 @@
         <v>37248815.44752526</v>
       </c>
       <c r="H1086" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
@@ -42294,7 +42704,7 @@
         <v>37248815.44752526</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -42327,7 +42737,7 @@
         <v>37248815.44752526</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
@@ -42360,7 +42770,7 @@
         <v>37186991.55552527</v>
       </c>
       <c r="H1089" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
@@ -42393,7 +42803,7 @@
         <v>37186991.55552527</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
@@ -42426,7 +42836,7 @@
         <v>37186991.55552527</v>
       </c>
       <c r="H1091" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
@@ -42459,7 +42869,7 @@
         <v>37186991.55552527</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
@@ -42492,7 +42902,7 @@
         <v>37186991.55552527</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -42525,7 +42935,7 @@
         <v>37301876.39972527</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
@@ -42558,7 +42968,7 @@
         <v>37449463.53622527</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -42591,7 +43001,7 @@
         <v>37449451.53622527</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -42624,7 +43034,7 @@
         <v>37701337.80562527</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -42756,7 +43166,7 @@
         <v>38238417.95872527</v>
       </c>
       <c r="H1101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -42855,7 +43265,7 @@
         <v>38238417.95872527</v>
       </c>
       <c r="H1104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -42866,6 +43276,6 @@
       <c r="M1104" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest CON.xlsx
+++ b/BackTest/2019-10-18 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -22555,11 +22555,9 @@
         <v>1335911.977889454</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
-      </c>
-      <c r="I546" t="n">
-        <v>5.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
       <c r="J546" t="n">
         <v>5.58</v>
       </c>
@@ -22596,11 +22594,9 @@
         <v>1335911.977889454</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
-      </c>
-      <c r="I547" t="n">
-        <v>5.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
         <v>5.58</v>
       </c>
@@ -22637,11 +22633,9 @@
         <v>1237246.907089454</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
-      </c>
-      <c r="I548" t="n">
-        <v>5.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
         <v>5.58</v>
       </c>
@@ -22678,11 +22672,9 @@
         <v>1237246.907089454</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
-      </c>
-      <c r="I549" t="n">
-        <v>5.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
         <v>5.58</v>
       </c>
@@ -22719,11 +22711,9 @@
         <v>1237246.907089454</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
-      </c>
-      <c r="I550" t="n">
-        <v>5.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
         <v>5.58</v>
       </c>
@@ -22760,11 +22750,9 @@
         <v>1237246.907089454</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
-      </c>
-      <c r="I551" t="n">
-        <v>5.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
         <v>5.58</v>
       </c>
@@ -22801,11 +22789,9 @@
         <v>1237246.907089454</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
-      </c>
-      <c r="I552" t="n">
-        <v>5.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
         <v>5.58</v>
       </c>
@@ -22883,11 +22869,9 @@
         <v>865753.7753894536</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
-      </c>
-      <c r="I554" t="n">
-        <v>5.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
         <v>5.58</v>
       </c>
@@ -23621,11 +23605,9 @@
         <v>1276810.674889454</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
-      </c>
-      <c r="I572" t="n">
-        <v>5.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
       <c r="J572" t="n">
         <v>5.58</v>
       </c>
@@ -23662,11 +23644,9 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
-      </c>
-      <c r="I573" t="n">
-        <v>5.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
       <c r="J573" t="n">
         <v>5.58</v>
       </c>
@@ -23744,11 +23724,9 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
-      </c>
-      <c r="I575" t="n">
-        <v>5.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
       <c r="J575" t="n">
         <v>5.58</v>
       </c>
@@ -23785,11 +23763,9 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
-      </c>
-      <c r="I576" t="n">
-        <v>5.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
       <c r="J576" t="n">
         <v>5.58</v>
       </c>
@@ -23826,11 +23802,9 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
-      </c>
-      <c r="I577" t="n">
-        <v>5.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
       <c r="J577" t="n">
         <v>5.58</v>
       </c>
@@ -23867,11 +23841,9 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
-      </c>
-      <c r="I578" t="n">
-        <v>5.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
       <c r="J578" t="n">
         <v>5.58</v>
       </c>
@@ -23908,11 +23880,9 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
-      </c>
-      <c r="I579" t="n">
-        <v>5.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
       <c r="J579" t="n">
         <v>5.58</v>
       </c>
@@ -23949,11 +23919,9 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
-      </c>
-      <c r="I580" t="n">
-        <v>5.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
       <c r="J580" t="n">
         <v>5.58</v>
       </c>
@@ -23990,11 +23958,9 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
-      </c>
-      <c r="I581" t="n">
-        <v>5.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
       <c r="J581" t="n">
         <v>5.58</v>
       </c>
@@ -24031,11 +23997,9 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
-      </c>
-      <c r="I582" t="n">
-        <v>5.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
       <c r="J582" t="n">
         <v>5.58</v>
       </c>
@@ -24072,11 +24036,9 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
-      </c>
-      <c r="I583" t="n">
-        <v>5.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
       <c r="J583" t="n">
         <v>5.58</v>
       </c>
@@ -24154,11 +24116,9 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
-      </c>
-      <c r="I585" t="n">
-        <v>5.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
       <c r="J585" t="n">
         <v>5.58</v>
       </c>
@@ -24564,11 +24524,9 @@
         <v>1556812.160689454</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
-      </c>
-      <c r="I595" t="n">
-        <v>5.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
       <c r="J595" t="n">
         <v>5.58</v>
       </c>
@@ -24605,11 +24563,9 @@
         <v>1556812.160689454</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
-      </c>
-      <c r="I596" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
       <c r="J596" t="n">
         <v>5.58</v>
       </c>
@@ -24646,11 +24602,9 @@
         <v>1556812.160689454</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
-      </c>
-      <c r="I597" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
       <c r="J597" t="n">
         <v>5.58</v>
       </c>
@@ -24687,11 +24641,9 @@
         <v>880601.3985894538</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
       <c r="J598" t="n">
         <v>5.58</v>
       </c>
@@ -24728,11 +24680,9 @@
         <v>880601.3985894538</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
-      </c>
-      <c r="I599" t="n">
-        <v>5.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
       <c r="J599" t="n">
         <v>5.58</v>
       </c>
@@ -24769,11 +24719,9 @@
         <v>880601.3985894538</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
-      </c>
-      <c r="I600" t="n">
-        <v>5.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
       <c r="J600" t="n">
         <v>5.58</v>
       </c>
@@ -24810,11 +24758,9 @@
         <v>880601.3985894538</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
-      </c>
-      <c r="I601" t="n">
-        <v>5.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
       <c r="J601" t="n">
         <v>5.58</v>
       </c>
@@ -24851,11 +24797,9 @@
         <v>880601.3985894538</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
-      </c>
-      <c r="I602" t="n">
-        <v>5.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
       <c r="J602" t="n">
         <v>5.58</v>
       </c>
@@ -24892,11 +24836,9 @@
         <v>880601.3985894538</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
-      </c>
-      <c r="I603" t="n">
-        <v>5.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
       <c r="J603" t="n">
         <v>5.58</v>
       </c>
@@ -24933,11 +24875,9 @@
         <v>1078064.996997904</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
-      </c>
-      <c r="I604" t="n">
-        <v>5.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
       <c r="J604" t="n">
         <v>5.58</v>
       </c>
@@ -24974,11 +24914,9 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
-      </c>
-      <c r="I605" t="n">
-        <v>5.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
       <c r="J605" t="n">
         <v>5.58</v>
       </c>
@@ -25015,11 +24953,9 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
-      </c>
-      <c r="I606" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
       <c r="J606" t="n">
         <v>5.58</v>
       </c>
@@ -25056,11 +24992,9 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
-      </c>
-      <c r="I607" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
       <c r="J607" t="n">
         <v>5.58</v>
       </c>
@@ -25097,11 +25031,9 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
-      </c>
-      <c r="I608" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
       <c r="J608" t="n">
         <v>5.58</v>
       </c>
@@ -25138,11 +25070,9 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
-      </c>
-      <c r="I609" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
       <c r="J609" t="n">
         <v>5.58</v>
       </c>
@@ -25179,11 +25109,9 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
-      </c>
-      <c r="I610" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
       <c r="J610" t="n">
         <v>5.58</v>
       </c>
@@ -25220,11 +25148,9 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
-      </c>
-      <c r="I611" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
       <c r="J611" t="n">
         <v>5.58</v>
       </c>
@@ -25261,11 +25187,9 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
-      </c>
-      <c r="I612" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
       <c r="J612" t="n">
         <v>5.58</v>
       </c>
@@ -25302,11 +25226,9 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
-      </c>
-      <c r="I613" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
       <c r="J613" t="n">
         <v>5.58</v>
       </c>
@@ -25343,11 +25265,9 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
-      </c>
-      <c r="I614" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
       <c r="J614" t="n">
         <v>5.58</v>
       </c>
@@ -25384,11 +25304,9 @@
         <v>781852.7473979045</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
-      </c>
-      <c r="I615" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
       <c r="J615" t="n">
         <v>5.58</v>
       </c>
@@ -25425,11 +25343,9 @@
         <v>808441.9733979045</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
-      </c>
-      <c r="I616" t="n">
-        <v>5.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
       <c r="J616" t="n">
         <v>5.58</v>
       </c>
@@ -25466,11 +25382,9 @@
         <v>808441.9733979045</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
-      </c>
-      <c r="I617" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
       <c r="J617" t="n">
         <v>5.58</v>
       </c>
@@ -25507,11 +25421,9 @@
         <v>808441.9733979045</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
-      </c>
-      <c r="I618" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
       <c r="J618" t="n">
         <v>5.58</v>
       </c>
@@ -25548,11 +25460,9 @@
         <v>993932.3289979046</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
-      </c>
-      <c r="I619" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
       <c r="J619" t="n">
         <v>5.58</v>
       </c>
@@ -25589,11 +25499,9 @@
         <v>993932.3289979046</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
-      </c>
-      <c r="I620" t="n">
-        <v>5.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
       <c r="J620" t="n">
         <v>5.58</v>
       </c>
@@ -25630,11 +25538,9 @@
         <v>993932.3289979046</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
-      </c>
-      <c r="I621" t="n">
-        <v>5.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
       <c r="J621" t="n">
         <v>5.58</v>
       </c>
@@ -25671,11 +25577,9 @@
         <v>993932.3289979046</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
-      </c>
-      <c r="I622" t="n">
-        <v>5.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
       <c r="J622" t="n">
         <v>5.58</v>
       </c>
@@ -25712,11 +25616,9 @@
         <v>993932.3289979046</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
-      </c>
-      <c r="I623" t="n">
-        <v>5.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
       <c r="J623" t="n">
         <v>5.58</v>
       </c>
@@ -25753,11 +25655,9 @@
         <v>993932.3289979046</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
-      </c>
-      <c r="I624" t="n">
-        <v>5.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
       <c r="J624" t="n">
         <v>5.58</v>
       </c>
@@ -25794,11 +25694,9 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
-      </c>
-      <c r="I625" t="n">
-        <v>5.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
       <c r="J625" t="n">
         <v>5.58</v>
       </c>
@@ -25835,11 +25733,9 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
-      </c>
-      <c r="I626" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
       <c r="J626" t="n">
         <v>5.58</v>
       </c>
@@ -25876,11 +25772,9 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
-      </c>
-      <c r="I627" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
         <v>5.58</v>
       </c>
@@ -25917,11 +25811,9 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
-      </c>
-      <c r="I628" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
         <v>5.58</v>
       </c>
@@ -25958,11 +25850,9 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
-      </c>
-      <c r="I629" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
         <v>5.58</v>
       </c>
@@ -25999,11 +25889,9 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
-      </c>
-      <c r="I630" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
       <c r="J630" t="n">
         <v>5.58</v>
       </c>
@@ -26040,11 +25928,9 @@
         <v>818312.2930979045</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
-      </c>
-      <c r="I631" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
         <v>5.58</v>
       </c>
@@ -26081,11 +25967,9 @@
         <v>546222.9805979045</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
-      </c>
-      <c r="I632" t="n">
-        <v>5.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
       <c r="J632" t="n">
         <v>5.58</v>
       </c>
@@ -26122,11 +26006,9 @@
         <v>546222.9805979045</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>5.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
       <c r="J633" t="n">
         <v>5.58</v>
       </c>
@@ -26163,11 +26045,9 @@
         <v>415639.5151979045</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
-      </c>
-      <c r="I634" t="n">
-        <v>5.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
         <v>5.58</v>
       </c>
@@ -26204,11 +26084,9 @@
         <v>415639.5151979045</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
-      </c>
-      <c r="I635" t="n">
-        <v>5.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
       <c r="J635" t="n">
         <v>5.58</v>
       </c>
@@ -26245,11 +26123,9 @@
         <v>415639.5151979045</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
-      </c>
-      <c r="I636" t="n">
-        <v>5.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
       <c r="J636" t="n">
         <v>5.58</v>
       </c>
@@ -26286,11 +26162,9 @@
         <v>415639.5151979045</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
-      </c>
-      <c r="I637" t="n">
-        <v>5.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
       <c r="J637" t="n">
         <v>5.58</v>
       </c>
@@ -26327,11 +26201,9 @@
         <v>415639.5151979045</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
-      </c>
-      <c r="I638" t="n">
-        <v>5.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
       <c r="J638" t="n">
         <v>5.58</v>
       </c>
@@ -26409,11 +26281,9 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
-      </c>
-      <c r="I640" t="n">
-        <v>5.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
       <c r="J640" t="n">
         <v>5.58</v>
       </c>
@@ -26450,11 +26320,9 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
-      </c>
-      <c r="I641" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
       <c r="J641" t="n">
         <v>5.58</v>
       </c>
@@ -26491,11 +26359,9 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
-      </c>
-      <c r="I642" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
       <c r="J642" t="n">
         <v>5.58</v>
       </c>
@@ -26532,11 +26398,9 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
-      </c>
-      <c r="I643" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
       <c r="J643" t="n">
         <v>5.58</v>
       </c>
@@ -26573,11 +26437,9 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
-      </c>
-      <c r="I644" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
       <c r="J644" t="n">
         <v>5.58</v>
       </c>
@@ -26614,11 +26476,9 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
-      </c>
-      <c r="I645" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
       <c r="J645" t="n">
         <v>5.58</v>
       </c>
@@ -26655,11 +26515,9 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
-      </c>
-      <c r="I646" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
       <c r="J646" t="n">
         <v>5.58</v>
       </c>
@@ -26696,11 +26554,9 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
-      </c>
-      <c r="I647" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
       <c r="J647" t="n">
         <v>5.58</v>
       </c>
@@ -26737,11 +26593,9 @@
         <v>1112697.179197905</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
-      </c>
-      <c r="I648" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
       <c r="J648" t="n">
         <v>5.58</v>
       </c>
@@ -26778,11 +26632,9 @@
         <v>1021737.870597905</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
-      </c>
-      <c r="I649" t="n">
-        <v>5.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
       <c r="J649" t="n">
         <v>5.58</v>
       </c>
@@ -26819,11 +26671,9 @@
         <v>1178636.428697905</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
-      </c>
-      <c r="I650" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
       <c r="J650" t="n">
         <v>5.58</v>
       </c>
@@ -26860,11 +26710,9 @@
         <v>1178636.428697905</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
-      </c>
-      <c r="I651" t="n">
-        <v>5.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
       <c r="J651" t="n">
         <v>5.58</v>
       </c>
@@ -26901,11 +26749,9 @@
         <v>1475964.129597905</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
-      </c>
-      <c r="I652" t="n">
-        <v>5.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
       <c r="J652" t="n">
         <v>5.58</v>
       </c>
@@ -26942,11 +26788,9 @@
         <v>1463167.772397905</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
-      </c>
-      <c r="I653" t="n">
-        <v>5.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
       <c r="J653" t="n">
         <v>5.58</v>
       </c>
@@ -26983,11 +26827,9 @@
         <v>1568625.114097905</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>5.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
       <c r="J654" t="n">
         <v>5.58</v>
       </c>
@@ -27024,11 +26866,9 @@
         <v>1568625.114097905</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>5.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
       <c r="J655" t="n">
         <v>5.58</v>
       </c>
@@ -27065,11 +26905,9 @@
         <v>1568625.114097905</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>5.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
       <c r="J656" t="n">
         <v>5.58</v>
       </c>
@@ -27106,11 +26944,9 @@
         <v>1600136.284489454</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>5.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
       <c r="J657" t="n">
         <v>5.58</v>
       </c>
@@ -27147,11 +26983,9 @@
         <v>1874128.303989454</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>5.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
       <c r="J658" t="n">
         <v>5.58</v>
       </c>
@@ -27188,11 +27022,9 @@
         <v>1874128.303989454</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
-        <v>5.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
       <c r="J659" t="n">
         <v>5.58</v>
       </c>
@@ -27229,11 +27061,9 @@
         <v>2154592.263789454</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
-      </c>
-      <c r="I660" t="n">
-        <v>5.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
       <c r="J660" t="n">
         <v>5.58</v>
       </c>
@@ -27270,11 +27100,9 @@
         <v>2154592.263789454</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
-      </c>
-      <c r="I661" t="n">
-        <v>5.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
       <c r="J661" t="n">
         <v>5.58</v>
       </c>
@@ -27311,11 +27139,9 @@
         <v>2355479.157289454</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
-      </c>
-      <c r="I662" t="n">
-        <v>5.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
         <v>5.58</v>
       </c>
@@ -27352,11 +27178,9 @@
         <v>2725952.537350451</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
-      </c>
-      <c r="I663" t="n">
-        <v>5.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
       <c r="J663" t="n">
         <v>5.58</v>
       </c>
@@ -27393,11 +27217,9 @@
         <v>2725952.537350451</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
-      </c>
-      <c r="I664" t="n">
-        <v>5.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
       <c r="J664" t="n">
         <v>5.58</v>
       </c>
@@ -27434,11 +27256,9 @@
         <v>2725952.537350451</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
-      </c>
-      <c r="I665" t="n">
-        <v>5.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
       <c r="J665" t="n">
         <v>5.58</v>
       </c>
@@ -27475,11 +27295,9 @@
         <v>3032969.950650451</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
-      </c>
-      <c r="I666" t="n">
-        <v>5.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
       <c r="J666" t="n">
         <v>5.58</v>
       </c>
@@ -27516,11 +27334,9 @@
         <v>3032969.950650451</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
-      </c>
-      <c r="I667" t="n">
-        <v>5.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
       <c r="J667" t="n">
         <v>5.58</v>
       </c>
@@ -27986,11 +27802,9 @@
         <v>7772285.813789454</v>
       </c>
       <c r="H679" t="n">
-        <v>1</v>
-      </c>
-      <c r="I679" t="n">
-        <v>5.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I679" t="inlineStr"/>
       <c r="J679" t="n">
         <v>5.58</v>
       </c>
@@ -28066,11 +27880,9 @@
         <v>7772285.813789454</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
-      </c>
-      <c r="I681" t="n">
-        <v>5.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
       <c r="J681" t="n">
         <v>5.58</v>
       </c>
@@ -28107,11 +27919,9 @@
         <v>7821982.962489454</v>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
-      </c>
-      <c r="I682" t="n">
-        <v>5.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
       <c r="J682" t="n">
         <v>5.58</v>
       </c>
@@ -28187,11 +27997,9 @@
         <v>7821163.988189454</v>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
-      </c>
-      <c r="I684" t="n">
-        <v>5.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
       <c r="J684" t="n">
         <v>5.58</v>
       </c>
@@ -29047,11 +28855,9 @@
         <v>7159331.486589454</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
-      </c>
-      <c r="I706" t="n">
-        <v>5.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I706" t="inlineStr"/>
       <c r="J706" t="n">
         <v>5.58</v>
       </c>
@@ -29088,11 +28894,9 @@
         <v>7421324.750689454</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
-      </c>
-      <c r="I707" t="n">
-        <v>5.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I707" t="inlineStr"/>
       <c r="J707" t="n">
         <v>5.58</v>
       </c>
@@ -29129,11 +28933,9 @@
         <v>7415383.776289455</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
-      </c>
-      <c r="I708" t="n">
-        <v>5.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
       <c r="J708" t="n">
         <v>5.58</v>
       </c>
@@ -29170,11 +28972,9 @@
         <v>6883583.227889455</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
-      </c>
-      <c r="I709" t="n">
-        <v>5.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I709" t="inlineStr"/>
       <c r="J709" t="n">
         <v>5.58</v>
       </c>
@@ -29406,11 +29206,9 @@
         <v>7043944.633289455</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
-      </c>
-      <c r="I715" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
       <c r="J715" t="n">
         <v>5.58</v>
       </c>
@@ -29447,11 +29245,9 @@
         <v>7043944.633289455</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
-      </c>
-      <c r="I716" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I716" t="inlineStr"/>
       <c r="J716" t="n">
         <v>5.58</v>
       </c>
@@ -29488,11 +29284,9 @@
         <v>7043944.633289455</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
-      </c>
-      <c r="I717" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
       <c r="J717" t="n">
         <v>5.58</v>
       </c>
@@ -29529,11 +29323,9 @@
         <v>7043944.633289455</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
-      </c>
-      <c r="I718" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I718" t="inlineStr"/>
       <c r="J718" t="n">
         <v>5.58</v>
       </c>
@@ -29804,11 +29596,9 @@
         <v>7324546.289889456</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
-      </c>
-      <c r="I725" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
       <c r="J725" t="n">
         <v>5.58</v>
       </c>
@@ -29845,11 +29635,9 @@
         <v>7401823.897789456</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
-      </c>
-      <c r="I726" t="n">
-        <v>5.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I726" t="inlineStr"/>
       <c r="J726" t="n">
         <v>5.58</v>
       </c>
@@ -34410,7 +34198,7 @@
         <v>19993918.47857793</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="n">
@@ -34418,13 +34206,15 @@
       </c>
       <c r="K843" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L843" t="n">
-        <v>1</v>
-      </c>
-      <c r="M843" t="inlineStr"/>
+        <v>1.109695340501792</v>
+      </c>
+      <c r="M843" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="844">
       <c r="A844" s="1" t="n">
@@ -34449,17 +34239,11 @@
         <v>20851353.10620826</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J844" t="inlineStr"/>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -34488,17 +34272,11 @@
         <v>20106458.52460827</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J845" t="inlineStr"/>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -34527,17 +34305,11 @@
         <v>21951727.48237412</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J846" t="inlineStr"/>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -34566,17 +34338,11 @@
         <v>24444334.3945481</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J847" t="inlineStr"/>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -34605,17 +34371,11 @@
         <v>23247616.79194809</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J848" t="inlineStr"/>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -34644,17 +34404,11 @@
         <v>22402755.9977481</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J849" t="inlineStr"/>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -34683,17 +34437,11 @@
         <v>21651027.1106481</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J850" t="inlineStr"/>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -34722,17 +34470,11 @@
         <v>21877536.45371497</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J851" t="inlineStr"/>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -34761,17 +34503,11 @@
         <v>21338528.71501497</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J852" t="inlineStr"/>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -34800,17 +34536,11 @@
         <v>21338528.71501497</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J853" t="inlineStr"/>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -34839,17 +34569,11 @@
         <v>21132943.30511497</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J854" t="inlineStr"/>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -34878,17 +34602,11 @@
         <v>20758491.32551497</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J855" t="inlineStr"/>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -34917,17 +34635,11 @@
         <v>20402085.23681497</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J856" t="inlineStr"/>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -34959,14 +34671,8 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J857" t="inlineStr"/>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -34998,14 +34704,8 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J858" t="inlineStr"/>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -35037,14 +34737,8 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J859" t="inlineStr"/>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -35076,14 +34770,8 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J860" t="inlineStr"/>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -35115,14 +34803,8 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J861" t="inlineStr"/>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -35154,14 +34836,8 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J862" t="inlineStr"/>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -35193,14 +34869,8 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J863" t="inlineStr"/>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -35232,14 +34902,8 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J864" t="inlineStr"/>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -35271,14 +34935,8 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J865" t="inlineStr"/>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -35307,17 +34965,11 @@
         <v>23141900.60570431</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J866" t="inlineStr"/>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -35346,17 +34998,11 @@
         <v>23489410.45060431</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J867" t="inlineStr"/>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -35385,17 +35031,11 @@
         <v>23651825.02091498</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J868" t="inlineStr"/>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -35424,17 +35064,11 @@
         <v>24235413.38221497</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J869" t="inlineStr"/>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -35463,17 +35097,11 @@
         <v>24653965.83361498</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J870" t="inlineStr"/>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -35502,17 +35130,11 @@
         <v>25164354.06711498</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J871" t="inlineStr"/>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -35541,17 +35163,11 @@
         <v>26098313.85111497</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J872" t="inlineStr"/>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -35580,17 +35196,11 @@
         <v>27034890.70895174</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J873" t="inlineStr"/>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -35619,17 +35229,11 @@
         <v>27752999.56605174</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J874" t="inlineStr"/>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -35658,17 +35262,11 @@
         <v>27282186.64845174</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J875" t="inlineStr"/>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -35697,17 +35295,11 @@
         <v>27282186.64845174</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J876" t="inlineStr"/>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -35736,17 +35328,11 @@
         <v>27811925.51965174</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J877" t="inlineStr"/>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -35778,14 +35364,8 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J878" t="inlineStr"/>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -35817,14 +35397,8 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J879" t="inlineStr"/>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -35856,14 +35430,8 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J880" t="inlineStr"/>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -35895,14 +35463,8 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J881" t="inlineStr"/>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -35931,23 +35493,15 @@
         <v>34369007.94851497</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J882" t="inlineStr"/>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
-        <v>1.168835125448029</v>
-      </c>
-      <c r="M882" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M882" t="inlineStr"/>
     </row>
     <row r="883">
       <c r="A883" s="1" t="n">
@@ -35972,7 +35526,7 @@
         <v>35435171.37681497</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -36005,7 +35559,7 @@
         <v>33004518.56001497</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -36038,7 +35592,7 @@
         <v>32041168.35341497</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -36071,7 +35625,7 @@
         <v>31638032.29611497</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -36104,7 +35658,7 @@
         <v>30708138.10911497</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -36137,7 +35691,7 @@
         <v>31706277.24861497</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -36170,7 +35724,7 @@
         <v>31227774.79591497</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -36203,7 +35757,7 @@
         <v>31501270.70441497</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -36236,7 +35790,7 @@
         <v>31883531.87211497</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -36269,7 +35823,7 @@
         <v>31451057.71367979</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -36302,7 +35856,7 @@
         <v>32157925.89717979</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -36335,7 +35889,7 @@
         <v>30555770.3578798</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -36368,7 +35922,7 @@
         <v>30846593.92867979</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -36401,7 +35955,7 @@
         <v>31045838.5015798</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -36434,7 +35988,7 @@
         <v>30769021.9408798</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -36467,7 +36021,7 @@
         <v>30704599.06867979</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -36500,7 +36054,7 @@
         <v>28357387.86884027</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -36533,7 +36087,7 @@
         <v>28097796.03924027</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -36566,7 +36120,7 @@
         <v>28823073.27794027</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -36599,7 +36153,7 @@
         <v>28851589.18190075</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -36632,7 +36186,7 @@
         <v>28851589.18190075</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -36665,7 +36219,7 @@
         <v>28539286.87410075</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -36698,7 +36252,7 @@
         <v>28114151.37040075</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -36731,7 +36285,7 @@
         <v>27773517.98210075</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -36764,7 +36318,7 @@
         <v>27095443.17140075</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -36797,7 +36351,7 @@
         <v>26516619.42960075</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -36830,7 +36384,7 @@
         <v>26516619.42960075</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -36863,7 +36417,7 @@
         <v>27558577.85480075</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -36896,7 +36450,7 @@
         <v>27828371.52670075</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -36929,7 +36483,7 @@
         <v>28420376.99410075</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -36962,7 +36516,7 @@
         <v>28595536.68400075</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -36995,7 +36549,7 @@
         <v>28935380.67660075</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -37028,7 +36582,7 @@
         <v>29154881.89510075</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -37061,7 +36615,7 @@
         <v>29252845.37200075</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -37094,7 +36648,7 @@
         <v>29641715.30330075</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -37127,7 +36681,7 @@
         <v>30914768.75990075</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -37160,7 +36714,7 @@
         <v>31819149.12320075</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -37193,7 +36747,7 @@
         <v>31334856.17100075</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -37226,7 +36780,7 @@
         <v>31100302.89490075</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -37259,7 +36813,7 @@
         <v>30619276.09300075</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -37292,7 +36846,7 @@
         <v>30442331.13920075</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -37325,7 +36879,7 @@
         <v>30259261.42160075</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -37358,7 +36912,7 @@
         <v>30259261.42160075</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -37391,7 +36945,7 @@
         <v>30490222.57450075</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -37424,7 +36978,7 @@
         <v>30662086.69410075</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -37457,7 +37011,7 @@
         <v>30368439.86040075</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -37490,7 +37044,7 @@
         <v>30435226.10640075</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -37523,7 +37077,7 @@
         <v>30435226.10640075</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -37556,7 +37110,7 @@
         <v>30435226.10640075</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -37589,7 +37143,7 @@
         <v>30435226.10640075</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -37622,7 +37176,7 @@
         <v>30435226.10640075</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -37655,7 +37209,7 @@
         <v>30435226.10640075</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -37688,7 +37242,7 @@
         <v>30345751.57300075</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -37721,7 +37275,7 @@
         <v>30345751.57300075</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -37754,7 +37308,7 @@
         <v>30203767.61490075</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -37787,7 +37341,7 @@
         <v>30203767.61490075</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -37820,7 +37374,7 @@
         <v>30057899.83690075</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -37853,7 +37407,7 @@
         <v>29840907.89140075</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -37886,7 +37440,7 @@
         <v>29840907.89140075</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -37919,7 +37473,7 @@
         <v>29579008.67670075</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -37952,7 +37506,7 @@
         <v>29579008.67670075</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -37985,7 +37539,7 @@
         <v>29132181.81990075</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -38018,7 +37572,7 @@
         <v>29132181.81990075</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -38051,7 +37605,7 @@
         <v>29132181.81990075</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -38084,7 +37638,7 @@
         <v>28513542.37960075</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -38117,7 +37671,7 @@
         <v>28678570.11470075</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -38150,7 +37704,7 @@
         <v>28926100.97140075</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -38183,7 +37737,7 @@
         <v>29394183.53420075</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -38216,7 +37770,7 @@
         <v>29844624.08640075</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -38249,7 +37803,7 @@
         <v>30279935.29840076</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -38282,7 +37836,7 @@
         <v>30279935.29840076</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -38315,7 +37869,7 @@
         <v>30156309.35420075</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -38348,7 +37902,7 @@
         <v>30215062.06800075</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -38381,7 +37935,7 @@
         <v>30511845.35760075</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -38414,7 +37968,7 @@
         <v>30511845.35760075</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -38447,7 +38001,7 @@
         <v>30284816.70680075</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -38480,7 +38034,7 @@
         <v>30845397.51910075</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -38513,7 +38067,7 @@
         <v>31548410.63840075</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -38546,7 +38100,7 @@
         <v>30808305.30290075</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -38579,7 +38133,7 @@
         <v>30808305.30290075</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -38612,7 +38166,7 @@
         <v>30808305.30290075</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -38645,7 +38199,7 @@
         <v>30808305.30290075</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -38678,7 +38232,7 @@
         <v>30808305.30290075</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -38711,7 +38265,7 @@
         <v>30808305.30290075</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -38744,7 +38298,7 @@
         <v>30793662.84560075</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -38777,7 +38331,7 @@
         <v>30546549.33080075</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -38810,7 +38364,7 @@
         <v>30495741.68520075</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -38843,7 +38397,7 @@
         <v>30747949.41330076</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -38876,7 +38430,7 @@
         <v>31069435.07960076</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -38909,7 +38463,7 @@
         <v>31042726.68670075</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -38942,7 +38496,7 @@
         <v>31042726.68670075</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -38975,7 +38529,7 @@
         <v>30675370.62690075</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -39008,7 +38562,7 @@
         <v>30675370.62690075</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -39041,7 +38595,7 @@
         <v>30675370.62690075</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -39074,7 +38628,7 @@
         <v>30951020.12210076</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -39107,7 +38661,7 @@
         <v>30226193.46360075</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -39140,7 +38694,7 @@
         <v>29434722.07810076</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -39173,7 +38727,7 @@
         <v>29411850.10760076</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -39206,7 +38760,7 @@
         <v>29411850.10760076</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -39239,7 +38793,7 @@
         <v>29411850.10760076</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -41153,7 +40707,7 @@
         <v>36019758.75083658</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -41186,7 +40740,7 @@
         <v>37029378.71843658</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -41219,7 +40773,7 @@
         <v>37029378.71843658</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -41252,7 +40806,7 @@
         <v>37029378.71843658</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -41285,7 +40839,7 @@
         <v>37029378.71843658</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -41318,7 +40872,7 @@
         <v>36930489.33563659</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -41384,7 +40938,7 @@
         <v>37665033.92003658</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -41450,7 +41004,7 @@
         <v>37486748.57283659</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -41483,7 +41037,7 @@
         <v>37729439.76712526</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -41516,7 +41070,7 @@
         <v>37519972.95302527</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -41549,7 +41103,7 @@
         <v>37428986.02922527</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -41582,7 +41136,7 @@
         <v>37875116.76072527</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -41615,7 +41169,7 @@
         <v>37875116.76072527</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -41978,7 +41532,7 @@
         <v>38156079.45682526</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -42011,7 +41565,7 @@
         <v>38156079.45682526</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -42044,7 +41598,7 @@
         <v>37281811.09062526</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -42077,7 +41631,7 @@
         <v>36622844.33482526</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -42143,7 +41697,7 @@
         <v>36584918.48342526</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -42209,7 +41763,7 @@
         <v>36845393.91412526</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -42308,7 +41862,7 @@
         <v>36774702.81092525</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -42341,7 +41895,7 @@
         <v>36774691.81092525</v>
       </c>
       <c r="H1076" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -42407,7 +41961,7 @@
         <v>36806855.60972526</v>
       </c>
       <c r="H1078" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -42440,7 +41994,7 @@
         <v>36806855.60972526</v>
       </c>
       <c r="H1079" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -42473,7 +42027,7 @@
         <v>36650960.06592526</v>
       </c>
       <c r="H1080" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -42506,7 +42060,7 @@
         <v>36989738.60942526</v>
       </c>
       <c r="H1081" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -42539,7 +42093,7 @@
         <v>36742203.04742526</v>
       </c>
       <c r="H1082" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -42572,7 +42126,7 @@
         <v>36782326.94782526</v>
       </c>
       <c r="H1083" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -42605,7 +42159,7 @@
         <v>36526083.50122526</v>
       </c>
       <c r="H1084" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -42638,7 +42192,7 @@
         <v>37248815.44752526</v>
       </c>
       <c r="H1085" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -42671,7 +42225,7 @@
         <v>37248815.44752526</v>
       </c>
       <c r="H1086" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
@@ -42704,7 +42258,7 @@
         <v>37248815.44752526</v>
       </c>
       <c r="H1087" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -42737,7 +42291,7 @@
         <v>37248815.44752526</v>
       </c>
       <c r="H1088" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
@@ -42770,7 +42324,7 @@
         <v>37186991.55552527</v>
       </c>
       <c r="H1089" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
@@ -42803,7 +42357,7 @@
         <v>37186991.55552527</v>
       </c>
       <c r="H1090" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
@@ -42836,7 +42390,7 @@
         <v>37186991.55552527</v>
       </c>
       <c r="H1091" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
@@ -42869,7 +42423,7 @@
         <v>37186991.55552527</v>
       </c>
       <c r="H1092" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
@@ -42902,7 +42456,7 @@
         <v>37186991.55552527</v>
       </c>
       <c r="H1093" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -42935,7 +42489,7 @@
         <v>37301876.39972527</v>
       </c>
       <c r="H1094" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
@@ -42968,7 +42522,7 @@
         <v>37449463.53622527</v>
       </c>
       <c r="H1095" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -43001,7 +42555,7 @@
         <v>37449451.53622527</v>
       </c>
       <c r="H1096" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -43034,7 +42588,7 @@
         <v>37701337.80562527</v>
       </c>
       <c r="H1097" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -43276,6 +42830,6 @@
       <c r="M1104" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest CON.xlsx
+++ b/BackTest/2019-10-18 BackTest CON.xlsx
@@ -22555,9 +22555,11 @@
         <v>1335911.977889454</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>5.65</v>
+      </c>
       <c r="J546" t="n">
         <v>5.58</v>
       </c>
@@ -22594,9 +22596,11 @@
         <v>1335911.977889454</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>5.65</v>
+      </c>
       <c r="J547" t="n">
         <v>5.58</v>
       </c>
@@ -22633,9 +22637,11 @@
         <v>1237246.907089454</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>5.65</v>
+      </c>
       <c r="J548" t="n">
         <v>5.58</v>
       </c>
@@ -22672,9 +22678,11 @@
         <v>1237246.907089454</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>5.64</v>
+      </c>
       <c r="J549" t="n">
         <v>5.58</v>
       </c>
@@ -22711,9 +22719,11 @@
         <v>1237246.907089454</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>5.64</v>
+      </c>
       <c r="J550" t="n">
         <v>5.58</v>
       </c>
@@ -22750,9 +22760,11 @@
         <v>1237246.907089454</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>5.64</v>
+      </c>
       <c r="J551" t="n">
         <v>5.58</v>
       </c>
@@ -22789,9 +22801,11 @@
         <v>1237246.907089454</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>5.64</v>
+      </c>
       <c r="J552" t="n">
         <v>5.58</v>
       </c>
@@ -22869,9 +22883,11 @@
         <v>865753.7753894536</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>5.64</v>
+      </c>
       <c r="J554" t="n">
         <v>5.58</v>
       </c>
@@ -23605,9 +23621,11 @@
         <v>1276810.674889454</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>5.64</v>
+      </c>
       <c r="J572" t="n">
         <v>5.58</v>
       </c>
@@ -23644,9 +23662,11 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>5.64</v>
+      </c>
       <c r="J573" t="n">
         <v>5.58</v>
       </c>
@@ -23724,9 +23744,11 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J575" t="n">
         <v>5.58</v>
       </c>
@@ -23763,9 +23785,11 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J576" t="n">
         <v>5.58</v>
       </c>
@@ -23802,9 +23826,11 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J577" t="n">
         <v>5.58</v>
       </c>
@@ -23841,9 +23867,11 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J578" t="n">
         <v>5.58</v>
       </c>
@@ -23880,9 +23908,11 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J579" t="n">
         <v>5.58</v>
       </c>
@@ -23919,9 +23949,11 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J580" t="n">
         <v>5.58</v>
       </c>
@@ -23958,9 +23990,11 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J581" t="n">
         <v>5.58</v>
       </c>
@@ -23997,9 +24031,11 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J582" t="n">
         <v>5.58</v>
       </c>
@@ -24036,9 +24072,11 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J583" t="n">
         <v>5.58</v>
       </c>
@@ -24116,9 +24154,11 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J585" t="n">
         <v>5.58</v>
       </c>
@@ -24524,9 +24564,11 @@
         <v>1556812.160689454</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>5.65</v>
+      </c>
       <c r="J595" t="n">
         <v>5.58</v>
       </c>
@@ -24563,9 +24605,11 @@
         <v>1556812.160689454</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J596" t="n">
         <v>5.58</v>
       </c>
@@ -24602,9 +24646,11 @@
         <v>1556812.160689454</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J597" t="n">
         <v>5.58</v>
       </c>
@@ -24641,9 +24687,11 @@
         <v>880601.3985894538</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J598" t="n">
         <v>5.58</v>
       </c>
@@ -24680,9 +24728,11 @@
         <v>880601.3985894538</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>5.64</v>
+      </c>
       <c r="J599" t="n">
         <v>5.58</v>
       </c>
@@ -24719,9 +24769,11 @@
         <v>880601.3985894538</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>5.64</v>
+      </c>
       <c r="J600" t="n">
         <v>5.58</v>
       </c>
@@ -24758,9 +24810,11 @@
         <v>880601.3985894538</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>5.64</v>
+      </c>
       <c r="J601" t="n">
         <v>5.58</v>
       </c>
@@ -24797,9 +24851,11 @@
         <v>880601.3985894538</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>5.64</v>
+      </c>
       <c r="J602" t="n">
         <v>5.58</v>
       </c>
@@ -24836,9 +24892,11 @@
         <v>880601.3985894538</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>5.64</v>
+      </c>
       <c r="J603" t="n">
         <v>5.58</v>
       </c>
@@ -24875,9 +24933,11 @@
         <v>1078064.996997904</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>5.64</v>
+      </c>
       <c r="J604" t="n">
         <v>5.58</v>
       </c>
@@ -24914,9 +24974,11 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J605" t="n">
         <v>5.58</v>
       </c>
@@ -24953,9 +25015,11 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J606" t="n">
         <v>5.58</v>
       </c>
@@ -24992,9 +25056,11 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J607" t="n">
         <v>5.58</v>
       </c>
@@ -25031,9 +25097,11 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J608" t="n">
         <v>5.58</v>
       </c>
@@ -25070,9 +25138,11 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J609" t="n">
         <v>5.58</v>
       </c>
@@ -25109,9 +25179,11 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J610" t="n">
         <v>5.58</v>
       </c>
@@ -25148,9 +25220,11 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J611" t="n">
         <v>5.58</v>
       </c>
@@ -25187,9 +25261,11 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J612" t="n">
         <v>5.58</v>
       </c>
@@ -25226,9 +25302,11 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J613" t="n">
         <v>5.58</v>
       </c>
@@ -25265,9 +25343,11 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J614" t="n">
         <v>5.58</v>
       </c>
@@ -25304,9 +25384,11 @@
         <v>781852.7473979045</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J615" t="n">
         <v>5.58</v>
       </c>
@@ -25343,9 +25425,11 @@
         <v>808441.9733979045</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>5.65</v>
+      </c>
       <c r="J616" t="n">
         <v>5.58</v>
       </c>
@@ -25382,9 +25466,11 @@
         <v>808441.9733979045</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J617" t="n">
         <v>5.58</v>
       </c>
@@ -25421,9 +25507,11 @@
         <v>808441.9733979045</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J618" t="n">
         <v>5.58</v>
       </c>
@@ -25460,9 +25548,11 @@
         <v>993932.3289979046</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J619" t="n">
         <v>5.58</v>
       </c>
@@ -25499,9 +25589,11 @@
         <v>993932.3289979046</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J620" t="n">
         <v>5.58</v>
       </c>
@@ -25538,9 +25630,11 @@
         <v>993932.3289979046</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J621" t="n">
         <v>5.58</v>
       </c>
@@ -25577,9 +25671,11 @@
         <v>993932.3289979046</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J622" t="n">
         <v>5.58</v>
       </c>
@@ -25616,9 +25712,11 @@
         <v>993932.3289979046</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J623" t="n">
         <v>5.58</v>
       </c>
@@ -25655,9 +25753,11 @@
         <v>993932.3289979046</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J624" t="n">
         <v>5.58</v>
       </c>
@@ -25694,9 +25794,11 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J625" t="n">
         <v>5.58</v>
       </c>
@@ -25733,9 +25835,11 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J626" t="n">
         <v>5.58</v>
       </c>
@@ -25772,9 +25876,11 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J627" t="n">
         <v>5.58</v>
       </c>
@@ -25811,9 +25917,11 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J628" t="n">
         <v>5.58</v>
       </c>
@@ -25850,9 +25958,11 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J629" t="n">
         <v>5.58</v>
       </c>
@@ -25889,9 +25999,11 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J630" t="n">
         <v>5.58</v>
       </c>
@@ -25928,9 +26040,11 @@
         <v>818312.2930979045</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J631" t="n">
         <v>5.58</v>
       </c>
@@ -25967,9 +26081,11 @@
         <v>546222.9805979045</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>5.65</v>
+      </c>
       <c r="J632" t="n">
         <v>5.58</v>
       </c>
@@ -26006,9 +26122,11 @@
         <v>546222.9805979045</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J633" t="n">
         <v>5.58</v>
       </c>
@@ -26045,9 +26163,11 @@
         <v>415639.5151979045</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J634" t="n">
         <v>5.58</v>
       </c>
@@ -26084,9 +26204,11 @@
         <v>415639.5151979045</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>5.62</v>
+      </c>
       <c r="J635" t="n">
         <v>5.58</v>
       </c>
@@ -26123,9 +26245,11 @@
         <v>415639.5151979045</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>5.62</v>
+      </c>
       <c r="J636" t="n">
         <v>5.58</v>
       </c>
@@ -26162,9 +26286,11 @@
         <v>415639.5151979045</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>5.62</v>
+      </c>
       <c r="J637" t="n">
         <v>5.58</v>
       </c>
@@ -26201,9 +26327,11 @@
         <v>415639.5151979045</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>5.62</v>
+      </c>
       <c r="J638" t="n">
         <v>5.58</v>
       </c>
@@ -26281,9 +26409,11 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J640" t="n">
         <v>5.58</v>
       </c>
@@ -26320,9 +26450,11 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J641" t="n">
         <v>5.58</v>
       </c>
@@ -26359,9 +26491,11 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J642" t="n">
         <v>5.58</v>
       </c>
@@ -26398,9 +26532,11 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J643" t="n">
         <v>5.58</v>
       </c>
@@ -26437,9 +26573,11 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J644" t="n">
         <v>5.58</v>
       </c>
@@ -26476,9 +26614,11 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J645" t="n">
         <v>5.58</v>
       </c>
@@ -26515,9 +26655,11 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J646" t="n">
         <v>5.58</v>
       </c>
@@ -26554,9 +26696,11 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J647" t="n">
         <v>5.58</v>
       </c>
@@ -26593,9 +26737,11 @@
         <v>1112697.179197905</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J648" t="n">
         <v>5.58</v>
       </c>
@@ -26632,9 +26778,11 @@
         <v>1021737.870597905</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J649" t="n">
         <v>5.58</v>
       </c>
@@ -26671,9 +26819,11 @@
         <v>1178636.428697905</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J650" t="n">
         <v>5.58</v>
       </c>
@@ -26710,9 +26860,11 @@
         <v>1178636.428697905</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J651" t="n">
         <v>5.58</v>
       </c>
@@ -26749,9 +26901,11 @@
         <v>1475964.129597905</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J652" t="n">
         <v>5.58</v>
       </c>
@@ -26788,9 +26942,11 @@
         <v>1463167.772397905</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>5.69</v>
+      </c>
       <c r="J653" t="n">
         <v>5.58</v>
       </c>
@@ -26827,9 +26983,11 @@
         <v>1568625.114097905</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>5.68</v>
+      </c>
       <c r="J654" t="n">
         <v>5.58</v>
       </c>
@@ -26866,9 +27024,11 @@
         <v>1568625.114097905</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>5.69</v>
+      </c>
       <c r="J655" t="n">
         <v>5.58</v>
       </c>
@@ -34198,7 +34358,7 @@
         <v>19993918.47857793</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="n">
@@ -34206,15 +34366,13 @@
       </c>
       <c r="K843" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L843" t="n">
-        <v>1.109695340501792</v>
-      </c>
-      <c r="M843" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M843" t="inlineStr"/>
     </row>
     <row r="844">
       <c r="A844" s="1" t="n">
@@ -34239,11 +34397,17 @@
         <v>20851353.10620826</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -34272,11 +34436,17 @@
         <v>20106458.52460827</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -34305,11 +34475,17 @@
         <v>21951727.48237412</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="J846" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -34338,11 +34514,17 @@
         <v>24444334.3945481</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -34371,11 +34553,17 @@
         <v>23247616.79194809</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="J848" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -34404,11 +34592,17 @@
         <v>22402755.9977481</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="J849" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -34437,11 +34631,17 @@
         <v>21651027.1106481</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="J850" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -34470,11 +34670,17 @@
         <v>21877536.45371497</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="J851" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -34503,11 +34709,17 @@
         <v>21338528.71501497</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="J852" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -34536,11 +34748,17 @@
         <v>21338528.71501497</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="J853" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -34569,11 +34787,17 @@
         <v>21132943.30511497</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -34602,11 +34826,17 @@
         <v>20758491.32551497</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -34635,11 +34865,17 @@
         <v>20402085.23681497</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="J856" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -34671,8 +34907,14 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="J857" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -34704,8 +34946,14 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="J858" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -34737,8 +34985,14 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="J859" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -34770,8 +35024,14 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -34803,8 +35063,14 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="J861" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -34836,8 +35102,14 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -34869,8 +35141,14 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="J863" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -34902,8 +35180,14 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -34935,8 +35219,14 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="J865" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -34965,11 +35255,17 @@
         <v>23141900.60570431</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="J866" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -34998,11 +35294,17 @@
         <v>23489410.45060431</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="J867" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -35031,11 +35333,17 @@
         <v>23651825.02091498</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="J868" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -35064,11 +35372,17 @@
         <v>24235413.38221497</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="J869" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -35097,11 +35411,17 @@
         <v>24653965.83361498</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="J870" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -35130,11 +35450,17 @@
         <v>25164354.06711498</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="J871" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -35163,11 +35489,17 @@
         <v>26098313.85111497</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="J872" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -35196,11 +35528,17 @@
         <v>27034890.70895174</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="J873" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -35229,11 +35567,17 @@
         <v>27752999.56605174</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="J874" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -35265,12 +35609,20 @@
         <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="J875" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L875" t="n">
-        <v>1</v>
-      </c>
-      <c r="M875" t="inlineStr"/>
+        <v>1.147329749103943</v>
+      </c>
+      <c r="M875" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="876">
       <c r="A876" s="1" t="n">
@@ -35361,7 +35713,7 @@
         <v>29785496.25955174</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -35394,7 +35746,7 @@
         <v>27305355.80795174</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -35427,7 +35779,7 @@
         <v>32643370.35501497</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -35460,7 +35812,7 @@
         <v>35266044.73701497</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -35493,7 +35845,7 @@
         <v>34369007.94851497</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -35526,7 +35878,7 @@
         <v>35435171.37681497</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -35559,7 +35911,7 @@
         <v>33004518.56001497</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -35592,7 +35944,7 @@
         <v>32041168.35341497</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -35625,7 +35977,7 @@
         <v>31638032.29611497</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -35658,7 +36010,7 @@
         <v>30708138.10911497</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -35724,7 +36076,7 @@
         <v>31227774.79591497</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -35757,7 +36109,7 @@
         <v>31501270.70441497</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -35790,7 +36142,7 @@
         <v>31883531.87211497</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -35823,7 +36175,7 @@
         <v>31451057.71367979</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -35856,7 +36208,7 @@
         <v>32157925.89717979</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -35889,7 +36241,7 @@
         <v>30555770.3578798</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -35922,7 +36274,7 @@
         <v>30846593.92867979</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -35955,7 +36307,7 @@
         <v>31045838.5015798</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -35988,7 +36340,7 @@
         <v>30769021.9408798</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -36021,7 +36373,7 @@
         <v>30704599.06867979</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -36153,7 +36505,7 @@
         <v>28851589.18190075</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -36186,7 +36538,7 @@
         <v>28851589.18190075</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -36219,7 +36571,7 @@
         <v>28539286.87410075</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -36252,7 +36604,7 @@
         <v>28114151.37040075</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -40707,7 +41059,7 @@
         <v>36019758.75083658</v>
       </c>
       <c r="H1040" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -40740,7 +41092,7 @@
         <v>37029378.71843658</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -40773,7 +41125,7 @@
         <v>37029378.71843658</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -40806,7 +41158,7 @@
         <v>37029378.71843658</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -40839,7 +41191,7 @@
         <v>37029378.71843658</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -40872,7 +41224,7 @@
         <v>36930489.33563659</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -40905,7 +41257,7 @@
         <v>37306238.66393659</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -40938,7 +41290,7 @@
         <v>37665033.92003658</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -40971,7 +41323,7 @@
         <v>37486748.57283659</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -41004,7 +41356,7 @@
         <v>37486748.57283659</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -41037,7 +41389,7 @@
         <v>37729439.76712526</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -41070,7 +41422,7 @@
         <v>37519972.95302527</v>
       </c>
       <c r="H1051" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -41103,7 +41455,7 @@
         <v>37428986.02922527</v>
       </c>
       <c r="H1052" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -41136,7 +41488,7 @@
         <v>37875116.76072527</v>
       </c>
       <c r="H1053" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -41169,7 +41521,7 @@
         <v>37875116.76072527</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -41202,7 +41554,7 @@
         <v>37875116.76072527</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -41235,7 +41587,7 @@
         <v>37438475.89272527</v>
       </c>
       <c r="H1056" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -41268,7 +41620,7 @@
         <v>37268146.63372526</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -41301,7 +41653,7 @@
         <v>37268146.63372526</v>
       </c>
       <c r="H1058" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -41334,7 +41686,7 @@
         <v>37414708.11262526</v>
       </c>
       <c r="H1059" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -41367,7 +41719,7 @@
         <v>37414708.11262526</v>
       </c>
       <c r="H1060" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -41400,7 +41752,7 @@
         <v>37414708.11262526</v>
       </c>
       <c r="H1061" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -41433,7 +41785,7 @@
         <v>38156092.45682526</v>
       </c>
       <c r="H1062" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -41466,7 +41818,7 @@
         <v>38156079.45682526</v>
       </c>
       <c r="H1063" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -41499,7 +41851,7 @@
         <v>38156079.45682526</v>
       </c>
       <c r="H1064" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -41532,7 +41884,7 @@
         <v>38156079.45682526</v>
       </c>
       <c r="H1065" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -41565,7 +41917,7 @@
         <v>38156079.45682526</v>
       </c>
       <c r="H1066" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -41598,7 +41950,7 @@
         <v>37281811.09062526</v>
       </c>
       <c r="H1067" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -41631,7 +41983,7 @@
         <v>36622844.33482526</v>
       </c>
       <c r="H1068" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -41664,7 +42016,7 @@
         <v>36584918.48342526</v>
       </c>
       <c r="H1069" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -41697,7 +42049,7 @@
         <v>36584918.48342526</v>
       </c>
       <c r="H1070" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -41763,7 +42115,7 @@
         <v>36845393.91412526</v>
       </c>
       <c r="H1072" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -41796,7 +42148,7 @@
         <v>36703183.70592526</v>
       </c>
       <c r="H1073" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -41829,7 +42181,7 @@
         <v>36692328.21382526</v>
       </c>
       <c r="H1074" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -41862,7 +42214,7 @@
         <v>36774702.81092525</v>
       </c>
       <c r="H1075" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
